--- a/trunk/Version8/Distrib/Examples/ExpControl/Nantucket.xlsx
+++ b/trunk/Version8/Distrib/Examples/ExpControl/Nantucket.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Papers\2020_PESL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\OpenDSS\Version8\Distrib\Examples\ExpControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B70BC2A-BBB5-4111-9537-64587D751066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4727D8-DC23-4CDE-B074-9D0C12A58C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="951" yWindow="1551" windowWidth="19998" windowHeight="15240" activeTab="1" xr2:uid="{7F0E98FC-012E-4DF5-8696-4CB6DBA72C05}"/>
+    <workbookView xWindow="10329" yWindow="1217" windowWidth="17845" windowHeight="15240" activeTab="2" xr2:uid="{7F0E98FC-012E-4DF5-8696-4CB6DBA72C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hawaii" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="98">
   <si>
     <t>Condition</t>
   </si>
@@ -317,6 +317,24 @@
   <si>
     <t>opt pf</t>
   </si>
+  <si>
+    <t>Constant-Power</t>
+  </si>
+  <si>
+    <t>Im</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>VTcp</t>
+  </si>
+  <si>
+    <t>DSS d</t>
+  </si>
+  <si>
+    <t>(python NantucketRawSteps.py)</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +346,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +363,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -379,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -400,6 +426,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7563,10 +7592,667 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F4CA31-F04D-4F36-A538-838081015827}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.69140625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="9" max="9" width="9.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <f>C2*1000/SQRT(3)</f>
+        <v>7621.0235533030609</v>
+      </c>
+      <c r="C2">
+        <v>13.2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.8340000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <f>B4/B3</f>
+        <v>2.3421487603305788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SQRT(B3*B3+B4*B4)</f>
+        <v>3.081502231055496</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C2*C2/B6</f>
+        <v>56.543850023538091</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B2/B6</f>
+        <v>2473.1520478869356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <f>1/SQRT(1+1/B5/B5)</f>
+        <v>0.91968130720102714</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <f>P9/$B$2</f>
+        <v>4.6228063635291736E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <f>$D$2/3</f>
+        <v>2000000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f>$B$3*C9</f>
+        <v>2420000</v>
+      </c>
+      <c r="F9">
+        <f>$B$4*D9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f>$B$4*C9</f>
+        <v>5668000</v>
+      </c>
+      <c r="H9">
+        <f>$B$3*D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>E9+F9</f>
+        <v>2420000</v>
+      </c>
+      <c r="J9">
+        <f>G9-H9</f>
+        <v>5668000</v>
+      </c>
+      <c r="K9">
+        <f>I9/$B$2</f>
+        <v>317.54264805429415</v>
+      </c>
+      <c r="L9">
+        <f>J9/$B$2</f>
+        <v>743.73211949245422</v>
+      </c>
+      <c r="M9" s="5">
+        <f>$B$2+K9</f>
+        <v>7938.5662013573547</v>
+      </c>
+      <c r="N9">
+        <f>L9</f>
+        <v>743.73211949245422</v>
+      </c>
+      <c r="O9">
+        <f>SQRT(M9*M9+N9*N9)</f>
+        <v>7973.328715091212</v>
+      </c>
+      <c r="P9" s="5">
+        <f>O9-B$2</f>
+        <v>352.30516178815105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <f>P10/$B$2</f>
+        <v>-3.6710586338983192E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <f>-$D$2/3</f>
+        <v>-2000000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f>$B$3*C10</f>
+        <v>-2420000</v>
+      </c>
+      <c r="F10">
+        <f>$B$4*D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f>$B$4*C10</f>
+        <v>-5668000</v>
+      </c>
+      <c r="H10">
+        <f>$B$3*D10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>E10+F10</f>
+        <v>-2420000</v>
+      </c>
+      <c r="J10">
+        <f>G10-H10</f>
+        <v>-5668000</v>
+      </c>
+      <c r="K10">
+        <f>I10/$B$2</f>
+        <v>-317.54264805429415</v>
+      </c>
+      <c r="L10">
+        <f>J10/$B$2</f>
+        <v>-743.73211949245422</v>
+      </c>
+      <c r="M10" s="5">
+        <f>$B$2+K10</f>
+        <v>7303.4809052487672</v>
+      </c>
+      <c r="N10">
+        <f>L10</f>
+        <v>-743.73211949245422</v>
+      </c>
+      <c r="O10">
+        <f>SQRT(M10*M10+N10*N10)</f>
+        <v>7341.2513101581044</v>
+      </c>
+      <c r="P10" s="5">
+        <f>O10-B$2</f>
+        <v>-279.77224314495652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
+        <v>-0.42695836273817911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10">
+        <f>P12/$B$2</f>
+        <v>6.6342039631844558E-3</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" ref="C12" si="0">$D$2/3</f>
+        <v>2000000</v>
+      </c>
+      <c r="D12" s="7">
+        <f>C12*$B$11</f>
+        <v>-853916.7254763582</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12:E13" si="1">$B$3*C12</f>
+        <v>2420000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="2">$B$4*D12</f>
+        <v>-2419999.9999999991</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" ref="G12:G13" si="3">$B$4*C12</f>
+        <v>5668000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H13" si="4">$B$3*D12</f>
+        <v>-1033239.2378263935</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I13" si="5">E12+F12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J13" si="6">G12-H12</f>
+        <v>6701239.2378263939</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:L13" si="7">I12/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>879.30960860526147</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" ref="M12:M13" si="8">$B$2+K12</f>
+        <v>7621.0235533030609</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N13" si="9">L12</f>
+        <v>879.30960860526147</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O13" si="10">SQRT(M12*M12+N12*N12)</f>
+        <v>7671.5829779639062</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" ref="P12:P13" si="11">O12-B$2</f>
+        <v>50.559424660845252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <f>P13/$B$2</f>
+        <v>6.6342039631844558E-3</v>
+      </c>
+      <c r="C13" s="7">
+        <f>-$D$2/3</f>
+        <v>-2000000</v>
+      </c>
+      <c r="D13" s="7">
+        <f>C13*$B$11</f>
+        <v>853916.7254763582</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="1"/>
+        <v>-2420000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2419999.9999999991</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="3"/>
+        <v>-5668000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>1033239.2378263935</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>-6701239.2378263939</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>-879.30960860526147</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="8"/>
+        <v>7621.0235533030609</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>-879.30960860526147</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>7671.5829779639062</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="11"/>
+        <v>50.559424660845252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4">
+        <f>2000000/B2</f>
+        <v>262.43194054073894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B7/B15</f>
+        <v>9.4239750039230188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <f>B2</f>
+        <v>7621.0235533030609</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="11">
+        <f>B3</f>
+        <v>1.21</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C20">
+        <f>$A$20*$A$20+A$21*$A$21</f>
+        <v>9.4956560000000003</v>
+      </c>
+      <c r="D20">
+        <f>2*$A$21*$A$19*$A$19</f>
+        <v>329197440.00000012</v>
+      </c>
+      <c r="E20" s="7">
+        <f>$B$20*$B$20*C20+2*$A$20*$A$19*$A$19*B20</f>
+        <v>319089824000000.06</v>
+      </c>
+      <c r="F20" s="7">
+        <f>(-D20+SQRT(D20*D20-4*C20*E20))/2/C20</f>
+        <v>-998027.36633974581</v>
+      </c>
+      <c r="G20" s="3">
+        <f>ABS(B20)/SQRT(B20*B20+F20*F20)</f>
+        <v>0.8947799269431097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="11">
+        <f>B4</f>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="B21" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="C21">
+        <f>$A$20*$A$20+A$21*$A$21</f>
+        <v>9.4956560000000003</v>
+      </c>
+      <c r="D21">
+        <f>2*$A$21*$A$19*$A$19</f>
+        <v>329197440.00000012</v>
+      </c>
+      <c r="E21" s="7">
+        <f>$B$20*$B$20*C21+2*$A$20*$A$19*$A$19*B21</f>
+        <v>-243124576000000.06</v>
+      </c>
+      <c r="F21" s="7">
+        <f>(-D21+SQRT(D21*D21-4*C21*E21))/2/C21</f>
+        <v>723440.8219790702</v>
+      </c>
+      <c r="G21" s="3">
+        <f>ABS(B21)/SQRT(B21*B21+F21*F21)</f>
+        <v>0.94037072631073837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G22" s="3">
+        <f>AVERAGE(G20:G21)</f>
+        <v>0.91757532662692398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <f>B2</f>
+        <v>7621.0235533030609</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <f>B3</f>
+        <v>1.21</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <f>($A$25*C25-$A$26*B25)/$A$24</f>
+        <v>-743.73211949245422</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <f>-$A$24</f>
+        <v>-7621.0235533030609</v>
+      </c>
+      <c r="G25" s="7">
+        <f>D25*D25-$A$25*B25-$A$26*C25</f>
+        <v>-1866862.534435262</v>
+      </c>
+      <c r="H25" s="7">
+        <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
+        <v>7858.5807650008228</v>
+      </c>
+      <c r="I25">
+        <f>SQRT(D25*D25+H25*H25)</f>
+        <v>7893.6955290665765</v>
+      </c>
+      <c r="J25" s="3">
+        <f>I25/$A$24-1</f>
+        <v>3.5778917865348259E-2</v>
+      </c>
+      <c r="K25">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <f>B4</f>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <f>($A$25*C26-$A$26*B26)/$A$24</f>
+        <v>743.73211949245422</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <f>-$A$24</f>
+        <v>-7621.0235533030609</v>
+      </c>
+      <c r="G26" s="7">
+        <f>D26*D26-$A$25*B26-$A$26*C26</f>
+        <v>2973137.465564738</v>
+      </c>
+      <c r="H26" s="7">
+        <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
+        <v>7208.5792472052362</v>
+      </c>
+      <c r="I26">
+        <f>SQRT(D26*D26+H26*H26)</f>
+        <v>7246.844294505212</v>
+      </c>
+      <c r="J26" s="3">
+        <f>I26/$A$24-1</f>
+        <v>-4.9098294498207462E-2</v>
+      </c>
+      <c r="K26">
+        <v>-4.9099999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B5046-821A-4877-BBAD-1F65153958C2}">
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7609,7 +8295,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1.21</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -7617,7 +8303,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2.8340000000000001</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -7626,7 +8312,7 @@
       </c>
       <c r="B5" s="2">
         <f>B4/B3</f>
-        <v>2.3421487603305788</v>
+        <v>1.536697247706422</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -7635,11 +8321,11 @@
       </c>
       <c r="B6" s="2">
         <f>SQRT(B3*B3+B4*B4)</f>
-        <v>3.081502231055496</v>
+        <v>3.1974890148364858</v>
       </c>
       <c r="C6" s="4">
         <f>C2*C2/B6</f>
-        <v>56.543850023538091</v>
+        <v>54.492759534596971</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
@@ -7651,7 +8337,7 @@
       </c>
       <c r="B7" s="5">
         <f>B2/B6</f>
-        <v>2473.1520478869356</v>
+        <v>2383.4401050140236</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -7660,7 +8346,7 @@
       </c>
       <c r="B8" s="3">
         <f>1/SQRT(1+1/B5/B5)</f>
-        <v>0.91968130720102714</v>
+        <v>0.83815768797474688</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -7711,7 +8397,7 @@
       </c>
       <c r="B9" s="10">
         <f>P9/$B$2</f>
-        <v>4.6228063635291736E-2</v>
+        <v>6.4064662405350123E-2</v>
       </c>
       <c r="C9" s="7">
         <f>$D$2/3</f>
@@ -7722,7 +8408,7 @@
       </c>
       <c r="E9" s="7">
         <f>$B$3*C9</f>
-        <v>2420000</v>
+        <v>3488000</v>
       </c>
       <c r="F9">
         <f>$B$4*D9</f>
@@ -7730,7 +8416,7 @@
       </c>
       <c r="G9" s="7">
         <f>$B$4*C9</f>
-        <v>5668000</v>
+        <v>5360000</v>
       </c>
       <c r="H9">
         <f>$B$3*D9</f>
@@ -7738,35 +8424,35 @@
       </c>
       <c r="I9">
         <f>E9+F9</f>
-        <v>2420000</v>
+        <v>3488000</v>
       </c>
       <c r="J9">
         <f>G9-H9</f>
-        <v>5668000</v>
+        <v>5360000</v>
       </c>
       <c r="K9">
         <f>I9/$B$2</f>
-        <v>317.54264805429415</v>
+        <v>457.68130430304876</v>
       </c>
       <c r="L9">
         <f>J9/$B$2</f>
-        <v>743.73211949245422</v>
+        <v>703.31760064918035</v>
       </c>
       <c r="M9" s="5">
         <f>$B$2+K9</f>
-        <v>7938.5662013573547</v>
+        <v>8078.7048576061097</v>
       </c>
       <c r="N9">
         <f>L9</f>
-        <v>743.73211949245422</v>
+        <v>703.31760064918035</v>
       </c>
       <c r="O9">
         <f>SQRT(M9*M9+N9*N9)</f>
-        <v>7973.328715091212</v>
+        <v>8109.2618544286433</v>
       </c>
       <c r="P9" s="5">
         <f>O9-B$2</f>
-        <v>352.30516178815105</v>
+        <v>488.23830112558244</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
@@ -7775,7 +8461,7 @@
       </c>
       <c r="B10" s="10">
         <f>P10/$B$2</f>
-        <v>-3.6710586338983192E-2</v>
+        <v>-5.5535484994337928E-2</v>
       </c>
       <c r="C10" s="7">
         <f>-$D$2/3</f>
@@ -7786,7 +8472,7 @@
       </c>
       <c r="E10" s="7">
         <f>$B$3*C10</f>
-        <v>-2420000</v>
+        <v>-3488000</v>
       </c>
       <c r="F10">
         <f>$B$4*D10</f>
@@ -7794,7 +8480,7 @@
       </c>
       <c r="G10" s="7">
         <f>$B$4*C10</f>
-        <v>-5668000</v>
+        <v>-5360000</v>
       </c>
       <c r="H10">
         <f>$B$3*D10</f>
@@ -7802,35 +8488,35 @@
       </c>
       <c r="I10">
         <f>E10+F10</f>
-        <v>-2420000</v>
+        <v>-3488000</v>
       </c>
       <c r="J10">
         <f>G10-H10</f>
-        <v>-5668000</v>
+        <v>-5360000</v>
       </c>
       <c r="K10">
         <f>I10/$B$2</f>
-        <v>-317.54264805429415</v>
+        <v>-457.68130430304876</v>
       </c>
       <c r="L10">
         <f>J10/$B$2</f>
-        <v>-743.73211949245422</v>
+        <v>-703.31760064918035</v>
       </c>
       <c r="M10" s="5">
         <f>$B$2+K10</f>
-        <v>7303.4809052487672</v>
+        <v>7163.3422490000121</v>
       </c>
       <c r="N10">
         <f>L10</f>
-        <v>-743.73211949245422</v>
+        <v>-703.31760064918035</v>
       </c>
       <c r="O10">
         <f>SQRT(M10*M10+N10*N10)</f>
-        <v>7341.2513101581044</v>
+        <v>7197.7863141171028</v>
       </c>
       <c r="P10" s="5">
         <f>O10-B$2</f>
-        <v>-279.77224314495652</v>
+        <v>-423.23723918595806</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -7839,7 +8525,7 @@
       </c>
       <c r="B11" s="3">
         <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
-        <v>-0.42695836273817911</v>
+        <v>-0.65074626865671636</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -7848,7 +8534,7 @@
       </c>
       <c r="B12" s="10">
         <f>P12/$B$2</f>
-        <v>6.6342039631844558E-3</v>
+        <v>8.5917524857318725E-3</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" ref="C12" si="0">$D$2/3</f>
@@ -7856,23 +8542,23 @@
       </c>
       <c r="D12" s="7">
         <f>C12*$B$11</f>
-        <v>-853916.7254763582</v>
+        <v>-1301492.5373134327</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ref="E12:E13" si="1">$B$3*C12</f>
-        <v>2420000</v>
+        <v>3488000</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F13" si="2">$B$4*D12</f>
-        <v>-2419999.9999999991</v>
+        <v>-3487999.9999999995</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" ref="G12:G13" si="3">$B$4*C12</f>
-        <v>5668000</v>
+        <v>5360000</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H13" si="4">$B$3*D12</f>
-        <v>-1033239.2378263935</v>
+        <v>-2269802.9850746267</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12:I13" si="5">E12+F12</f>
@@ -7880,7 +8566,7 @@
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J13" si="6">G12-H12</f>
-        <v>6701239.2378263939</v>
+        <v>7629802.9850746263</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:L13" si="7">I12/$B$2</f>
@@ -7888,7 +8574,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>879.30960860526147</v>
+        <v>1001.1520016583285</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" ref="M12:M13" si="8">$B$2+K12</f>
@@ -7896,15 +8582,15 @@
       </c>
       <c r="N12">
         <f t="shared" ref="N12:N13" si="9">L12</f>
-        <v>879.30960860526147</v>
+        <v>1001.1520016583285</v>
       </c>
       <c r="O12">
         <f t="shared" ref="O12:O13" si="10">SQRT(M12*M12+N12*N12)</f>
-        <v>7671.5829779639062</v>
+        <v>7686.5015013609736</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" ref="P12:P13" si="11">O12-B$2</f>
-        <v>50.559424660845252</v>
+        <v>65.477948057912727</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -7913,7 +8599,7 @@
       </c>
       <c r="B13" s="10">
         <f>P13/$B$2</f>
-        <v>6.6342039631844558E-3</v>
+        <v>8.5917524857318725E-3</v>
       </c>
       <c r="C13" s="7">
         <f>-$D$2/3</f>
@@ -7921,23 +8607,23 @@
       </c>
       <c r="D13" s="7">
         <f>C13*$B$11</f>
-        <v>853916.7254763582</v>
+        <v>1301492.5373134327</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>-2420000</v>
+        <v>-3488000</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>2419999.9999999991</v>
+        <v>3487999.9999999995</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="3"/>
-        <v>-5668000</v>
+        <v>-5360000</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>1033239.2378263935</v>
+        <v>2269802.9850746267</v>
       </c>
       <c r="I13">
         <f t="shared" si="5"/>
@@ -7945,7 +8631,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>-6701239.2378263939</v>
+        <v>-7629802.9850746263</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
@@ -7953,7 +8639,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>-879.30960860526147</v>
+        <v>-1001.1520016583285</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="8"/>
@@ -7961,15 +8647,15 @@
       </c>
       <c r="N13">
         <f t="shared" si="9"/>
-        <v>-879.30960860526147</v>
+        <v>-1001.1520016583285</v>
       </c>
       <c r="O13">
         <f t="shared" si="10"/>
-        <v>7671.5829779639062</v>
+        <v>7686.5015013609736</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="11"/>
-        <v>50.559424660845252</v>
+        <v>65.477948057912727</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -7987,15 +8673,15 @@
       </c>
       <c r="B16" s="2">
         <f>B7/B15</f>
-        <v>9.4239750039230188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>9.0821265890994987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f>B2</f>
         <v>7621.0235533030609</v>
@@ -8019,68 +8705,196 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f>B3</f>
-        <v>1.21</v>
+        <v>1.744</v>
       </c>
       <c r="B20" s="7">
         <v>2000000</v>
       </c>
       <c r="C20">
         <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>9.4956560000000003</v>
+        <v>10.223936000000002</v>
       </c>
       <c r="D20">
         <f>2*$A$21*$A$19*$A$19</f>
-        <v>329197440.00000012</v>
+        <v>311308800.00000012</v>
       </c>
       <c r="E20" s="7">
         <f>$B$20*$B$20*C20+2*$A$20*$A$19*$A$19*B20</f>
-        <v>319089824000000.06</v>
+        <v>446061824000000.06</v>
       </c>
       <c r="F20" s="7">
         <f>(-D20+SQRT(D20*D20-4*C20*E20))/2/C20</f>
-        <v>-998027.36633974581</v>
+        <v>-1507493.8593806829</v>
       </c>
       <c r="G20" s="3">
         <f>ABS(B20)/SQRT(B20*B20+F20*F20)</f>
-        <v>0.8947799269431097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.79856147425809587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f>B4</f>
-        <v>2.8340000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="B21" s="7">
         <v>-2000000</v>
       </c>
       <c r="C21">
         <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>9.4956560000000003</v>
+        <v>10.223936000000002</v>
       </c>
       <c r="D21">
         <f>2*$A$21*$A$19*$A$19</f>
-        <v>329197440.00000012</v>
+        <v>311308800.00000012</v>
       </c>
       <c r="E21" s="7">
         <f>$B$20*$B$20*C21+2*$A$20*$A$19*$A$19*B21</f>
-        <v>-243124576000000.06</v>
+        <v>-364270336000000.06</v>
       </c>
       <c r="F21" s="7">
         <f>(-D21+SQRT(D21*D21-4*C21*E21))/2/C21</f>
-        <v>723440.8219790702</v>
+        <v>1128314.7254391636</v>
       </c>
       <c r="G21" s="3">
         <f>ABS(B21)/SQRT(B21*B21+F21*F21)</f>
-        <v>0.94037072631073837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.87095804304018432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
-        <v>0.91757532662692398</v>
+        <v>0.83475975864914009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <f>B2</f>
+        <v>7621.0235533030609</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <f>B3</f>
+        <v>1.744</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <f>($A$25*C25-$A$26*B25)/$A$24</f>
+        <v>-703.31760064918035</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <f>-$A$24</f>
+        <v>-7621.0235533030609</v>
+      </c>
+      <c r="G25" s="7">
+        <f>D25*D25-$A$25*B25-$A$26*C25</f>
+        <v>-2993344.3526170803</v>
+      </c>
+      <c r="H25" s="7">
+        <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
+        <v>7995.4065605878104</v>
+      </c>
+      <c r="I25">
+        <f>SQRT(D25*D25+H25*H25)</f>
+        <v>8026.2806901125459</v>
+      </c>
+      <c r="J25" s="3">
+        <f>I25/$A$24-1</f>
+        <v>5.3176208415448345E-2</v>
+      </c>
+      <c r="K25">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <f>B4</f>
+        <v>2.68</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <f>($A$25*C26-$A$26*B26)/$A$24</f>
+        <v>703.31760064918035</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <f>-$A$24</f>
+        <v>-7621.0235533030609</v>
+      </c>
+      <c r="G26" s="7">
+        <f>D26*D26-$A$25*B26-$A$26*C26</f>
+        <v>3982655.6473829197</v>
+      </c>
+      <c r="H26" s="7">
+        <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
+        <v>7056.639370049098</v>
+      </c>
+      <c r="I26">
+        <f>SQRT(D26*D26+H26*H26)</f>
+        <v>7091.6017123291585</v>
+      </c>
+      <c r="J26" s="3">
+        <f>I26/$A$24-1</f>
+        <v>-6.9468600545715797E-2</v>
+      </c>
+      <c r="K26">
+        <v>-6.9500000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8089,12 +8903,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B5046-821A-4877-BBAD-1F65153958C2}">
-  <dimension ref="A1:P22"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D88D56F-5866-4E1A-A9FD-BAB878AAC530}">
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8116,6 +8930,15 @@
       <c r="D1" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -8123,29 +8946,105 @@
       </c>
       <c r="B2" s="5">
         <f>C2*1000/SQRT(3)</f>
-        <v>7621.0235533030609</v>
-      </c>
-      <c r="C2">
-        <v>13.2</v>
+        <v>230.94010767585033</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.4</v>
       </c>
       <c r="D2" s="7">
         <v>6000000</v>
+      </c>
+      <c r="F2">
+        <v>7.5</v>
+      </c>
+      <c r="G2">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H2">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.744</v>
+      <c r="B3" s="11">
+        <f>N3</f>
+        <v>1.228444444444445E-3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="14">
+        <f>C2</f>
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1.21</v>
+      </c>
+      <c r="L3">
+        <f>$G$5*K3</f>
+        <v>1.1111111111111115E-3</v>
+      </c>
+      <c r="M3">
+        <f>$G$4*$G$2</f>
+        <v>1.1733333333333334E-4</v>
+      </c>
+      <c r="N3">
+        <f>L3+M3</f>
+        <v>1.228444444444445E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.68</v>
+      <c r="B4" s="11">
+        <f>N4</f>
+        <v>3.8226541781450881E-3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="14">
+        <f>G3*G3/F2</f>
+        <v>2.1333333333333336E-2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="L4">
+        <f>$G$5*K4</f>
+        <v>2.6023875114784215E-3</v>
+      </c>
+      <c r="M4">
+        <f>$G$4*$H$2</f>
+        <v>1.2202666666666668E-3</v>
+      </c>
+      <c r="N4">
+        <f>L4+M4</f>
+        <v>3.8226541781450881E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -8154,20 +9053,27 @@
       </c>
       <c r="B5" s="2">
         <f>B4/B3</f>
-        <v>1.536697247706422</v>
+        <v>3.1117843345971217</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <f>(C2/C3)^2</f>
+        <v>9.1827364554637313E-4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="11">
         <f>SQRT(B3*B3+B4*B4)</f>
-        <v>3.1974890148364858</v>
+        <v>4.0151912431136477E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C2*C2/B6</f>
-        <v>54.492759534596971</v>
+        <v>39.848662320733034</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
@@ -8179,7 +9085,7 @@
       </c>
       <c r="B7" s="5">
         <f>B2/B6</f>
-        <v>2383.4401050140236</v>
+        <v>57516.589794304273</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -8188,7 +9094,7 @@
       </c>
       <c r="B8" s="3">
         <f>1/SQRT(1+1/B5/B5)</f>
-        <v>0.83815768797474688</v>
+        <v>0.95204784696151767</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -8239,7 +9145,7 @@
       </c>
       <c r="B9" s="10">
         <f>P9/$B$2</f>
-        <v>6.4064662405350123E-2</v>
+        <v>5.5843056208692919E-2</v>
       </c>
       <c r="C9" s="7">
         <f>$D$2/3</f>
@@ -8250,7 +9156,7 @@
       </c>
       <c r="E9" s="7">
         <f>$B$3*C9</f>
-        <v>3488000</v>
+        <v>2456.8888888888901</v>
       </c>
       <c r="F9">
         <f>$B$4*D9</f>
@@ -8258,7 +9164,7 @@
       </c>
       <c r="G9" s="7">
         <f>$B$4*C9</f>
-        <v>5360000</v>
+        <v>7645.3083562901766</v>
       </c>
       <c r="H9">
         <f>$B$3*D9</f>
@@ -8266,35 +9172,35 @@
       </c>
       <c r="I9">
         <f>E9+F9</f>
-        <v>3488000</v>
+        <v>2456.8888888888901</v>
       </c>
       <c r="J9">
         <f>G9-H9</f>
-        <v>5360000</v>
+        <v>7645.3083562901766</v>
       </c>
       <c r="K9">
         <f>I9/$B$2</f>
-        <v>457.68130430304876</v>
+        <v>10.638640960267509</v>
       </c>
       <c r="L9">
         <f>J9/$B$2</f>
-        <v>703.31760064918035</v>
+        <v>33.105156281563715</v>
       </c>
       <c r="M9" s="5">
         <f>$B$2+K9</f>
-        <v>8078.7048576061097</v>
+        <v>241.57874863611784</v>
       </c>
       <c r="N9">
         <f>L9</f>
-        <v>703.31760064918035</v>
+        <v>33.105156281563715</v>
       </c>
       <c r="O9">
         <f>SQRT(M9*M9+N9*N9)</f>
-        <v>8109.2618544286433</v>
+        <v>243.83650908963443</v>
       </c>
       <c r="P9" s="5">
         <f>O9-B$2</f>
-        <v>488.23830112558244</v>
+        <v>12.896401413784105</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
@@ -8303,7 +9209,7 @@
       </c>
       <c r="B10" s="10">
         <f>P10/$B$2</f>
-        <v>-5.5535484994337928E-2</v>
+        <v>-3.5356079852546754E-2</v>
       </c>
       <c r="C10" s="7">
         <f>-$D$2/3</f>
@@ -8314,7 +9220,7 @@
       </c>
       <c r="E10" s="7">
         <f>$B$3*C10</f>
-        <v>-3488000</v>
+        <v>-2456.8888888888901</v>
       </c>
       <c r="F10">
         <f>$B$4*D10</f>
@@ -8322,7 +9228,7 @@
       </c>
       <c r="G10" s="7">
         <f>$B$4*C10</f>
-        <v>-5360000</v>
+        <v>-7645.3083562901766</v>
       </c>
       <c r="H10">
         <f>$B$3*D10</f>
@@ -8330,35 +9236,35 @@
       </c>
       <c r="I10">
         <f>E10+F10</f>
-        <v>-3488000</v>
+        <v>-2456.8888888888901</v>
       </c>
       <c r="J10">
         <f>G10-H10</f>
-        <v>-5360000</v>
+        <v>-7645.3083562901766</v>
       </c>
       <c r="K10">
         <f>I10/$B$2</f>
-        <v>-457.68130430304876</v>
+        <v>-10.638640960267509</v>
       </c>
       <c r="L10">
         <f>J10/$B$2</f>
-        <v>-703.31760064918035</v>
+        <v>-33.105156281563715</v>
       </c>
       <c r="M10" s="5">
         <f>$B$2+K10</f>
-        <v>7163.3422490000121</v>
+        <v>220.30146671558282</v>
       </c>
       <c r="N10">
         <f>L10</f>
-        <v>-703.31760064918035</v>
+        <v>-33.105156281563715</v>
       </c>
       <c r="O10">
         <f>SQRT(M10*M10+N10*N10)</f>
-        <v>7197.7863141171028</v>
+        <v>222.77497078770722</v>
       </c>
       <c r="P10" s="5">
         <f>O10-B$2</f>
-        <v>-423.23723918595806</v>
+        <v>-8.1651368881431097</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -8367,7 +9273,7 @@
       </c>
       <c r="B11" s="3">
         <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
-        <v>-0.65074626865671636</v>
+        <v>-0.32135903149903511</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
@@ -8376,63 +9282,63 @@
       </c>
       <c r="B12" s="10">
         <f>P12/$B$2</f>
-        <v>8.5917524857318725E-3</v>
+        <v>1.2429019936634252E-2</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" ref="C12" si="0">$D$2/3</f>
+        <f>$D$2/3</f>
         <v>2000000</v>
       </c>
       <c r="D12" s="7">
         <f>C12*$B$11</f>
-        <v>-1301492.5373134327</v>
+        <v>-642718.06299807027</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" ref="E12:E13" si="1">$B$3*C12</f>
-        <v>3488000</v>
+        <f t="shared" ref="E12:E13" si="0">$B$3*C12</f>
+        <v>2456.8888888888901</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F13" si="2">$B$4*D12</f>
-        <v>-3487999.9999999995</v>
+        <f t="shared" ref="F12:F13" si="1">$B$4*D12</f>
+        <v>-2456.8888888888914</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ref="G12:G13" si="3">$B$4*C12</f>
-        <v>5360000</v>
+        <f t="shared" ref="G12:G13" si="2">$B$4*C12</f>
+        <v>7645.3083562901766</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H13" si="4">$B$3*D12</f>
-        <v>-2269802.9850746267</v>
+        <f t="shared" ref="H12:H13" si="3">$B$3*D12</f>
+        <v>-789.54343383407422</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I13" si="5">E12+F12</f>
+        <f t="shared" ref="I12:I13" si="4">E12+F12</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J13" si="6">G12-H12</f>
-        <v>7629802.9850746263</v>
+        <f t="shared" ref="J12:J13" si="5">G12-H12</f>
+        <v>8434.8517901242503</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:L13" si="7">I12/$B$2</f>
+        <f t="shared" ref="K12:L13" si="6">I12/$B$2</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="7"/>
-        <v>1001.1520016583285</v>
+        <f t="shared" si="6"/>
+        <v>36.523979637021242</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" ref="M12:M13" si="8">$B$2+K12</f>
-        <v>7621.0235533030609</v>
+        <f t="shared" ref="M12:M13" si="7">$B$2+K12</f>
+        <v>230.94010767585033</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N13" si="9">L12</f>
-        <v>1001.1520016583285</v>
+        <f t="shared" ref="N12:N13" si="8">L12</f>
+        <v>36.523979637021242</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O13" si="10">SQRT(M12*M12+N12*N12)</f>
-        <v>7686.5015013609736</v>
+        <f t="shared" ref="O12:O13" si="9">SQRT(M12*M12+N12*N12)</f>
+        <v>233.81046687832193</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" ref="P12:P13" si="11">O12-B$2</f>
-        <v>65.477948057912727</v>
+        <f t="shared" ref="P12:P13" si="10">O12-B$2</f>
+        <v>2.8703592024716045</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -8441,7 +9347,7 @@
       </c>
       <c r="B13" s="10">
         <f>P13/$B$2</f>
-        <v>8.5917524857318725E-3</v>
+        <v>1.2429019936634252E-2</v>
       </c>
       <c r="C13" s="7">
         <f>-$D$2/3</f>
@@ -8449,55 +9355,55 @@
       </c>
       <c r="D13" s="7">
         <f>C13*$B$11</f>
-        <v>1301492.5373134327</v>
+        <v>642718.06299807027</v>
       </c>
       <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>-2456.8888888888901</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>-3488000</v>
-      </c>
-      <c r="F13">
+        <v>2456.8888888888914</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>3487999.9999999995</v>
-      </c>
-      <c r="G13" s="7">
+        <v>-7645.3083562901766</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="3"/>
-        <v>-5360000</v>
-      </c>
-      <c r="H13">
+        <v>789.54343383407422</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="4"/>
-        <v>2269802.9850746267</v>
-      </c>
-      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="5"/>
+        <v>-8434.8517901242503</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <f t="shared" si="6"/>
-        <v>-7629802.9850746263</v>
-      </c>
-      <c r="K13">
+        <v>-36.523979637021242</v>
+      </c>
+      <c r="M13" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="7"/>
-        <v>-1001.1520016583285</v>
-      </c>
-      <c r="M13" s="5">
+        <v>230.94010767585033</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="8"/>
-        <v>7621.0235533030609</v>
-      </c>
-      <c r="N13">
+        <v>-36.523979637021242</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="9"/>
-        <v>-1001.1520016583285</v>
-      </c>
-      <c r="O13">
+        <v>233.81046687832193</v>
+      </c>
+      <c r="P13" s="5">
         <f t="shared" si="10"/>
-        <v>7686.5015013609736</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="11"/>
-        <v>65.477948057912727</v>
+        <v>2.8703592024716045</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -8506,7 +9412,7 @@
       </c>
       <c r="B15" s="4">
         <f>2000000/B2</f>
-        <v>262.43194054073894</v>
+        <v>8660.2540378443864</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
@@ -8515,634 +9421,15 @@
       </c>
       <c r="B16" s="2">
         <f>B7/B15</f>
-        <v>9.0821265890994987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>6.6414437201221705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
-        <f>B2</f>
-        <v>7621.0235533030609</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="11">
-        <f>B3</f>
-        <v>1.744</v>
-      </c>
-      <c r="B20" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="C20">
-        <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>10.223936000000002</v>
-      </c>
-      <c r="D20">
-        <f>2*$A$21*$A$19*$A$19</f>
-        <v>311308800.00000012</v>
-      </c>
-      <c r="E20" s="7">
-        <f>$B$20*$B$20*C20+2*$A$20*$A$19*$A$19*B20</f>
-        <v>446061824000000.06</v>
-      </c>
-      <c r="F20" s="7">
-        <f>(-D20+SQRT(D20*D20-4*C20*E20))/2/C20</f>
-        <v>-1507493.8593806829</v>
-      </c>
-      <c r="G20" s="3">
-        <f>ABS(B20)/SQRT(B20*B20+F20*F20)</f>
-        <v>0.79856147425809587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="11">
-        <f>B4</f>
-        <v>2.68</v>
-      </c>
-      <c r="B21" s="7">
-        <v>-2000000</v>
-      </c>
-      <c r="C21">
-        <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>10.223936000000002</v>
-      </c>
-      <c r="D21">
-        <f>2*$A$21*$A$19*$A$19</f>
-        <v>311308800.00000012</v>
-      </c>
-      <c r="E21" s="7">
-        <f>$B$20*$B$20*C21+2*$A$20*$A$19*$A$19*B21</f>
-        <v>-364270336000000.06</v>
-      </c>
-      <c r="F21" s="7">
-        <f>(-D21+SQRT(D21*D21-4*C21*E21))/2/C21</f>
-        <v>1128314.7254391636</v>
-      </c>
-      <c r="G21" s="3">
-        <f>ABS(B21)/SQRT(B21*B21+F21*F21)</f>
-        <v>0.87095804304018432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G22" s="3">
-        <f>AVERAGE(G20:G21)</f>
-        <v>0.83475975864914009</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D88D56F-5866-4E1A-A9FD-BAB878AAC530}">
-  <dimension ref="A1:P22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
-        <f>C2*1000/SQRT(3)</f>
-        <v>230.94010767585033</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="D2" s="7">
-        <v>6000000</v>
-      </c>
-      <c r="F2">
-        <v>7.5</v>
-      </c>
-      <c r="G2">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H2">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <f>N3</f>
-        <v>1.228444444444445E-3</v>
-      </c>
-      <c r="C3" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1.21</v>
-      </c>
-      <c r="L3">
-        <f>$G$5*K3</f>
-        <v>1.1111111111111115E-3</v>
-      </c>
-      <c r="M3">
-        <f>$G$4*$G$2</f>
-        <v>1.1733333333333334E-4</v>
-      </c>
-      <c r="N3">
-        <f>L3+M3</f>
-        <v>1.228444444444445E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <f>N4</f>
-        <v>3.8226541781450881E-3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="14">
-        <f>G3*G3/F2</f>
-        <v>2.1333333333333336E-2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="13">
-        <v>2.8340000000000001</v>
-      </c>
-      <c r="L4">
-        <f>$G$5*K4</f>
-        <v>2.6023875114784215E-3</v>
-      </c>
-      <c r="M4">
-        <f>$G$4*$H$2</f>
-        <v>1.2202666666666668E-3</v>
-      </c>
-      <c r="N4">
-        <f>L4+M4</f>
-        <v>3.8226541781450881E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <f>B4/B3</f>
-        <v>3.1117843345971217</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5">
-        <f>(C2/C3)^2</f>
-        <v>9.1827364554637313E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11">
-        <f>SQRT(B3*B3+B4*B4)</f>
-        <v>4.0151912431136477E-3</v>
-      </c>
-      <c r="C6" s="4">
-        <f>C2*C2/B6</f>
-        <v>39.848662320733034</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <f>B2/B6</f>
-        <v>57516.589794304273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <f>1/SQRT(1+1/B5/B5)</f>
-        <v>0.95204784696151767</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10">
-        <f>P9/$B$2</f>
-        <v>5.5843056208692919E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <f>$D$2/3</f>
-        <v>2000000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <f>$B$3*C9</f>
-        <v>2456.8888888888901</v>
-      </c>
-      <c r="F9">
-        <f>$B$4*D9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <f>$B$4*C9</f>
-        <v>7645.3083562901766</v>
-      </c>
-      <c r="H9">
-        <f>$B$3*D9</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>E9+F9</f>
-        <v>2456.8888888888901</v>
-      </c>
-      <c r="J9">
-        <f>G9-H9</f>
-        <v>7645.3083562901766</v>
-      </c>
-      <c r="K9">
-        <f>I9/$B$2</f>
-        <v>10.638640960267509</v>
-      </c>
-      <c r="L9">
-        <f>J9/$B$2</f>
-        <v>33.105156281563715</v>
-      </c>
-      <c r="M9" s="5">
-        <f>$B$2+K9</f>
-        <v>241.57874863611784</v>
-      </c>
-      <c r="N9">
-        <f>L9</f>
-        <v>33.105156281563715</v>
-      </c>
-      <c r="O9">
-        <f>SQRT(M9*M9+N9*N9)</f>
-        <v>243.83650908963443</v>
-      </c>
-      <c r="P9" s="5">
-        <f>O9-B$2</f>
-        <v>12.896401413784105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
-        <f>P10/$B$2</f>
-        <v>-3.5356079852546754E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <f>-$D$2/3</f>
-        <v>-2000000</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <f>$B$3*C10</f>
-        <v>-2456.8888888888901</v>
-      </c>
-      <c r="F10">
-        <f>$B$4*D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <f>$B$4*C10</f>
-        <v>-7645.3083562901766</v>
-      </c>
-      <c r="H10">
-        <f>$B$3*D10</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>E10+F10</f>
-        <v>-2456.8888888888901</v>
-      </c>
-      <c r="J10">
-        <f>G10-H10</f>
-        <v>-7645.3083562901766</v>
-      </c>
-      <c r="K10">
-        <f>I10/$B$2</f>
-        <v>-10.638640960267509</v>
-      </c>
-      <c r="L10">
-        <f>J10/$B$2</f>
-        <v>-33.105156281563715</v>
-      </c>
-      <c r="M10" s="5">
-        <f>$B$2+K10</f>
-        <v>220.30146671558282</v>
-      </c>
-      <c r="N10">
-        <f>L10</f>
-        <v>-33.105156281563715</v>
-      </c>
-      <c r="O10">
-        <f>SQRT(M10*M10+N10*N10)</f>
-        <v>222.77497078770722</v>
-      </c>
-      <c r="P10" s="5">
-        <f>O10-B$2</f>
-        <v>-8.1651368881431097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3">
-        <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
-        <v>-0.32135903149903511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10">
-        <f>P12/$B$2</f>
-        <v>1.2429019936634252E-2</v>
-      </c>
-      <c r="C12" s="7">
-        <f>$D$2/3</f>
-        <v>2000000</v>
-      </c>
-      <c r="D12" s="7">
-        <f>C12*$B$11</f>
-        <v>-642718.06299807027</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" ref="E12:E13" si="0">$B$3*C12</f>
-        <v>2456.8888888888901</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F13" si="1">$B$4*D12</f>
-        <v>-2456.8888888888914</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" ref="G12:G13" si="2">$B$4*C12</f>
-        <v>7645.3083562901766</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H13" si="3">$B$3*D12</f>
-        <v>-789.54343383407422</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I13" si="4">E12+F12</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J13" si="5">G12-H12</f>
-        <v>8434.8517901242503</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:L13" si="6">I12/$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>36.523979637021242</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" ref="M12:M13" si="7">$B$2+K12</f>
-        <v>230.94010767585033</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ref="N12:N13" si="8">L12</f>
-        <v>36.523979637021242</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ref="O12:O13" si="9">SQRT(M12*M12+N12*N12)</f>
-        <v>233.81046687832193</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" ref="P12:P13" si="10">O12-B$2</f>
-        <v>2.8703592024716045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10">
-        <f>P13/$B$2</f>
-        <v>1.2429019936634252E-2</v>
-      </c>
-      <c r="C13" s="7">
-        <f>-$D$2/3</f>
-        <v>-2000000</v>
-      </c>
-      <c r="D13" s="7">
-        <f>C13*$B$11</f>
-        <v>642718.06299807027</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>-2456.8888888888901</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>2456.8888888888914</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="2"/>
-        <v>-7645.3083562901766</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>789.54343383407422</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="5"/>
-        <v>-8434.8517901242503</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="6"/>
-        <v>-36.523979637021242</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="7"/>
-        <v>230.94010767585033</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="8"/>
-        <v>-36.523979637021242</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="9"/>
-        <v>233.81046687832193</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="10"/>
-        <v>2.8703592024716045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4">
-        <f>2000000/B2</f>
-        <v>8660.2540378443864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2">
-        <f>B7/B15</f>
-        <v>6.6414437201221705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f>B2</f>
         <v>230.94010767585033</v>
@@ -9166,7 +9453,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f>B3</f>
         <v>1.228444444444445E-3</v>
@@ -9195,7 +9482,7 @@
         <v>0.92395305323883192</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f>B4</f>
         <v>3.8226541781450881E-3</v>
@@ -9224,10 +9511,138 @@
         <v>0.97286865899309205</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
         <v>0.94841085611596199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <f>B2</f>
+        <v>230.94010767585033</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="11">
+        <f>B3</f>
+        <v>1.228444444444445E-3</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <f>($A$25*C25-$A$26*B25)/$A$24</f>
+        <v>-33.105156281563715</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <f>-$A$24</f>
+        <v>-230.94010767585033</v>
+      </c>
+      <c r="G25" s="7">
+        <f>D25*D25-$A$25*B25-$A$26*C25</f>
+        <v>-1360.9375164621326</v>
+      </c>
+      <c r="H25" s="7">
+        <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
+        <v>236.6899814480152</v>
+      </c>
+      <c r="I25">
+        <f>SQRT(D25*D25+H25*H25)</f>
+        <v>238.99393023733583</v>
+      </c>
+      <c r="J25" s="3">
+        <f>I25/$A$24-1</f>
+        <v>3.4874074679093425E-2</v>
+      </c>
+      <c r="K25">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="11">
+        <f>B4</f>
+        <v>3.8226541781450881E-3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <f>($A$25*C26-$A$26*B26)/$A$24</f>
+        <v>33.105156281563715</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <f>-$A$24</f>
+        <v>-230.94010767585033</v>
+      </c>
+      <c r="G26" s="7">
+        <f>D26*D26-$A$25*B26-$A$26*C26</f>
+        <v>3552.8402613156477</v>
+      </c>
+      <c r="H26" s="7">
+        <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
+        <v>214.36642926199056</v>
+      </c>
+      <c r="I26">
+        <f>SQRT(D26*D26+H26*H26)</f>
+        <v>216.90762404065646</v>
+      </c>
+      <c r="J26" s="3">
+        <f>I26/$A$24-1</f>
+        <v>-6.0762436531336506E-2</v>
+      </c>
+      <c r="K26">
+        <v>-6.08E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9238,10 +9653,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04752002-1B45-4D28-B9E9-1A0171A57A1D}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G22"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9325,6 +9740,7 @@
         <v>81</v>
       </c>
       <c r="G3" s="14">
+        <f>C2</f>
         <v>0.4</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -9757,12 +10173,12 @@
         <v>6.5637239106154501</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f>B2</f>
         <v>230.94010767585033</v>
@@ -9786,7 +10202,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f>B3</f>
         <v>1.7188025711662083E-3</v>
@@ -9815,7 +10231,7 @@
         <v>0.86533874272075995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f>B4</f>
         <v>3.681240036730947E-3</v>
@@ -9844,10 +10260,138 @@
         <v>0.93747965541205758</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
         <v>0.90140919906640882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <f>B2</f>
+        <v>230.94010767585033</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="11">
+        <f>B3</f>
+        <v>1.7188025711662083E-3</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <f>($A$25*C25-$A$26*B25)/$A$24</f>
+        <v>-31.880473892373598</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <f>-$A$24</f>
+        <v>-230.94010767585033</v>
+      </c>
+      <c r="G25" s="7">
+        <f>D25*D25-$A$25*B25-$A$26*C25</f>
+        <v>-2421.2405267301019</v>
+      </c>
+      <c r="H25" s="7">
+        <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
+        <v>240.98727918991995</v>
+      </c>
+      <c r="I25">
+        <f>SQRT(D25*D25+H25*H25)</f>
+        <v>243.08688435817086</v>
+      </c>
+      <c r="J25" s="3">
+        <f>I25/$A$24-1</f>
+        <v>5.2597085904930285E-2</v>
+      </c>
+      <c r="K25">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="11">
+        <f>B4</f>
+        <v>3.681240036730947E-3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <f>($A$25*C26-$A$26*B26)/$A$24</f>
+        <v>31.880473892373598</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <f>-$A$24</f>
+        <v>-230.94010767585033</v>
+      </c>
+      <c r="G26" s="7">
+        <f>D26*D26-$A$25*B26-$A$26*C26</f>
+        <v>4453.9697579347312</v>
+      </c>
+      <c r="H26" s="7">
+        <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
+        <v>209.70042885255941</v>
+      </c>
+      <c r="I26">
+        <f>SQRT(D26*D26+H26*H26)</f>
+        <v>212.10995845680995</v>
+      </c>
+      <c r="J26" s="3">
+        <f>I26/$A$24-1</f>
+        <v>-8.1536937903703421E-2</v>
+      </c>
+      <c r="K26">
+        <v>-8.1500000000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Version8/Distrib/Examples/ExpControl/Nantucket.xlsx
+++ b/trunk/Version8/Distrib/Examples/ExpControl/Nantucket.xlsx
@@ -8,20 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\OpenDSS\Version8\Distrib\Examples\ExpControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4727D8-DC23-4CDE-B074-9D0C12A58C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED6DBD5-20A3-4E18-ADCC-7FDB88178A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10329" yWindow="1217" windowWidth="17845" windowHeight="15240" activeTab="2" xr2:uid="{7F0E98FC-012E-4DF5-8696-4CB6DBA72C05}"/>
+    <workbookView xWindow="2670" yWindow="1230" windowWidth="14520" windowHeight="11280" activeTab="1" xr2:uid="{7F0E98FC-012E-4DF5-8696-4CB6DBA72C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hawaii" sheetId="6" r:id="rId1"/>
-    <sheet name="NoLoad" sheetId="8" r:id="rId2"/>
-    <sheet name="FullLoad" sheetId="2" r:id="rId3"/>
-    <sheet name="NoLoadXfmr" sheetId="3" r:id="rId4"/>
-    <sheet name="FullLoadXfmr" sheetId="7" r:id="rId5"/>
-    <sheet name="Optimal" sheetId="9" r:id="rId6"/>
-    <sheet name="NoLoadLegacy" sheetId="1" r:id="rId7"/>
-    <sheet name="Approx" sheetId="5" r:id="rId8"/>
+    <sheet name="Z_FL_NL" sheetId="10" r:id="rId2"/>
+    <sheet name="NoLoad" sheetId="8" r:id="rId3"/>
+    <sheet name="FullLoad" sheetId="2" r:id="rId4"/>
+    <sheet name="NoLoadXfmr" sheetId="3" r:id="rId5"/>
+    <sheet name="FullLoadXfmr" sheetId="7" r:id="rId6"/>
+    <sheet name="Optimal" sheetId="9" r:id="rId7"/>
+    <sheet name="NoLoadLegacy" sheetId="1" r:id="rId8"/>
+    <sheet name="Approx" sheetId="5" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="DENOM">Z_FL_NL!$B$8</definedName>
+    <definedName name="IMNUM">Z_FL_NL!$B$10</definedName>
+    <definedName name="kv">Z_FL_NL!$B$1</definedName>
+    <definedName name="pld">Z_FL_NL!$B$15</definedName>
+    <definedName name="qld">Z_FL_NL!$B$16</definedName>
+    <definedName name="RENUM">Z_FL_NL!$B$9</definedName>
+    <definedName name="RFL">Z_FL_NL!$B$4</definedName>
+    <definedName name="RLD">Z_FL_NL!$B$11</definedName>
+    <definedName name="RNL">Z_FL_NL!$B$2</definedName>
+    <definedName name="RNLRFL">Z_FL_NL!$B$6</definedName>
+    <definedName name="Sang">Z_FL_NL!$B$14</definedName>
+    <definedName name="Smag">Z_FL_NL!$B$13</definedName>
+    <definedName name="XFL">Z_FL_NL!$B$5</definedName>
+    <definedName name="XLD">Z_FL_NL!$B$12</definedName>
+    <definedName name="XNL">Z_FL_NL!$B$3</definedName>
+    <definedName name="XNLXFL">Z_FL_NL!$B$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,8 +58,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="122">
   <si>
     <t>Condition</t>
   </si>
@@ -334,6 +375,78 @@
   </si>
   <si>
     <t>(python NantucketRawSteps.py)</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Zpu</t>
+  </si>
+  <si>
+    <t>Kpu</t>
+  </si>
+  <si>
+    <t>Kzpu</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>RNL</t>
+  </si>
+  <si>
+    <t>XNL</t>
+  </si>
+  <si>
+    <t>RFL</t>
+  </si>
+  <si>
+    <t>XFL</t>
+  </si>
+  <si>
+    <t>DENOM</t>
+  </si>
+  <si>
+    <t>RNLRFL</t>
+  </si>
+  <si>
+    <t>XNLXFL</t>
+  </si>
+  <si>
+    <t>RENUM</t>
+  </si>
+  <si>
+    <t>IMNUM</t>
+  </si>
+  <si>
+    <t>RLD</t>
+  </si>
+  <si>
+    <t>XLD</t>
+  </si>
+  <si>
+    <t>RLDpar</t>
+  </si>
+  <si>
+    <t>XLDpar</t>
+  </si>
+  <si>
+    <t>Smag</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>12 capacitor banks in the network model total 11.1 MVAR</t>
   </si>
 </sst>
 </file>
@@ -7328,13 +7441,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.84375" customWidth="1"/>
-    <col min="5" max="5" width="10.15234375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -7345,7 +7458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -7365,7 +7478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -7386,7 +7499,7 @@
         <v>1.6631999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -7407,7 +7520,7 @@
         <v>9.4220063650000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -7428,7 +7541,7 @@
         <v>1.2959999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -7449,7 +7562,7 @@
         <v>1.0239720839999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
@@ -7468,7 +7581,7 @@
         <v>0.11085206365</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -7491,7 +7604,7 @@
         <v>2.3199720839999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -7514,7 +7627,7 @@
         <v>0.20928542127325564</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -7530,7 +7643,7 @@
         <v>1.0368E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>65</v>
       </c>
@@ -7539,7 +7652,7 @@
         <v>5.1839999999999994E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>60</v>
       </c>
@@ -7548,7 +7661,7 @@
         <v>8.3519999999999983E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>61</v>
       </c>
@@ -7557,7 +7670,7 @@
         <v>1.6559999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
@@ -7566,7 +7679,7 @@
         <v>1.2959999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
@@ -7575,7 +7688,7 @@
         <v>1.6631999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>6</v>
       </c>
@@ -7591,677 +7704,197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F4CA31-F04D-4F36-A538-838081015827}">
-  <dimension ref="A1:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFC9EE9-1E26-4956-89BD-7CCA08D6A4E2}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" customWidth="1"/>
-    <col min="9" max="9" width="9.84375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
-        <f>C2*1000/SQRT(3)</f>
-        <v>7621.0235533030609</v>
-      </c>
-      <c r="C2">
+        <v>103</v>
+      </c>
+      <c r="B1" s="12">
         <v>13.2</v>
       </c>
-      <c r="D2" s="7">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="13">
         <v>1.21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="13">
         <v>2.8340000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <f>B4/B3</f>
-        <v>2.3421487603305788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>7</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B6" s="2">
-        <f>SQRT(B3*B3+B4*B4)</f>
-        <v>3.081502231055496</v>
-      </c>
-      <c r="C6" s="4">
-        <f>C2*C2/B6</f>
-        <v>56.543850023538091</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <f>B2/B6</f>
-        <v>2473.1520478869356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <f>1/SQRT(1+1/B5/B5)</f>
-        <v>0.91968130720102714</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10">
-        <f>P9/$B$2</f>
-        <v>4.6228063635291736E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <f>$D$2/3</f>
-        <v>2000000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <f>$B$3*C9</f>
-        <v>2420000</v>
-      </c>
-      <c r="F9">
-        <f>$B$4*D9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <f>$B$4*C9</f>
-        <v>5668000</v>
-      </c>
-      <c r="H9">
-        <f>$B$3*D9</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>E9+F9</f>
-        <v>2420000</v>
-      </c>
-      <c r="J9">
-        <f>G9-H9</f>
-        <v>5668000</v>
-      </c>
-      <c r="K9">
-        <f>I9/$B$2</f>
-        <v>317.54264805429415</v>
-      </c>
-      <c r="L9">
-        <f>J9/$B$2</f>
-        <v>743.73211949245422</v>
-      </c>
-      <c r="M9" s="5">
-        <f>$B$2+K9</f>
-        <v>7938.5662013573547</v>
-      </c>
-      <c r="N9">
-        <f>L9</f>
-        <v>743.73211949245422</v>
-      </c>
-      <c r="O9">
-        <f>SQRT(M9*M9+N9*N9)</f>
-        <v>7973.328715091212</v>
-      </c>
-      <c r="P9" s="5">
-        <f>O9-B$2</f>
-        <v>352.30516178815105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
-        <f>P10/$B$2</f>
-        <v>-3.6710586338983192E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <f>-$D$2/3</f>
-        <v>-2000000</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <f>$B$3*C10</f>
-        <v>-2420000</v>
-      </c>
-      <c r="F10">
-        <f>$B$4*D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <f>$B$4*C10</f>
-        <v>-5668000</v>
-      </c>
-      <c r="H10">
-        <f>$B$3*D10</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>E10+F10</f>
-        <v>-2420000</v>
-      </c>
-      <c r="J10">
-        <f>G10-H10</f>
-        <v>-5668000</v>
-      </c>
-      <c r="K10">
-        <f>I10/$B$2</f>
-        <v>-317.54264805429415</v>
-      </c>
-      <c r="L10">
-        <f>J10/$B$2</f>
-        <v>-743.73211949245422</v>
-      </c>
-      <c r="M10" s="5">
-        <f>$B$2+K10</f>
-        <v>7303.4809052487672</v>
-      </c>
-      <c r="N10">
-        <f>L10</f>
-        <v>-743.73211949245422</v>
-      </c>
-      <c r="O10">
-        <f>SQRT(M10*M10+N10*N10)</f>
-        <v>7341.2513101581044</v>
-      </c>
-      <c r="P10" s="5">
-        <f>O10-B$2</f>
-        <v>-279.77224314495652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3">
-        <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
-        <v>-0.42695836273817911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10">
-        <f>P12/$B$2</f>
-        <v>6.6342039631844558E-3</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" ref="C12" si="0">$D$2/3</f>
-        <v>2000000</v>
-      </c>
-      <c r="D12" s="7">
-        <f>C12*$B$11</f>
-        <v>-853916.7254763582</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" ref="E12:E13" si="1">$B$3*C12</f>
-        <v>2420000</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F13" si="2">$B$4*D12</f>
-        <v>-2419999.9999999991</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" ref="G12:G13" si="3">$B$4*C12</f>
-        <v>5668000</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H13" si="4">$B$3*D12</f>
-        <v>-1033239.2378263935</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I13" si="5">E12+F12</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J13" si="6">G12-H12</f>
-        <v>6701239.2378263939</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:L13" si="7">I12/$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="7"/>
-        <v>879.30960860526147</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" ref="M12:M13" si="8">$B$2+K12</f>
-        <v>7621.0235533030609</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ref="N12:N13" si="9">L12</f>
-        <v>879.30960860526147</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ref="O12:O13" si="10">SQRT(M12*M12+N12*N12)</f>
-        <v>7671.5829779639062</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" ref="P12:P13" si="11">O12-B$2</f>
-        <v>50.559424660845252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10">
-        <f>P13/$B$2</f>
-        <v>6.6342039631844558E-3</v>
-      </c>
-      <c r="C13" s="7">
-        <f>-$D$2/3</f>
-        <v>-2000000</v>
-      </c>
-      <c r="D13" s="7">
-        <f>C13*$B$11</f>
-        <v>853916.7254763582</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>-2420000</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>2419999.9999999991</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="3"/>
-        <v>-5668000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>1033239.2378263935</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="6"/>
-        <v>-6701239.2378263939</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="7"/>
-        <v>-879.30960860526147</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="8"/>
-        <v>7621.0235533030609</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="9"/>
-        <v>-879.30960860526147</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="10"/>
-        <v>7671.5829779639062</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="11"/>
-        <v>50.559424660845252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4">
-        <f>2000000/B2</f>
-        <v>262.43194054073894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>29</v>
+        <f>RNL-RFL</f>
+        <v>-0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2">
+        <f>XNL-XFL</f>
+        <v>0.15399999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">RNLRFL*RNLRFL+XNLXFL*XNLXFL</f>
+        <v>0.30887199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2">
+        <f>(RFL*RNL-XFL*XNL)*RNLRFL+(RFL*XNL+RNL*XFL)*XNLXFL</f>
+        <v>4.1894615039999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <f>(RFL*XNL+RNL*XFL)*RNLRFL-(RFL*RNL-XFL*XNL)*XNLXFL</f>
+        <v>-3.5262765440000017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2">
+        <f>RENUM/DENOM</f>
+        <v>13.563746483980418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="2">
+        <f>IMNUM/DENOM</f>
+        <v>-11.416627418477564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" cm="1">
+        <f t="array" ref="B13">kv*kv/SQRT(RLD*RLD+XLD*XLD)</f>
+        <v>9.8280098916774747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <f>ATAN2(RLD,XLD)</f>
+        <v>-0.69965665679653266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" cm="1">
+        <f t="array" ref="B15">Smag*COS(Sang)</f>
+        <v>7.5190499746367498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B16" s="2">
-        <f>B7/B15</f>
-        <v>9.4239750039230188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+        <f>Smag*SIN(Sang)</f>
+        <v>-6.328796560944693</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" cm="1">
+        <f t="array" ref="B17">kv*kv/pld</f>
+        <v>23.173140301999073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
-        <f>B2</f>
-        <v>7621.0235533030609</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="11">
-        <f>B3</f>
-        <v>1.21</v>
-      </c>
-      <c r="B20" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="C20">
-        <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>9.4956560000000003</v>
-      </c>
-      <c r="D20">
-        <f>2*$A$21*$A$19*$A$19</f>
-        <v>329197440.00000012</v>
-      </c>
-      <c r="E20" s="7">
-        <f>$B$20*$B$20*C20+2*$A$20*$A$19*$A$19*B20</f>
-        <v>319089824000000.06</v>
-      </c>
-      <c r="F20" s="7">
-        <f>(-D20+SQRT(D20*D20-4*C20*E20))/2/C20</f>
-        <v>-998027.36633974581</v>
-      </c>
-      <c r="G20" s="3">
-        <f>ABS(B20)/SQRT(B20*B20+F20*F20)</f>
-        <v>0.8947799269431097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="11">
-        <f>B4</f>
-        <v>2.8340000000000001</v>
-      </c>
-      <c r="B21" s="7">
-        <v>-2000000</v>
-      </c>
-      <c r="C21">
-        <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>9.4956560000000003</v>
-      </c>
-      <c r="D21">
-        <f>2*$A$21*$A$19*$A$19</f>
-        <v>329197440.00000012</v>
-      </c>
-      <c r="E21" s="7">
-        <f>$B$20*$B$20*C21+2*$A$20*$A$19*$A$19*B21</f>
-        <v>-243124576000000.06</v>
-      </c>
-      <c r="F21" s="7">
-        <f>(-D21+SQRT(D21*D21-4*C21*E21))/2/C21</f>
-        <v>723440.8219790702</v>
-      </c>
-      <c r="G21" s="3">
-        <f>ABS(B21)/SQRT(B21*B21+F21*F21)</f>
-        <v>0.94037072631073837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="G22" s="3">
-        <f>AVERAGE(G20:G21)</f>
-        <v>0.91757532662692398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="5">
-        <f>B2</f>
-        <v>7621.0235533030609</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <f>B3</f>
-        <v>1.21</v>
-      </c>
-      <c r="B25" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <f>($A$25*C25-$A$26*B25)/$A$24</f>
-        <v>-743.73211949245422</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <f>-$A$24</f>
-        <v>-7621.0235533030609</v>
-      </c>
-      <c r="G25" s="7">
-        <f>D25*D25-$A$25*B25-$A$26*C25</f>
-        <v>-1866862.534435262</v>
-      </c>
-      <c r="H25" s="7">
-        <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
-        <v>7858.5807650008228</v>
-      </c>
-      <c r="I25">
-        <f>SQRT(D25*D25+H25*H25)</f>
-        <v>7893.6955290665765</v>
-      </c>
-      <c r="J25" s="3">
-        <f>I25/$A$24-1</f>
-        <v>3.5778917865348259E-2</v>
-      </c>
-      <c r="K25">
-        <v>3.5799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <f>B4</f>
-        <v>2.8340000000000001</v>
-      </c>
-      <c r="B26" s="7">
-        <v>-2000000</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <f>($A$25*C26-$A$26*B26)/$A$24</f>
-        <v>743.73211949245422</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
-        <f>-$A$24</f>
-        <v>-7621.0235533030609</v>
-      </c>
-      <c r="G26" s="7">
-        <f>D26*D26-$A$25*B26-$A$26*C26</f>
-        <v>2973137.465564738</v>
-      </c>
-      <c r="H26" s="7">
-        <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
-        <v>7208.5792472052362</v>
-      </c>
-      <c r="I26">
-        <f>SQRT(D26*D26+H26*H26)</f>
-        <v>7246.844294505212</v>
-      </c>
-      <c r="J26" s="3">
-        <f>I26/$A$24-1</f>
-        <v>-4.9098294498207462E-2</v>
-      </c>
-      <c r="K26">
-        <v>-4.9099999999999998E-2</v>
+        <v>116</v>
+      </c>
+      <c r="B18">
+        <f>kv*kv/qld</f>
+        <v>-27.531300512208492</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B5046-821A-4877-BBAD-1F65153958C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F4CA31-F04D-4F36-A538-838081015827}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8275,7 +7908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -8290,63 +7923,80 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1.744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+        <v>2.8340000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <f>B4/B3</f>
-        <v>1.536697247706422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+        <v>2.3421487603305788</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <f>SQRT(B3*B3+B4*B4)</f>
-        <v>3.1974890148364858</v>
+        <v>3.081502231055496</v>
       </c>
       <c r="C6" s="4">
         <f>C2*C2/B6</f>
-        <v>54.492759534596971</v>
+        <v>56.543850023538091</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E6" s="3">
+        <f>B6*D2*0.000001/C2/C2</f>
+        <v>0.10611233578014796</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="3">
+        <f>G5*E6</f>
+        <v>2.334471387163255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
         <f>B2/B6</f>
-        <v>2383.4401050140236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+        <v>2473.1520478869356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <f>1/SQRT(1+1/B5/B5)</f>
-        <v>0.83815768797474688</v>
+        <v>0.91968130720102714</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -8391,13 +8041,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="10">
         <f>P9/$B$2</f>
-        <v>6.4064662405350123E-2</v>
+        <v>4.6228063635291736E-2</v>
       </c>
       <c r="C9" s="7">
         <f>$D$2/3</f>
@@ -8408,7 +8058,7 @@
       </c>
       <c r="E9" s="7">
         <f>$B$3*C9</f>
-        <v>3488000</v>
+        <v>2420000</v>
       </c>
       <c r="F9">
         <f>$B$4*D9</f>
@@ -8416,7 +8066,7 @@
       </c>
       <c r="G9" s="7">
         <f>$B$4*C9</f>
-        <v>5360000</v>
+        <v>5668000</v>
       </c>
       <c r="H9">
         <f>$B$3*D9</f>
@@ -8424,44 +8074,44 @@
       </c>
       <c r="I9">
         <f>E9+F9</f>
-        <v>3488000</v>
+        <v>2420000</v>
       </c>
       <c r="J9">
         <f>G9-H9</f>
-        <v>5360000</v>
+        <v>5668000</v>
       </c>
       <c r="K9">
         <f>I9/$B$2</f>
-        <v>457.68130430304876</v>
+        <v>317.54264805429415</v>
       </c>
       <c r="L9">
         <f>J9/$B$2</f>
-        <v>703.31760064918035</v>
+        <v>743.73211949245422</v>
       </c>
       <c r="M9" s="5">
         <f>$B$2+K9</f>
-        <v>8078.7048576061097</v>
+        <v>7938.5662013573547</v>
       </c>
       <c r="N9">
         <f>L9</f>
-        <v>703.31760064918035</v>
+        <v>743.73211949245422</v>
       </c>
       <c r="O9">
         <f>SQRT(M9*M9+N9*N9)</f>
-        <v>8109.2618544286433</v>
+        <v>7973.328715091212</v>
       </c>
       <c r="P9" s="5">
         <f>O9-B$2</f>
-        <v>488.23830112558244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+        <v>352.30516178815105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="10">
         <f>P10/$B$2</f>
-        <v>-5.5535484994337928E-2</v>
+        <v>-3.6710586338983192E-2</v>
       </c>
       <c r="C10" s="7">
         <f>-$D$2/3</f>
@@ -8472,7 +8122,7 @@
       </c>
       <c r="E10" s="7">
         <f>$B$3*C10</f>
-        <v>-3488000</v>
+        <v>-2420000</v>
       </c>
       <c r="F10">
         <f>$B$4*D10</f>
@@ -8480,7 +8130,7 @@
       </c>
       <c r="G10" s="7">
         <f>$B$4*C10</f>
-        <v>-5360000</v>
+        <v>-5668000</v>
       </c>
       <c r="H10">
         <f>$B$3*D10</f>
@@ -8488,53 +8138,53 @@
       </c>
       <c r="I10">
         <f>E10+F10</f>
-        <v>-3488000</v>
+        <v>-2420000</v>
       </c>
       <c r="J10">
         <f>G10-H10</f>
-        <v>-5360000</v>
+        <v>-5668000</v>
       </c>
       <c r="K10">
         <f>I10/$B$2</f>
-        <v>-457.68130430304876</v>
+        <v>-317.54264805429415</v>
       </c>
       <c r="L10">
         <f>J10/$B$2</f>
-        <v>-703.31760064918035</v>
+        <v>-743.73211949245422</v>
       </c>
       <c r="M10" s="5">
         <f>$B$2+K10</f>
-        <v>7163.3422490000121</v>
+        <v>7303.4809052487672</v>
       </c>
       <c r="N10">
         <f>L10</f>
-        <v>-703.31760064918035</v>
+        <v>-743.73211949245422</v>
       </c>
       <c r="O10">
         <f>SQRT(M10*M10+N10*N10)</f>
-        <v>7197.7863141171028</v>
+        <v>7341.2513101581044</v>
       </c>
       <c r="P10" s="5">
         <f>O10-B$2</f>
-        <v>-423.23723918595806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+        <v>-279.77224314495652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="3">
         <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
-        <v>-0.65074626865671636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+        <v>-0.42695836273817911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10">
         <f>P12/$B$2</f>
-        <v>8.5917524857318725E-3</v>
+        <v>6.6342039631844558E-3</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" ref="C12" si="0">$D$2/3</f>
@@ -8542,23 +8192,23 @@
       </c>
       <c r="D12" s="7">
         <f>C12*$B$11</f>
-        <v>-1301492.5373134327</v>
+        <v>-853916.7254763582</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ref="E12:E13" si="1">$B$3*C12</f>
-        <v>3488000</v>
+        <v>2420000</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F13" si="2">$B$4*D12</f>
-        <v>-3487999.9999999995</v>
+        <v>-2419999.9999999991</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" ref="G12:G13" si="3">$B$4*C12</f>
-        <v>5360000</v>
+        <v>5668000</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H13" si="4">$B$3*D12</f>
-        <v>-2269802.9850746267</v>
+        <v>-1033239.2378263935</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12:I13" si="5">E12+F12</f>
@@ -8566,7 +8216,7 @@
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J13" si="6">G12-H12</f>
-        <v>7629802.9850746263</v>
+        <v>6701239.2378263939</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:L13" si="7">I12/$B$2</f>
@@ -8574,7 +8224,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>1001.1520016583285</v>
+        <v>879.30960860526147</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" ref="M12:M13" si="8">$B$2+K12</f>
@@ -8582,24 +8232,24 @@
       </c>
       <c r="N12">
         <f t="shared" ref="N12:N13" si="9">L12</f>
-        <v>1001.1520016583285</v>
+        <v>879.30960860526147</v>
       </c>
       <c r="O12">
         <f t="shared" ref="O12:O13" si="10">SQRT(M12*M12+N12*N12)</f>
-        <v>7686.5015013609736</v>
+        <v>7671.5829779639062</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" ref="P12:P13" si="11">O12-B$2</f>
-        <v>65.477948057912727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+        <v>50.559424660845252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10">
         <f>P13/$B$2</f>
-        <v>8.5917524857318725E-3</v>
+        <v>6.6342039631844558E-3</v>
       </c>
       <c r="C13" s="7">
         <f>-$D$2/3</f>
@@ -8607,23 +8257,23 @@
       </c>
       <c r="D13" s="7">
         <f>C13*$B$11</f>
-        <v>1301492.5373134327</v>
+        <v>853916.7254763582</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>-3488000</v>
+        <v>-2420000</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>3487999.9999999995</v>
+        <v>2419999.9999999991</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="3"/>
-        <v>-5360000</v>
+        <v>-5668000</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>2269802.9850746267</v>
+        <v>1033239.2378263935</v>
       </c>
       <c r="I13">
         <f t="shared" si="5"/>
@@ -8631,7 +8281,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>-7629802.9850746263</v>
+        <v>-6701239.2378263939</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
@@ -8639,7 +8289,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>-1001.1520016583285</v>
+        <v>-879.30960860526147</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="8"/>
@@ -8647,18 +8297,18 @@
       </c>
       <c r="N13">
         <f t="shared" si="9"/>
-        <v>-1001.1520016583285</v>
+        <v>-879.30960860526147</v>
       </c>
       <c r="O13">
         <f t="shared" si="10"/>
-        <v>7686.5015013609736</v>
+        <v>7671.5829779639062</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="11"/>
-        <v>65.477948057912727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+        <v>50.559424660845252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -8667,21 +8317,21 @@
         <v>262.43194054073894</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2">
         <f>B7/B15</f>
-        <v>9.0821265890994987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+        <v>9.4239750039230188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>B2</f>
         <v>7621.0235533030609</v>
@@ -8705,71 +8355,71 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f>B3</f>
-        <v>1.744</v>
+        <v>1.21</v>
       </c>
       <c r="B20" s="7">
         <v>2000000</v>
       </c>
       <c r="C20">
         <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>10.223936000000002</v>
+        <v>9.4956560000000003</v>
       </c>
       <c r="D20">
         <f>2*$A$21*$A$19*$A$19</f>
-        <v>311308800.00000012</v>
+        <v>329197440.00000012</v>
       </c>
       <c r="E20" s="7">
         <f>$B$20*$B$20*C20+2*$A$20*$A$19*$A$19*B20</f>
-        <v>446061824000000.06</v>
+        <v>319089824000000.06</v>
       </c>
       <c r="F20" s="7">
         <f>(-D20+SQRT(D20*D20-4*C20*E20))/2/C20</f>
-        <v>-1507493.8593806829</v>
+        <v>-998027.36633974581</v>
       </c>
       <c r="G20" s="3">
         <f>ABS(B20)/SQRT(B20*B20+F20*F20)</f>
-        <v>0.79856147425809587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.8947799269431097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f>B4</f>
-        <v>2.68</v>
+        <v>2.8340000000000001</v>
       </c>
       <c r="B21" s="7">
         <v>-2000000</v>
       </c>
       <c r="C21">
         <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>10.223936000000002</v>
+        <v>9.4956560000000003</v>
       </c>
       <c r="D21">
         <f>2*$A$21*$A$19*$A$19</f>
-        <v>311308800.00000012</v>
+        <v>329197440.00000012</v>
       </c>
       <c r="E21" s="7">
         <f>$B$20*$B$20*C21+2*$A$20*$A$19*$A$19*B21</f>
-        <v>-364270336000000.06</v>
+        <v>-243124576000000.06</v>
       </c>
       <c r="F21" s="7">
         <f>(-D21+SQRT(D21*D21-4*C21*E21))/2/C21</f>
-        <v>1128314.7254391636</v>
+        <v>723440.8219790702</v>
       </c>
       <c r="G21" s="3">
         <f>ABS(B21)/SQRT(B21*B21+F21*F21)</f>
-        <v>0.87095804304018432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.94037072631073837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
-        <v>0.83475975864914009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.91757532662692398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -8777,7 +8427,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>B2</f>
         <v>7621.0235533030609</v>
@@ -8813,10 +8463,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>B3</f>
-        <v>1.744</v>
+        <v>1.21</v>
       </c>
       <c r="B25" s="7">
         <v>2000000</v>
@@ -8826,7 +8476,7 @@
       </c>
       <c r="D25" s="7">
         <f>($A$25*C25-$A$26*B25)/$A$24</f>
-        <v>-703.31760064918035</v>
+        <v>-743.73211949245422</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -8837,28 +8487,28 @@
       </c>
       <c r="G25" s="7">
         <f>D25*D25-$A$25*B25-$A$26*C25</f>
-        <v>-2993344.3526170803</v>
+        <v>-1866862.534435262</v>
       </c>
       <c r="H25" s="7">
         <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
-        <v>7995.4065605878104</v>
+        <v>7858.5807650008228</v>
       </c>
       <c r="I25">
         <f>SQRT(D25*D25+H25*H25)</f>
-        <v>8026.2806901125459</v>
+        <v>7893.6955290665765</v>
       </c>
       <c r="J25" s="3">
         <f>I25/$A$24-1</f>
-        <v>5.3176208415448345E-2</v>
+        <v>3.5778917865348259E-2</v>
       </c>
       <c r="K25">
-        <v>5.3199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>B4</f>
-        <v>2.68</v>
+        <v>2.8340000000000001</v>
       </c>
       <c r="B26" s="7">
         <v>-2000000</v>
@@ -8868,7 +8518,7 @@
       </c>
       <c r="D26" s="7">
         <f>($A$25*C26-$A$26*B26)/$A$24</f>
-        <v>703.31760064918035</v>
+        <v>743.73211949245422</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -8879,22 +8529,22 @@
       </c>
       <c r="G26" s="7">
         <f>D26*D26-$A$25*B26-$A$26*C26</f>
-        <v>3982655.6473829197</v>
+        <v>2973137.465564738</v>
       </c>
       <c r="H26" s="7">
         <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
-        <v>7056.639370049098</v>
+        <v>7208.5792472052362</v>
       </c>
       <c r="I26">
         <f>SQRT(D26*D26+H26*H26)</f>
-        <v>7091.6017123291585</v>
+        <v>7246.844294505212</v>
       </c>
       <c r="J26" s="3">
         <f>I26/$A$24-1</f>
-        <v>-6.9468600545715797E-2</v>
+        <v>-4.9098294498207462E-2</v>
       </c>
       <c r="K26">
-        <v>-6.9500000000000006E-2</v>
+        <v>-4.9099999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8904,20 +8554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D88D56F-5866-4E1A-A9FD-BAB878AAC530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571B5046-821A-4877-BBAD-1F65153958C2}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8930,171 +8580,96 @@
       <c r="D1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5">
         <f>C2*1000/SQRT(3)</f>
-        <v>230.94010767585033</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.4</v>
+        <v>7621.0235533030609</v>
+      </c>
+      <c r="C2">
+        <v>13.2</v>
       </c>
       <c r="D2" s="7">
         <v>6000000</v>
       </c>
-      <c r="F2">
-        <v>7.5</v>
-      </c>
-      <c r="G2">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H2">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <f>N3</f>
-        <v>1.228444444444445E-3</v>
-      </c>
-      <c r="C3" s="12">
-        <v>13.2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="14">
-        <f>C2</f>
-        <v>0.4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1.21</v>
-      </c>
-      <c r="L3">
-        <f>$G$5*K3</f>
-        <v>1.1111111111111115E-3</v>
-      </c>
-      <c r="M3">
-        <f>$G$4*$G$2</f>
-        <v>1.1733333333333334E-4</v>
-      </c>
-      <c r="N3">
-        <f>L3+M3</f>
-        <v>1.228444444444445E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B3" s="2">
+        <v>1.744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <f>N4</f>
-        <v>3.8226541781450881E-3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="14">
-        <f>G3*G3/F2</f>
-        <v>2.1333333333333336E-2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="13">
-        <v>2.8340000000000001</v>
-      </c>
-      <c r="L4">
-        <f>$G$5*K4</f>
-        <v>2.6023875114784215E-3</v>
-      </c>
-      <c r="M4">
-        <f>$G$4*$H$2</f>
-        <v>1.2202666666666668E-3</v>
-      </c>
-      <c r="N4">
-        <f>L4+M4</f>
-        <v>3.8226541781450881E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B4" s="2">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <f>B4/B3</f>
-        <v>3.1117843345971217</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>1.536697247706422</v>
       </c>
       <c r="G5">
-        <f>(C2/C3)^2</f>
-        <v>9.1827364554637313E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="2">
         <f>SQRT(B3*B3+B4*B4)</f>
-        <v>4.0151912431136477E-3</v>
+        <v>3.1974890148364858</v>
       </c>
       <c r="C6" s="4">
         <f>C2*C2/B6</f>
-        <v>39.848662320733034</v>
+        <v>54.492759534596971</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E6" s="3">
+        <f>B6*D2*0.000001/C2/C2</f>
+        <v>0.11010637103431425</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="3">
+        <f>G5*E6</f>
+        <v>2.4223401627549137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
         <f>B2/B6</f>
-        <v>57516.589794304273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+        <v>2383.4401050140236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <f>1/SQRT(1+1/B5/B5)</f>
-        <v>0.95204784696151767</v>
+        <v>0.83815768797474688</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -9139,13 +8714,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="10">
         <f>P9/$B$2</f>
-        <v>5.5843056208692919E-2</v>
+        <v>6.4064662405350123E-2</v>
       </c>
       <c r="C9" s="7">
         <f>$D$2/3</f>
@@ -9156,7 +8731,7 @@
       </c>
       <c r="E9" s="7">
         <f>$B$3*C9</f>
-        <v>2456.8888888888901</v>
+        <v>3488000</v>
       </c>
       <c r="F9">
         <f>$B$4*D9</f>
@@ -9164,7 +8739,7 @@
       </c>
       <c r="G9" s="7">
         <f>$B$4*C9</f>
-        <v>7645.3083562901766</v>
+        <v>5360000</v>
       </c>
       <c r="H9">
         <f>$B$3*D9</f>
@@ -9172,44 +8747,44 @@
       </c>
       <c r="I9">
         <f>E9+F9</f>
-        <v>2456.8888888888901</v>
+        <v>3488000</v>
       </c>
       <c r="J9">
         <f>G9-H9</f>
-        <v>7645.3083562901766</v>
+        <v>5360000</v>
       </c>
       <c r="K9">
         <f>I9/$B$2</f>
-        <v>10.638640960267509</v>
+        <v>457.68130430304876</v>
       </c>
       <c r="L9">
         <f>J9/$B$2</f>
-        <v>33.105156281563715</v>
+        <v>703.31760064918035</v>
       </c>
       <c r="M9" s="5">
         <f>$B$2+K9</f>
-        <v>241.57874863611784</v>
+        <v>8078.7048576061097</v>
       </c>
       <c r="N9">
         <f>L9</f>
-        <v>33.105156281563715</v>
+        <v>703.31760064918035</v>
       </c>
       <c r="O9">
         <f>SQRT(M9*M9+N9*N9)</f>
-        <v>243.83650908963443</v>
+        <v>8109.2618544286433</v>
       </c>
       <c r="P9" s="5">
         <f>O9-B$2</f>
-        <v>12.896401413784105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+        <v>488.23830112558244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="10">
         <f>P10/$B$2</f>
-        <v>-3.5356079852546754E-2</v>
+        <v>-5.5535484994337928E-2</v>
       </c>
       <c r="C10" s="7">
         <f>-$D$2/3</f>
@@ -9220,7 +8795,7 @@
       </c>
       <c r="E10" s="7">
         <f>$B$3*C10</f>
-        <v>-2456.8888888888901</v>
+        <v>-3488000</v>
       </c>
       <c r="F10">
         <f>$B$4*D10</f>
@@ -9228,7 +8803,7 @@
       </c>
       <c r="G10" s="7">
         <f>$B$4*C10</f>
-        <v>-7645.3083562901766</v>
+        <v>-5360000</v>
       </c>
       <c r="H10">
         <f>$B$3*D10</f>
@@ -9236,118 +8811,118 @@
       </c>
       <c r="I10">
         <f>E10+F10</f>
-        <v>-2456.8888888888901</v>
+        <v>-3488000</v>
       </c>
       <c r="J10">
         <f>G10-H10</f>
-        <v>-7645.3083562901766</v>
+        <v>-5360000</v>
       </c>
       <c r="K10">
         <f>I10/$B$2</f>
-        <v>-10.638640960267509</v>
+        <v>-457.68130430304876</v>
       </c>
       <c r="L10">
         <f>J10/$B$2</f>
-        <v>-33.105156281563715</v>
+        <v>-703.31760064918035</v>
       </c>
       <c r="M10" s="5">
         <f>$B$2+K10</f>
-        <v>220.30146671558282</v>
+        <v>7163.3422490000121</v>
       </c>
       <c r="N10">
         <f>L10</f>
-        <v>-33.105156281563715</v>
+        <v>-703.31760064918035</v>
       </c>
       <c r="O10">
         <f>SQRT(M10*M10+N10*N10)</f>
-        <v>222.77497078770722</v>
+        <v>7197.7863141171028</v>
       </c>
       <c r="P10" s="5">
         <f>O10-B$2</f>
-        <v>-8.1651368881431097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+        <v>-423.23723918595806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="3">
         <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
-        <v>-0.32135903149903511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+        <v>-0.65074626865671636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10">
         <f>P12/$B$2</f>
-        <v>1.2429019936634252E-2</v>
+        <v>8.5917524857318725E-3</v>
       </c>
       <c r="C12" s="7">
-        <f>$D$2/3</f>
+        <f t="shared" ref="C12" si="0">$D$2/3</f>
         <v>2000000</v>
       </c>
       <c r="D12" s="7">
         <f>C12*$B$11</f>
-        <v>-642718.06299807027</v>
+        <v>-1301492.5373134327</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" ref="E12:E13" si="0">$B$3*C12</f>
-        <v>2456.8888888888901</v>
+        <f t="shared" ref="E12:E13" si="1">$B$3*C12</f>
+        <v>3488000</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F13" si="1">$B$4*D12</f>
-        <v>-2456.8888888888914</v>
+        <f t="shared" ref="F12:F13" si="2">$B$4*D12</f>
+        <v>-3487999.9999999995</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ref="G12:G13" si="2">$B$4*C12</f>
-        <v>7645.3083562901766</v>
+        <f t="shared" ref="G12:G13" si="3">$B$4*C12</f>
+        <v>5360000</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H13" si="3">$B$3*D12</f>
-        <v>-789.54343383407422</v>
+        <f t="shared" ref="H12:H13" si="4">$B$3*D12</f>
+        <v>-2269802.9850746267</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I13" si="4">E12+F12</f>
+        <f t="shared" ref="I12:I13" si="5">E12+F12</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J13" si="5">G12-H12</f>
-        <v>8434.8517901242503</v>
+        <f t="shared" ref="J12:J13" si="6">G12-H12</f>
+        <v>7629802.9850746263</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:L13" si="6">I12/$B$2</f>
+        <f t="shared" ref="K12:L13" si="7">I12/$B$2</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="6"/>
-        <v>36.523979637021242</v>
+        <f t="shared" si="7"/>
+        <v>1001.1520016583285</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" ref="M12:M13" si="7">$B$2+K12</f>
-        <v>230.94010767585033</v>
+        <f t="shared" ref="M12:M13" si="8">$B$2+K12</f>
+        <v>7621.0235533030609</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N13" si="8">L12</f>
-        <v>36.523979637021242</v>
+        <f t="shared" ref="N12:N13" si="9">L12</f>
+        <v>1001.1520016583285</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O13" si="9">SQRT(M12*M12+N12*N12)</f>
-        <v>233.81046687832193</v>
+        <f t="shared" ref="O12:O13" si="10">SQRT(M12*M12+N12*N12)</f>
+        <v>7686.5015013609736</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" ref="P12:P13" si="10">O12-B$2</f>
-        <v>2.8703592024716045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+        <f t="shared" ref="P12:P13" si="11">O12-B$2</f>
+        <v>65.477948057912727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10">
         <f>P13/$B$2</f>
-        <v>1.2429019936634252E-2</v>
+        <v>8.5917524857318725E-3</v>
       </c>
       <c r="C13" s="7">
         <f>-$D$2/3</f>
@@ -9355,84 +8930,84 @@
       </c>
       <c r="D13" s="7">
         <f>C13*$B$11</f>
-        <v>642718.06299807027</v>
+        <v>1301492.5373134327</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>-2456.8888888888901</v>
+        <f t="shared" si="1"/>
+        <v>-3488000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>2456.8888888888914</v>
+        <f t="shared" si="2"/>
+        <v>3487999.9999999995</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="2"/>
-        <v>-7645.3083562901766</v>
+        <f t="shared" si="3"/>
+        <v>-5360000</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>789.54343383407422</v>
+        <f t="shared" si="4"/>
+        <v>2269802.9850746267</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="5"/>
-        <v>-8434.8517901242503</v>
+        <f t="shared" si="6"/>
+        <v>-7629802.9850746263</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="6"/>
-        <v>-36.523979637021242</v>
+        <f t="shared" si="7"/>
+        <v>-1001.1520016583285</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="7"/>
-        <v>230.94010767585033</v>
+        <f t="shared" si="8"/>
+        <v>7621.0235533030609</v>
       </c>
       <c r="N13">
-        <f t="shared" si="8"/>
-        <v>-36.523979637021242</v>
+        <f t="shared" si="9"/>
+        <v>-1001.1520016583285</v>
       </c>
       <c r="O13">
-        <f t="shared" si="9"/>
-        <v>233.81046687832193</v>
+        <f t="shared" si="10"/>
+        <v>7686.5015013609736</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="10"/>
-        <v>2.8703592024716045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+        <f t="shared" si="11"/>
+        <v>65.477948057912727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="4">
         <f>2000000/B2</f>
-        <v>8660.2540378443864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+        <v>262.43194054073894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2">
         <f>B7/B15</f>
-        <v>6.6414437201221705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+        <v>9.0821265890994987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>B2</f>
-        <v>230.94010767585033</v>
+        <v>7621.0235533030609</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>86</v>
@@ -9453,71 +9028,71 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f>B3</f>
-        <v>1.228444444444445E-3</v>
+        <v>1.744</v>
       </c>
       <c r="B20" s="7">
         <v>2000000</v>
       </c>
       <c r="C20">
         <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>1.6121760718776519E-5</v>
+        <v>10.223936000000002</v>
       </c>
       <c r="D20">
         <f>2*$A$21*$A$19*$A$19</f>
-        <v>407.74977900214282</v>
+        <v>311308800.00000012</v>
       </c>
       <c r="E20" s="7">
         <f>$B$20*$B$20*C20+2*$A$20*$A$19*$A$19*B20</f>
-        <v>326555191.02325433</v>
+        <v>446061824000000.06</v>
       </c>
       <c r="F20" s="7">
         <f>(-D20+SQRT(D20*D20-4*C20*E20))/2/C20</f>
-        <v>-827976.89350015053</v>
+        <v>-1507493.8593806829</v>
       </c>
       <c r="G20" s="3">
         <f>ABS(B20)/SQRT(B20*B20+F20*F20)</f>
-        <v>0.92395305323883192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.79856147425809587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f>B4</f>
-        <v>3.8226541781450881E-3</v>
+        <v>2.68</v>
       </c>
       <c r="B21" s="7">
         <v>-2000000</v>
       </c>
       <c r="C21">
         <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>1.6121760718776519E-5</v>
+        <v>10.223936000000002</v>
       </c>
       <c r="D21">
         <f>2*$A$21*$A$19*$A$19</f>
-        <v>407.74977900214282</v>
+        <v>311308800.00000012</v>
       </c>
       <c r="E21" s="7">
         <f>$B$20*$B$20*C21+2*$A$20*$A$19*$A$19*B21</f>
-        <v>-197581105.2730422</v>
+        <v>-364270336000000.06</v>
       </c>
       <c r="F21" s="7">
         <f>(-D21+SQRT(D21*D21-4*C21*E21))/2/C21</f>
-        <v>475620.42830024363</v>
+        <v>1128314.7254391636</v>
       </c>
       <c r="G21" s="3">
         <f>ABS(B21)/SQRT(B21*B21+F21*F21)</f>
-        <v>0.97286865899309205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.87095804304018432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
-        <v>0.94841085611596199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.83475975864914009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -9525,10 +9100,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>B2</f>
-        <v>230.94010767585033</v>
+        <v>7621.0235533030609</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>86</v>
@@ -9561,10 +9136,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <f>B3</f>
-        <v>1.228444444444445E-3</v>
+        <v>1.744</v>
       </c>
       <c r="B25" s="7">
         <v>2000000</v>
@@ -9574,39 +9149,39 @@
       </c>
       <c r="D25" s="7">
         <f>($A$25*C25-$A$26*B25)/$A$24</f>
-        <v>-33.105156281563715</v>
+        <v>-703.31760064918035</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" s="5">
         <f>-$A$24</f>
-        <v>-230.94010767585033</v>
+        <v>-7621.0235533030609</v>
       </c>
       <c r="G25" s="7">
         <f>D25*D25-$A$25*B25-$A$26*C25</f>
-        <v>-1360.9375164621326</v>
+        <v>-2993344.3526170803</v>
       </c>
       <c r="H25" s="7">
         <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
-        <v>236.6899814480152</v>
+        <v>7995.4065605878104</v>
       </c>
       <c r="I25">
         <f>SQRT(D25*D25+H25*H25)</f>
-        <v>238.99393023733583</v>
+        <v>8026.2806901125459</v>
       </c>
       <c r="J25" s="3">
         <f>I25/$A$24-1</f>
-        <v>3.4874074679093425E-2</v>
+        <v>5.3176208415448345E-2</v>
       </c>
       <c r="K25">
-        <v>3.49E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="11">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <f>B4</f>
-        <v>3.8226541781450881E-3</v>
+        <v>2.68</v>
       </c>
       <c r="B26" s="7">
         <v>-2000000</v>
@@ -9616,33 +9191,33 @@
       </c>
       <c r="D26" s="7">
         <f>($A$25*C26-$A$26*B26)/$A$24</f>
-        <v>33.105156281563715</v>
+        <v>703.31760064918035</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" s="5">
         <f>-$A$24</f>
-        <v>-230.94010767585033</v>
+        <v>-7621.0235533030609</v>
       </c>
       <c r="G26" s="7">
         <f>D26*D26-$A$25*B26-$A$26*C26</f>
-        <v>3552.8402613156477</v>
+        <v>3982655.6473829197</v>
       </c>
       <c r="H26" s="7">
         <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
-        <v>214.36642926199056</v>
+        <v>7056.639370049098</v>
       </c>
       <c r="I26">
         <f>SQRT(D26*D26+H26*H26)</f>
-        <v>216.90762404065646</v>
+        <v>7091.6017123291585</v>
       </c>
       <c r="J26" s="3">
         <f>I26/$A$24-1</f>
-        <v>-6.0762436531336506E-2</v>
+        <v>-6.9468600545715797E-2</v>
       </c>
       <c r="K26">
-        <v>-6.08E-2</v>
+        <v>-6.9500000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9652,21 +9227,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04752002-1B45-4D28-B9E9-1A0171A57A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D88D56F-5866-4E1A-A9FD-BAB878AAC530}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E6" sqref="E6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9689,7 +9263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -9725,13 +9299,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11">
         <f>N3</f>
-        <v>1.7188025711662083E-3</v>
+        <v>1.228444444444445E-3</v>
       </c>
       <c r="C3" s="12">
         <v>13.2</v>
@@ -9747,11 +9321,11 @@
         <v>2</v>
       </c>
       <c r="K3" s="13">
-        <v>1.744</v>
+        <v>1.21</v>
       </c>
       <c r="L3">
         <f>$G$5*K3</f>
-        <v>1.6014692378328748E-3</v>
+        <v>1.1111111111111115E-3</v>
       </c>
       <c r="M3">
         <f>$G$4*$G$2</f>
@@ -9759,16 +9333,16 @@
       </c>
       <c r="N3">
         <f>L3+M3</f>
-        <v>1.7188025711662083E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+        <v>1.228444444444445E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="11">
         <f>N4</f>
-        <v>3.681240036730947E-3</v>
+        <v>3.8226541781450881E-3</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>57</v>
@@ -9781,11 +9355,11 @@
         <v>3</v>
       </c>
       <c r="K4" s="13">
-        <v>2.68</v>
+        <v>2.8340000000000001</v>
       </c>
       <c r="L4">
         <f>$G$5*K4</f>
-        <v>2.46097337006428E-3</v>
+        <v>2.6023875114784215E-3</v>
       </c>
       <c r="M4">
         <f>$G$4*$H$2</f>
@@ -9793,16 +9367,16 @@
       </c>
       <c r="N4">
         <f>L4+M4</f>
-        <v>3.681240036730947E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+        <v>3.8226541781450881E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <f>B4/B3</f>
-        <v>2.1417468756945275</v>
+        <v>3.1117843345971217</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>80</v>
@@ -9812,38 +9386,58 @@
         <v>9.1827364554637313E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="11">
         <f>SQRT(B3*B3+B4*B4)</f>
-        <v>4.0627343608311915E-3</v>
+        <v>4.0151912431136477E-3</v>
       </c>
       <c r="C6" s="4">
         <f>C2*C2/B6</f>
-        <v>39.382343463692706</v>
+        <v>39.848662320733034</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
+        <f>B6*D2*0.000001/C2/C2</f>
+        <v>0.15056967161676177</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="3">
+        <f>F6*H6</f>
+        <v>3.312532775568759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
         <f>B2/B6</f>
-        <v>56843.516500203201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+        <v>57516.589794304273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <f>1/SQRT(1+1/B5/B5)</f>
-        <v>0.9060991218677179</v>
+        <v>0.95204784696151767</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -9888,13 +9482,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="10">
         <f>P9/$B$2</f>
-        <v>7.3369222977050633E-2</v>
+        <v>5.5843056208692919E-2</v>
       </c>
       <c r="C9" s="7">
         <f>$D$2/3</f>
@@ -9905,7 +9499,7 @@
       </c>
       <c r="E9" s="7">
         <f>$B$3*C9</f>
-        <v>3437.6051423324166</v>
+        <v>2456.8888888888901</v>
       </c>
       <c r="F9">
         <f>$B$4*D9</f>
@@ -9913,7 +9507,7 @@
       </c>
       <c r="G9" s="7">
         <f>$B$4*C9</f>
-        <v>7362.4800734618939</v>
+        <v>7645.3083562901766</v>
       </c>
       <c r="H9">
         <f>$B$3*D9</f>
@@ -9921,44 +9515,44 @@
       </c>
       <c r="I9">
         <f>E9+F9</f>
-        <v>3437.6051423324166</v>
+        <v>2456.8888888888901</v>
       </c>
       <c r="J9">
         <f>G9-H9</f>
-        <v>7362.4800734618939</v>
+        <v>7645.3083562901766</v>
       </c>
       <c r="K9">
         <f>I9/$B$2</f>
-        <v>14.885266907199467</v>
+        <v>10.638640960267509</v>
       </c>
       <c r="L9">
         <f>J9/$B$2</f>
-        <v>31.880473892373598</v>
+        <v>33.105156281563715</v>
       </c>
       <c r="M9" s="5">
         <f>$B$2+K9</f>
-        <v>245.82537458304981</v>
+        <v>241.57874863611784</v>
       </c>
       <c r="N9">
         <f>L9</f>
-        <v>31.880473892373598</v>
+        <v>33.105156281563715</v>
       </c>
       <c r="O9">
         <f>SQRT(M9*M9+N9*N9)</f>
-        <v>247.88400393026387</v>
+        <v>243.83650908963443</v>
       </c>
       <c r="P9" s="5">
         <f>O9-B$2</f>
-        <v>16.943896254413545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+        <v>12.896401413784105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="10">
         <f>P10/$B$2</f>
-        <v>-5.4325054175894012E-2</v>
+        <v>-3.5356079852546754E-2</v>
       </c>
       <c r="C10" s="7">
         <f>-$D$2/3</f>
@@ -9969,7 +9563,7 @@
       </c>
       <c r="E10" s="7">
         <f>$B$3*C10</f>
-        <v>-3437.6051423324166</v>
+        <v>-2456.8888888888901</v>
       </c>
       <c r="F10">
         <f>$B$4*D10</f>
@@ -9977,7 +9571,7 @@
       </c>
       <c r="G10" s="7">
         <f>$B$4*C10</f>
-        <v>-7362.4800734618939</v>
+        <v>-7645.3083562901766</v>
       </c>
       <c r="H10">
         <f>$B$3*D10</f>
@@ -9985,53 +9579,53 @@
       </c>
       <c r="I10">
         <f>E10+F10</f>
-        <v>-3437.6051423324166</v>
+        <v>-2456.8888888888901</v>
       </c>
       <c r="J10">
         <f>G10-H10</f>
-        <v>-7362.4800734618939</v>
+        <v>-7645.3083562901766</v>
       </c>
       <c r="K10">
         <f>I10/$B$2</f>
-        <v>-14.885266907199467</v>
+        <v>-10.638640960267509</v>
       </c>
       <c r="L10">
         <f>J10/$B$2</f>
-        <v>-31.880473892373598</v>
+        <v>-33.105156281563715</v>
       </c>
       <c r="M10" s="5">
         <f>$B$2+K10</f>
-        <v>216.05484076865085</v>
+        <v>220.30146671558282</v>
       </c>
       <c r="N10">
         <f>L10</f>
-        <v>-31.880473892373598</v>
+        <v>-33.105156281563715</v>
       </c>
       <c r="O10">
         <f>SQRT(M10*M10+N10*N10)</f>
-        <v>218.39427381497296</v>
+        <v>222.77497078770722</v>
       </c>
       <c r="P10" s="5">
         <f>O10-B$2</f>
-        <v>-12.545833860877366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+        <v>-8.1651368881431097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="3">
         <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
-        <v>-0.46690858352517461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+        <v>-0.32135903149903511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="10">
         <f>P12/$B$2</f>
-        <v>1.4037199847095441E-2</v>
+        <v>1.2429019936634252E-2</v>
       </c>
       <c r="C12" s="7">
         <f>$D$2/3</f>
@@ -10039,23 +9633,23 @@
       </c>
       <c r="D12" s="7">
         <f>C12*$B$11</f>
-        <v>-933817.16705034918</v>
+        <v>-642718.06299807027</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ref="E12:E13" si="0">$B$3*C12</f>
-        <v>3437.6051423324166</v>
+        <v>2456.8888888888901</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F13" si="1">$B$4*D12</f>
-        <v>-3437.6051423324161</v>
+        <v>-2456.8888888888914</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" ref="G12:G13" si="2">$B$4*C12</f>
-        <v>7362.4800734618939</v>
+        <v>7645.3083562901766</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H13" si="3">$B$3*D12</f>
-        <v>-1605.0473477252847</v>
+        <v>-789.54343383407422</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12:I13" si="4">E12+F12</f>
@@ -10063,7 +9657,7 @@
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J13" si="5">G12-H12</f>
-        <v>8967.5274211871783</v>
+        <v>8434.8517901242503</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:L13" si="6">I12/$B$2</f>
@@ -10071,7 +9665,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="6"/>
-        <v>38.830532779408259</v>
+        <v>36.523979637021242</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" ref="M12:M13" si="7">$B$2+K12</f>
@@ -10079,24 +9673,24 @@
       </c>
       <c r="N12">
         <f t="shared" ref="N12:N13" si="8">L12</f>
-        <v>38.830532779408259</v>
+        <v>36.523979637021242</v>
       </c>
       <c r="O12">
         <f t="shared" ref="O12:O13" si="9">SQRT(M12*M12+N12*N12)</f>
-        <v>234.18186012000598</v>
+        <v>233.81046687832193</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" ref="P12:P13" si="10">O12-B$2</f>
-        <v>3.2417524441556509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+        <v>2.8703592024716045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10">
         <f>P13/$B$2</f>
-        <v>1.4037199847095441E-2</v>
+        <v>1.2429019936634252E-2</v>
       </c>
       <c r="C13" s="7">
         <f>-$D$2/3</f>
@@ -10104,23 +9698,23 @@
       </c>
       <c r="D13" s="7">
         <f>C13*$B$11</f>
-        <v>933817.16705034918</v>
+        <v>642718.06299807027</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>-3437.6051423324166</v>
+        <v>-2456.8888888888901</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>3437.6051423324161</v>
+        <v>2456.8888888888914</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>-7362.4800734618939</v>
+        <v>-7645.3083562901766</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>1605.0473477252847</v>
+        <v>789.54343383407422</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
@@ -10128,7 +9722,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>-8967.5274211871783</v>
+        <v>-8434.8517901242503</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
@@ -10136,7 +9730,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="6"/>
-        <v>-38.830532779408259</v>
+        <v>-36.523979637021242</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="7"/>
@@ -10144,18 +9738,18 @@
       </c>
       <c r="N13">
         <f t="shared" si="8"/>
-        <v>-38.830532779408259</v>
+        <v>-36.523979637021242</v>
       </c>
       <c r="O13">
         <f t="shared" si="9"/>
-        <v>234.18186012000598</v>
+        <v>233.81046687832193</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="10"/>
-        <v>3.2417524441556509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+        <v>2.8703592024716045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -10164,21 +9758,21 @@
         <v>8660.2540378443864</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2">
         <f>B7/B15</f>
-        <v>6.5637239106154501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+        <v>6.6414437201221705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f>B2</f>
         <v>230.94010767585033</v>
@@ -10202,71 +9796,71 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f>B3</f>
-        <v>1.7188025711662083E-3</v>
+        <v>1.228444444444445E-3</v>
       </c>
       <c r="B20" s="7">
         <v>2000000</v>
       </c>
       <c r="C20">
         <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>1.6505810486678431E-5</v>
+        <v>1.6121760718776519E-5</v>
       </c>
       <c r="D20">
         <f>2*$A$21*$A$19*$A$19</f>
-        <v>392.66560391796776</v>
+        <v>407.74977900214282</v>
       </c>
       <c r="E20" s="7">
         <f>$B$20*$B$20*C20+2*$A$20*$A$19*$A$19*B20</f>
-        <v>432701123.79550493</v>
+        <v>326555191.02325433</v>
       </c>
       <c r="F20" s="7">
         <f>(-D20+SQRT(D20*D20-4*C20*E20))/2/C20</f>
-        <v>-1158361.2880486748</v>
+        <v>-827976.89350015053</v>
       </c>
       <c r="G20" s="3">
         <f>ABS(B20)/SQRT(B20*B20+F20*F20)</f>
-        <v>0.86533874272075995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.92395305323883192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f>B4</f>
-        <v>3.681240036730947E-3</v>
+        <v>3.8226541781450881E-3</v>
       </c>
       <c r="B21" s="7">
         <v>-2000000</v>
       </c>
       <c r="C21">
         <f>$A$20*$A$20+A$21*$A$21</f>
-        <v>1.6505810486678431E-5</v>
+        <v>1.6121760718776519E-5</v>
       </c>
       <c r="D21">
         <f>2*$A$21*$A$19*$A$19</f>
-        <v>392.66560391796776</v>
+        <v>407.74977900214282</v>
       </c>
       <c r="E21" s="7">
         <f>$B$20*$B$20*C21+2*$A$20*$A$19*$A$19*B21</f>
-        <v>-300654639.90207744</v>
+        <v>-197581105.2730422</v>
       </c>
       <c r="F21" s="7">
         <f>(-D21+SQRT(D21*D21-4*C21*E21))/2/C21</f>
-        <v>742501.61205136846</v>
+        <v>475620.42830024363</v>
       </c>
       <c r="G21" s="3">
         <f>ABS(B21)/SQRT(B21*B21+F21*F21)</f>
-        <v>0.93747965541205758</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.97286865899309205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
-        <v>0.90140919906640882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.94841085611596199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -10274,7 +9868,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>B2</f>
         <v>230.94010767585033</v>
@@ -10310,10 +9904,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f>B3</f>
-        <v>1.7188025711662083E-3</v>
+        <v>1.228444444444445E-3</v>
       </c>
       <c r="B25" s="7">
         <v>2000000</v>
@@ -10323,7 +9917,7 @@
       </c>
       <c r="D25" s="7">
         <f>($A$25*C25-$A$26*B25)/$A$24</f>
-        <v>-31.880473892373598</v>
+        <v>-33.105156281563715</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -10334,28 +9928,28 @@
       </c>
       <c r="G25" s="7">
         <f>D25*D25-$A$25*B25-$A$26*C25</f>
-        <v>-2421.2405267301019</v>
+        <v>-1360.9375164621326</v>
       </c>
       <c r="H25" s="7">
         <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
-        <v>240.98727918991995</v>
+        <v>236.6899814480152</v>
       </c>
       <c r="I25">
         <f>SQRT(D25*D25+H25*H25)</f>
-        <v>243.08688435817086</v>
+        <v>238.99393023733583</v>
       </c>
       <c r="J25" s="3">
         <f>I25/$A$24-1</f>
-        <v>5.2597085904930285E-2</v>
+        <v>3.4874074679093425E-2</v>
       </c>
       <c r="K25">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f>B4</f>
-        <v>3.681240036730947E-3</v>
+        <v>3.8226541781450881E-3</v>
       </c>
       <c r="B26" s="7">
         <v>-2000000</v>
@@ -10365,7 +9959,7 @@
       </c>
       <c r="D26" s="7">
         <f>($A$25*C26-$A$26*B26)/$A$24</f>
-        <v>31.880473892373598</v>
+        <v>33.105156281563715</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -10376,22 +9970,22 @@
       </c>
       <c r="G26" s="7">
         <f>D26*D26-$A$25*B26-$A$26*C26</f>
-        <v>4453.9697579347312</v>
+        <v>3552.8402613156477</v>
       </c>
       <c r="H26" s="7">
         <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
-        <v>209.70042885255941</v>
+        <v>214.36642926199056</v>
       </c>
       <c r="I26">
         <f>SQRT(D26*D26+H26*H26)</f>
-        <v>212.10995845680995</v>
+        <v>216.90762404065646</v>
       </c>
       <c r="J26" s="3">
         <f>I26/$A$24-1</f>
-        <v>-8.1536937903703421E-2</v>
+        <v>-6.0762436531336506E-2</v>
       </c>
       <c r="K26">
-        <v>-8.1500000000000003E-2</v>
+        <v>-6.08E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10401,6 +9995,775 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04752002-1B45-4D28-B9E9-1A0171A57A1D}">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <f>C2*1000/SQRT(3)</f>
+        <v>230.94010767585033</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6000000</v>
+      </c>
+      <c r="F2">
+        <v>7.5</v>
+      </c>
+      <c r="G2">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H2">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <f>N3</f>
+        <v>1.7188025711662083E-3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>13.2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="14">
+        <f>C2</f>
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1.744</v>
+      </c>
+      <c r="L3">
+        <f>$G$5*K3</f>
+        <v>1.6014692378328748E-3</v>
+      </c>
+      <c r="M3">
+        <f>$G$4*$G$2</f>
+        <v>1.1733333333333334E-4</v>
+      </c>
+      <c r="N3">
+        <f>L3+M3</f>
+        <v>1.7188025711662083E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <f>N4</f>
+        <v>3.681240036730947E-3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="14">
+        <f>G3*G3/F2</f>
+        <v>2.1333333333333336E-2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2.68</v>
+      </c>
+      <c r="L4">
+        <f>$G$5*K4</f>
+        <v>2.46097337006428E-3</v>
+      </c>
+      <c r="M4">
+        <f>$G$4*$H$2</f>
+        <v>1.2202666666666668E-3</v>
+      </c>
+      <c r="N4">
+        <f>L4+M4</f>
+        <v>3.681240036730947E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <f>B4/B3</f>
+        <v>2.1417468756945275</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <f>(C2/C3)^2</f>
+        <v>9.1827364554637313E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <f>SQRT(B3*B3+B4*B4)</f>
+        <v>4.0627343608311915E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C2*C2/B6</f>
+        <v>39.382343463692706</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7">
+        <f>B6*D2*0.000001/C2/C2</f>
+        <v>0.15235253853116965</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="3">
+        <f>F6*H6</f>
+        <v>3.3517558476857321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B2/B6</f>
+        <v>56843.516500203201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <f>1/SQRT(1+1/B5/B5)</f>
+        <v>0.9060991218677179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <f>P9/$B$2</f>
+        <v>7.3369222977050633E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <f>$D$2/3</f>
+        <v>2000000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f>$B$3*C9</f>
+        <v>3437.6051423324166</v>
+      </c>
+      <c r="F9">
+        <f>$B$4*D9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f>$B$4*C9</f>
+        <v>7362.4800734618939</v>
+      </c>
+      <c r="H9">
+        <f>$B$3*D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>E9+F9</f>
+        <v>3437.6051423324166</v>
+      </c>
+      <c r="J9">
+        <f>G9-H9</f>
+        <v>7362.4800734618939</v>
+      </c>
+      <c r="K9">
+        <f>I9/$B$2</f>
+        <v>14.885266907199467</v>
+      </c>
+      <c r="L9">
+        <f>J9/$B$2</f>
+        <v>31.880473892373598</v>
+      </c>
+      <c r="M9" s="5">
+        <f>$B$2+K9</f>
+        <v>245.82537458304981</v>
+      </c>
+      <c r="N9">
+        <f>L9</f>
+        <v>31.880473892373598</v>
+      </c>
+      <c r="O9">
+        <f>SQRT(M9*M9+N9*N9)</f>
+        <v>247.88400393026387</v>
+      </c>
+      <c r="P9" s="5">
+        <f>O9-B$2</f>
+        <v>16.943896254413545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <f>P10/$B$2</f>
+        <v>-5.4325054175894012E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <f>-$D$2/3</f>
+        <v>-2000000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f>$B$3*C10</f>
+        <v>-3437.6051423324166</v>
+      </c>
+      <c r="F10">
+        <f>$B$4*D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f>$B$4*C10</f>
+        <v>-7362.4800734618939</v>
+      </c>
+      <c r="H10">
+        <f>$B$3*D10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>E10+F10</f>
+        <v>-3437.6051423324166</v>
+      </c>
+      <c r="J10">
+        <f>G10-H10</f>
+        <v>-7362.4800734618939</v>
+      </c>
+      <c r="K10">
+        <f>I10/$B$2</f>
+        <v>-14.885266907199467</v>
+      </c>
+      <c r="L10">
+        <f>J10/$B$2</f>
+        <v>-31.880473892373598</v>
+      </c>
+      <c r="M10" s="5">
+        <f>$B$2+K10</f>
+        <v>216.05484076865085</v>
+      </c>
+      <c r="N10">
+        <f>L10</f>
+        <v>-31.880473892373598</v>
+      </c>
+      <c r="O10">
+        <f>SQRT(M10*M10+N10*N10)</f>
+        <v>218.39427381497296</v>
+      </c>
+      <c r="P10" s="5">
+        <f>O10-B$2</f>
+        <v>-12.545833860877366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <f>-(1/$B$8)*SQRT(1-$B$8*$B$8)</f>
+        <v>-0.46690858352517461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10">
+        <f>P12/$B$2</f>
+        <v>1.4037199847095441E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <f>$D$2/3</f>
+        <v>2000000</v>
+      </c>
+      <c r="D12" s="7">
+        <f>C12*$B$11</f>
+        <v>-933817.16705034918</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12:E13" si="0">$B$3*C12</f>
+        <v>3437.6051423324166</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="1">$B$4*D12</f>
+        <v>-3437.6051423324161</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" ref="G12:G13" si="2">$B$4*C12</f>
+        <v>7362.4800734618939</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H13" si="3">$B$3*D12</f>
+        <v>-1605.0473477252847</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I13" si="4">E12+F12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J13" si="5">G12-H12</f>
+        <v>8967.5274211871783</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:L13" si="6">I12/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>38.830532779408259</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" ref="M12:M13" si="7">$B$2+K12</f>
+        <v>230.94010767585033</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N13" si="8">L12</f>
+        <v>38.830532779408259</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O13" si="9">SQRT(M12*M12+N12*N12)</f>
+        <v>234.18186012000598</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" ref="P12:P13" si="10">O12-B$2</f>
+        <v>3.2417524441556509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <f>P13/$B$2</f>
+        <v>1.4037199847095441E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <f>-$D$2/3</f>
+        <v>-2000000</v>
+      </c>
+      <c r="D13" s="7">
+        <f>C13*$B$11</f>
+        <v>933817.16705034918</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>-3437.6051423324166</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3437.6051423324161</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>-7362.4800734618939</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1605.0473477252847</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>-8967.5274211871783</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>-38.830532779408259</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="7"/>
+        <v>230.94010767585033</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="8"/>
+        <v>-38.830532779408259</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="9"/>
+        <v>234.18186012000598</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="10"/>
+        <v>3.2417524441556509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4">
+        <f>2000000/B2</f>
+        <v>8660.2540378443864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B7/B15</f>
+        <v>6.5637239106154501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>B2</f>
+        <v>230.94010767585033</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <f>B3</f>
+        <v>1.7188025711662083E-3</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C20">
+        <f>$A$20*$A$20+A$21*$A$21</f>
+        <v>1.6505810486678431E-5</v>
+      </c>
+      <c r="D20">
+        <f>2*$A$21*$A$19*$A$19</f>
+        <v>392.66560391796776</v>
+      </c>
+      <c r="E20" s="7">
+        <f>$B$20*$B$20*C20+2*$A$20*$A$19*$A$19*B20</f>
+        <v>432701123.79550493</v>
+      </c>
+      <c r="F20" s="7">
+        <f>(-D20+SQRT(D20*D20-4*C20*E20))/2/C20</f>
+        <v>-1158361.2880486748</v>
+      </c>
+      <c r="G20" s="3">
+        <f>ABS(B20)/SQRT(B20*B20+F20*F20)</f>
+        <v>0.86533874272075995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <f>B4</f>
+        <v>3.681240036730947E-3</v>
+      </c>
+      <c r="B21" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="C21">
+        <f>$A$20*$A$20+A$21*$A$21</f>
+        <v>1.6505810486678431E-5</v>
+      </c>
+      <c r="D21">
+        <f>2*$A$21*$A$19*$A$19</f>
+        <v>392.66560391796776</v>
+      </c>
+      <c r="E21" s="7">
+        <f>$B$20*$B$20*C21+2*$A$20*$A$19*$A$19*B21</f>
+        <v>-300654639.90207744</v>
+      </c>
+      <c r="F21" s="7">
+        <f>(-D21+SQRT(D21*D21-4*C21*E21))/2/C21</f>
+        <v>742501.61205136846</v>
+      </c>
+      <c r="G21" s="3">
+        <f>ABS(B21)/SQRT(B21*B21+F21*F21)</f>
+        <v>0.93747965541205758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <f>AVERAGE(G20:G21)</f>
+        <v>0.90140919906640882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f>B2</f>
+        <v>230.94010767585033</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f>B3</f>
+        <v>1.7188025711662083E-3</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <f>($A$25*C25-$A$26*B25)/$A$24</f>
+        <v>-31.880473892373598</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <f>-$A$24</f>
+        <v>-230.94010767585033</v>
+      </c>
+      <c r="G25" s="7">
+        <f>D25*D25-$A$25*B25-$A$26*C25</f>
+        <v>-2421.2405267301019</v>
+      </c>
+      <c r="H25" s="7">
+        <f>(-F25+SQRT(F25*F25-4*E25*G25))/2/E25</f>
+        <v>240.98727918991995</v>
+      </c>
+      <c r="I25">
+        <f>SQRT(D25*D25+H25*H25)</f>
+        <v>243.08688435817086</v>
+      </c>
+      <c r="J25" s="3">
+        <f>I25/$A$24-1</f>
+        <v>5.2597085904930285E-2</v>
+      </c>
+      <c r="K25">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <f>B4</f>
+        <v>3.681240036730947E-3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-2000000</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <f>($A$25*C26-$A$26*B26)/$A$24</f>
+        <v>31.880473892373598</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <f>-$A$24</f>
+        <v>-230.94010767585033</v>
+      </c>
+      <c r="G26" s="7">
+        <f>D26*D26-$A$25*B26-$A$26*C26</f>
+        <v>4453.9697579347312</v>
+      </c>
+      <c r="H26" s="7">
+        <f>(-F26+SQRT(F26*F26-4*E26*G26))/2/E26</f>
+        <v>209.70042885255941</v>
+      </c>
+      <c r="I26">
+        <f>SQRT(D26*D26+H26*H26)</f>
+        <v>212.10995845680995</v>
+      </c>
+      <c r="J26" s="3">
+        <f>I26/$A$24-1</f>
+        <v>-8.1536937903703421E-2</v>
+      </c>
+      <c r="K26">
+        <v>-8.1500000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCD21E2-280D-4F95-A39D-A7A61398DD72}">
   <dimension ref="A1:F402"/>
   <sheetViews>
@@ -10408,9 +10771,9 @@
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -10427,7 +10790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10446,7 +10809,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10465,7 +10828,7 @@
         <v>0.70887675227890179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -10484,7 +10847,7 @@
         <v>0.71065110901020734</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="7">
         <v>-1970000</v>
       </c>
@@ -10497,7 +10860,7 @@
         <v>0.712429816596864</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="7">
         <v>-1960000</v>
       </c>
@@ -10510,7 +10873,7 @@
         <v>0.71421283914250722</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="7">
         <v>-1950000</v>
       </c>
@@ -10523,7 +10886,7 @@
         <v>0.71600013962004083</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="7">
         <v>-1940000</v>
       </c>
@@ -10536,7 +10899,7 @@
         <v>0.71779167985353431</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="7">
         <v>-1930000</v>
       </c>
@@ -10549,7 +10912,7 @@
         <v>0.7195874204999847</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="7">
         <v>-1920000</v>
       </c>
@@ -10562,7 +10925,7 @@
         <v>0.72138732103095149</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="7">
         <v>-1910000</v>
       </c>
@@ -10575,7 +10938,7 @@
         <v>0.72319133971406457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="7">
         <v>-1900000</v>
       </c>
@@ -10588,7 +10951,7 @@
         <v>0.72499943359441377</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="7">
         <v>-1890000</v>
       </c>
@@ -10601,7 +10964,7 @@
         <v>0.72681155847582168</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="7">
         <v>-1880000</v>
       </c>
@@ -10614,7 +10977,7 @@
         <v>0.72862766890200725</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="7">
         <v>-1870000</v>
       </c>
@@ -10627,7 +10990,7 @@
         <v>0.73044771813764475</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="7">
         <v>-1860000</v>
       </c>
@@ -10640,7 +11003,7 @@
         <v>0.73227165814932205</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="7">
         <v>-1850000</v>
       </c>
@@ -10653,7 +11016,7 @@
         <v>0.73409943958640766</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="7">
         <v>-1840000</v>
       </c>
@@ -10666,7 +11029,7 @@
         <v>0.73593101176182962</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="7">
         <v>-1830000</v>
       </c>
@@ -10679,7 +11042,7 @@
         <v>0.73776632263277464</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="7">
         <v>-1820000</v>
       </c>
@@ -10692,7 +11055,7 @@
         <v>0.73960531878131319</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="7">
         <v>-1810000</v>
       </c>
@@ -10705,7 +11068,7 @@
         <v>0.74144794539495829</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="7">
         <v>-1800000</v>
       </c>
@@ -10718,7 +11081,7 @@
         <v>0.74329414624716628</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="7">
         <v>-1790000</v>
       </c>
@@ -10731,7 +11094,7 @@
         <v>0.74514386367778529</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="7">
         <v>-1780000</v>
       </c>
@@ -10744,7 +11107,7 @@
         <v>0.74699703857346067</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="7">
         <v>-1770000</v>
       </c>
@@ -10757,7 +11120,7 @@
         <v>0.74885361034800746</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="7">
         <v>-1760000</v>
       </c>
@@ -10770,7 +11133,7 @@
         <v>0.75071351692275534</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="7">
         <v>-1750000</v>
       </c>
@@ -10783,7 +11146,7 @@
         <v>0.75257669470687794</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="7">
         <v>-1740000</v>
       </c>
@@ -10796,7 +11159,7 @@
         <v>0.75444307857771475</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="7">
         <v>-1730000</v>
       </c>
@@ -10809,7 +11172,7 @@
         <v>0.7563126018610965</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="7">
         <v>-1720000</v>
       </c>
@@ -10822,7 +11185,7 @@
         <v>0.75818519631168302</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="7">
         <v>-1710000</v>
       </c>
@@ -10835,7 +11198,7 @@
         <v>0.76006079209332467</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="7">
         <v>-1700000</v>
       </c>
@@ -10848,7 +11211,7 @@
         <v>0.76193931775945933</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="7">
         <v>-1690000</v>
       </c>
@@ -10861,7 +11224,7 @@
         <v>0.76382070023355519</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="7">
         <v>-1680000</v>
       </c>
@@ -10874,7 +11237,7 @@
         <v>0.76570486478961108</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="7">
         <v>-1670000</v>
       </c>
@@ -10887,7 +11250,7 @@
         <v>0.76759173503272804</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="7">
         <v>-1660000</v>
       </c>
@@ -10900,7 +11263,7 @@
         <v>0.76948123287976256</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="7">
         <v>-1650000</v>
       </c>
@@ -10913,7 +11276,7 @@
         <v>0.7713732785400772</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="7">
         <v>-1640000</v>
       </c>
@@ -10926,7 +11289,7 @@
         <v>0.77326779049639849</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="7">
         <v>-1630000</v>
       </c>
@@ -10939,7 +11302,7 @@
         <v>0.7751646854858002</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="7">
         <v>-1620000</v>
       </c>
@@ -10952,7 +11315,7 @@
         <v>0.77706387848082314</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="7">
         <v>-1610000</v>
       </c>
@@ -10965,7 +11328,7 @@
         <v>0.77896528267074683</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <v>-1600000</v>
       </c>
@@ -10978,7 +11341,7 @@
         <v>0.78086880944303028</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="7">
         <v>-1590000</v>
       </c>
@@ -10991,7 +11354,7 @@
         <v>0.78277436836493386</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="7">
         <v>-1580000</v>
       </c>
@@ -11004,7 +11367,7 @@
         <v>0.78468186716534216</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="7">
         <v>-1570000</v>
       </c>
@@ -11017,7 +11380,7 @@
         <v>0.78659121171680135</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="7">
         <v>-1560000</v>
       </c>
@@ -11030,7 +11393,7 @@
         <v>0.78850230601779103</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="7">
         <v>-1550000</v>
       </c>
@@ -11043,7 +11406,7 @@
         <v>0.79041505217524377</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="7">
         <v>-1540000</v>
       </c>
@@ -11056,7 +11419,7 @@
         <v>0.79232935038733465</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="7">
         <v>-1530000</v>
       </c>
@@ -11069,7 +11432,7 @@
         <v>0.79424509892655693</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="7">
         <v>-1520000</v>
       </c>
@@ -11082,7 +11445,7 @@
         <v>0.79616219412310241</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="7">
         <v>-1510000</v>
       </c>
@@ -11095,7 +11458,7 @@
         <v>0.79808053034856719</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="7">
         <v>-1500000</v>
       </c>
@@ -11108,7 +11471,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="7">
         <v>-1490000</v>
       </c>
@@ -11121,7 +11484,7 @@
         <v>0.80192049348431715</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="7">
         <v>-1480000</v>
       </c>
@@ -11134,7 +11497,7 @@
         <v>0.8038418992031009</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="7">
         <v>-1470000</v>
       </c>
@@ -11147,7 +11510,7 @@
         <v>0.8057641035378047</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="7">
         <v>-1460000</v>
       </c>
@@ -11160,7 +11523,7 @@
         <v>0.80768699083538564</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="7">
         <v>-1450000</v>
       </c>
@@ -11173,7 +11536,7 @@
         <v>0.80961044339438759</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="7">
         <v>-1440000</v>
       </c>
@@ -11186,7 +11549,7 @@
         <v>0.81153434145149439</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" s="7">
         <v>-1430000</v>
       </c>
@@ -11199,7 +11562,7 @@
         <v>0.81345856316858023</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" s="7">
         <v>-1420000</v>
       </c>
@@ -11212,7 +11575,7 @@
         <v>0.81538298462027692</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="7">
         <v>-1410000</v>
       </c>
@@ -11225,7 +11588,7 @@
         <v>0.81730747978208329</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" s="7">
         <v>-1400000</v>
       </c>
@@ -11238,7 +11601,7 @@
         <v>0.81923192051904037</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" s="7">
         <v>-1390000</v>
       </c>
@@ -11251,7 +11614,7 @@
         <v>0.82115617657499851</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" s="7">
         <v>-1380000</v>
       </c>
@@ -11264,7 +11627,7 @@
         <v>0.82308011556249749</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" s="7">
         <v>-1370000</v>
       </c>
@@ -11277,7 +11640,7 @@
         <v>0.82500360295328967</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" s="7">
         <v>-1360000</v>
       </c>
@@ -11290,7 +11653,7 @@
         <v>0.82692650206952811</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" s="7">
         <v>-1350000</v>
       </c>
@@ -11303,7 +11666,7 @@
         <v>0.82884867407564811</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" s="7">
         <v>-1340000</v>
       </c>
@@ -11316,7 +11679,7 @@
         <v>0.83076997797096708</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" s="7">
         <v>-1330000</v>
       </c>
@@ -11329,7 +11692,7 @@
         <v>0.83269027058302947</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" s="7">
         <v>-1320000</v>
       </c>
@@ -11342,7 +11705,7 @@
         <v>0.83460940656172522</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" s="7">
         <v>-1310000</v>
       </c>
@@ -11355,7 +11718,7 @@
         <v>0.83652723837420739</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="7">
         <v>-1300000</v>
       </c>
@@ -11368,7 +11731,7 @@
         <v>0.83844361630063702</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D73" s="7">
         <v>-1290000</v>
       </c>
@@ -11381,7 +11744,7 @@
         <v>0.84035838843078425</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D74" s="7">
         <v>-1280000</v>
       </c>
@@ -11394,7 +11757,7 @@
         <v>0.84227140066151129</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75" s="7">
         <v>-1270000</v>
       </c>
@@ -11407,7 +11770,7 @@
         <v>0.84418249669516798</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D76" s="7">
         <v>-1260000</v>
       </c>
@@ -11420,7 +11783,7 @@
         <v>0.8460915180389269</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D77" s="7">
         <v>-1250000</v>
       </c>
@@ -11433,7 +11796,7 @@
         <v>0.84799830400508802</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D78" s="7">
         <v>-1240000</v>
       </c>
@@ -11446,7 +11809,7 @@
         <v>0.84990269171237953</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79" s="7">
         <v>-1230000</v>
       </c>
@@ -11459,7 +11822,7 @@
         <v>0.85180451608828589</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D80" s="7">
         <v>-1220000</v>
       </c>
@@ -11472,7 +11835,7 @@
         <v>0.85370360987243077</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81" s="7">
         <v>-1210000</v>
       </c>
@@ -11485,7 +11848,7 @@
         <v>0.85559980362104437</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82" s="7">
         <v>-1200000</v>
       </c>
@@ -11498,7 +11861,7 @@
         <v>0.85749292571254421</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83" s="7">
         <v>-1190000</v>
       </c>
@@ -11511,7 +11874,7 @@
         <v>0.85938280235425735</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84" s="7">
         <v>-1180000</v>
       </c>
@@ -11524,7 +11887,7 @@
         <v>0.86126925759031525</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85" s="7">
         <v>-1170000</v>
       </c>
@@ -11537,7 +11900,7 @@
         <v>0.86315211331074715</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" s="7">
         <v>-1160000</v>
       </c>
@@ -11550,7 +11913,7 @@
         <v>0.86503118926180333</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87" s="7">
         <v>-1150000</v>
       </c>
@@ -11563,7 +11926,7 @@
         <v>0.86690630305753513</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88" s="7">
         <v>-1140000</v>
       </c>
@@ -11576,7 +11939,7 @@
         <v>0.86877727019266082</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D89" s="7">
         <v>-1130000</v>
       </c>
@@ -11589,7 +11952,7 @@
         <v>0.87064390405674497</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D90" s="7">
         <v>-1120000</v>
       </c>
@@ -11602,7 +11965,7 @@
         <v>0.87250601594971999</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D91" s="7">
         <v>-1110000</v>
       </c>
@@ -11615,7 +11978,7 @@
         <v>0.87436341509877602</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D92" s="7">
         <v>-1100000</v>
       </c>
@@ -11628,7 +11991,7 @@
         <v>0.876215908676647</v>
       </c>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D93" s="7">
         <v>-1090000</v>
       </c>
@@ -11641,7 +12004,7 @@
         <v>0.87806330182131986</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D94" s="7">
         <v>-1080000</v>
       </c>
@@ -11654,7 +12017,7 @@
         <v>0.87990539765719245</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D95" s="7">
         <v>-1070000</v>
       </c>
@@ -11667,7 +12030,7 @@
         <v>0.88174199731770531</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96" s="7">
         <v>-1060000</v>
       </c>
@@ -11680,7 +12043,7 @@
         <v>0.88357289996947352</v>
       </c>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="7">
         <v>-1050000</v>
       </c>
@@ -11693,7 +12056,7 @@
         <v>0.88539790283794351</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98" s="7">
         <v>-1040000</v>
       </c>
@@ -11706,7 +12069,7 @@
         <v>0.88721680123459523</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="7">
         <v>-1030000</v>
       </c>
@@ -11719,7 +12082,7 @@
         <v>0.88902938858571634</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="7">
         <v>-1020000</v>
       </c>
@@ -11732,7 +12095,7 @@
         <v>0.89083545646276951</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="7">
         <v>-1010000</v>
       </c>
@@ -11745,7 +12108,7 @@
         <v>0.89263479461437301</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="7">
         <v>-1000000</v>
       </c>
@@ -11758,7 +12121,7 @@
         <v>0.89442719099991597</v>
       </c>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="7">
         <v>-990000</v>
       </c>
@@ -11771,7 +12134,7 @@
         <v>0.89621243182482713</v>
       </c>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104" s="7">
         <v>-980000</v>
       </c>
@@ -11784,7 +12147,7 @@
         <v>0.89799030157751714</v>
       </c>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="7">
         <v>-970000</v>
       </c>
@@ -11797,7 +12160,7 @@
         <v>0.89976058306800866</v>
       </c>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106" s="7">
         <v>-960000</v>
       </c>
@@ -11810,7 +12173,7 @@
         <v>0.90152305746827344</v>
       </c>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="7">
         <v>-950000</v>
       </c>
@@ -11823,7 +12186,7 @@
         <v>0.90327750435428977</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="7">
         <v>-940000</v>
       </c>
@@ -11836,7 +12199,7 @@
         <v>0.90502370174983293</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="7">
         <v>-930000</v>
       </c>
@@ -11849,7 +12212,7 @@
         <v>0.90676142617201383</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="7">
         <v>-920000</v>
       </c>
@@ -11862,7 +12225,7 @@
         <v>0.90849045267857464</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" s="7">
         <v>-910000</v>
       </c>
@@ -11875,7 +12238,7 @@
         <v>0.91021055491695047</v>
       </c>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="7">
         <v>-900000</v>
       </c>
@@ -11888,7 +12251,7 @@
         <v>0.91192150517510628</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="7">
         <v>-890000</v>
       </c>
@@ -11901,7 +12264,7 @@
         <v>0.91362307443415613</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="7">
         <v>-880000</v>
       </c>
@@ -11914,7 +12277,7 @@
         <v>0.91531503242276557</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="7">
         <v>-870000</v>
       </c>
@@ -11927,7 +12290,7 @@
         <v>0.91699714767334572</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="7">
         <v>-860000</v>
       </c>
@@ -11940,7 +12303,7 @@
         <v>0.91866918758003568</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="7">
         <v>-850000</v>
       </c>
@@ -11953,7 +12316,7 @@
         <v>0.9203309184584747</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="7">
         <v>-840000</v>
       </c>
@@ -11966,7 +12329,7 @@
         <v>0.92198210560736127</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="7">
         <v>-830000</v>
       </c>
@@ -11979,7 +12342,7 @@
         <v>0.92362251337179635</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="7">
         <v>-820000</v>
       </c>
@@ -11992,7 +12355,7 @@
         <v>0.92525190520839939</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="7">
         <v>-810000</v>
       </c>
@@ -12005,7 +12368,7 @@
         <v>0.92687004375219584</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="7">
         <v>-800000</v>
       </c>
@@ -12018,7 +12381,7 @@
         <v>0.92847669088525941</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123" s="7">
         <v>-790000</v>
       </c>
@@ -12031,7 +12394,7 @@
         <v>0.93007160780709941</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124" s="7">
         <v>-780000</v>
       </c>
@@ -12044,7 +12407,7 @@
         <v>0.9316545551067793</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125" s="7">
         <v>-770000</v>
       </c>
@@ -12057,7 +12420,7 @@
         <v>0.93322529283674482</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126" s="7">
         <v>-760000</v>
       </c>
@@ -12070,7 +12433,7 @@
         <v>0.93478358058834887</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127" s="7">
         <v>-750000</v>
       </c>
@@ -12083,7 +12446,7 @@
         <v>0.93632917756904444</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128" s="7">
         <v>-740000</v>
       </c>
@@ -12096,7 +12459,7 @@
         <v>0.93786184268122774</v>
       </c>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129" s="7">
         <v>-730000</v>
       </c>
@@ -12109,7 +12472,7 @@
         <v>0.9393813346027009</v>
       </c>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D130" s="7">
         <v>-720000</v>
       </c>
@@ -12122,7 +12485,7 @@
         <v>0.94088741186872693</v>
       </c>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131" s="7">
         <v>-710000</v>
       </c>
@@ -12135,7 +12498,7 @@
         <v>0.94237983295564554</v>
       </c>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132" s="7">
         <v>-700000</v>
       </c>
@@ -12148,7 +12511,7 @@
         <v>0.94385835636601745</v>
       </c>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133" s="7">
         <v>-690000</v>
       </c>
@@ -12161,7 +12524,7 @@
         <v>0.94532274071525557</v>
       </c>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134" s="7">
         <v>-680000</v>
       </c>
@@ -12174,7 +12537,7 @@
         <v>0.94677274481971263</v>
       </c>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135" s="7">
         <v>-670000</v>
       </c>
@@ -12187,7 +12550,7 @@
         <v>0.94820812778617658</v>
       </c>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136" s="7">
         <v>-660000</v>
       </c>
@@ -12200,7 +12563,7 @@
         <v>0.94962864910273292</v>
       </c>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137" s="7">
         <v>-650000</v>
       </c>
@@ -12213,7 +12576,7 @@
         <v>0.95103406873094809</v>
       </c>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138" s="7">
         <v>-640000</v>
       </c>
@@ -12226,7 +12589,7 @@
         <v>0.95242414719932422</v>
       </c>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139" s="7">
         <v>-630000</v>
       </c>
@@ -12239,7 +12602,7 @@
         <v>0.95379864569797246</v>
       </c>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140" s="7">
         <v>-620000</v>
       </c>
@@ -12252,7 +12615,7 @@
         <v>0.95515732617445348</v>
       </c>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141" s="7">
         <v>-610000</v>
       </c>
@@ -12265,7 +12628,7 @@
         <v>0.95649995143072719</v>
       </c>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142" s="7">
         <v>-600000</v>
       </c>
@@ -12278,7 +12641,7 @@
         <v>0.95782628522115143</v>
       </c>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143" s="7">
         <v>-590000</v>
       </c>
@@ -12291,7 +12654,7 @@
         <v>0.95913609235147124</v>
       </c>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144" s="7">
         <v>-580000</v>
       </c>
@@ -12304,7 +12667,7 @@
         <v>0.96042913877873193</v>
       </c>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" s="7">
         <v>-570000</v>
       </c>
@@ -12317,7 +12680,7 @@
         <v>0.96170519171205149</v>
       </c>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D146" s="7">
         <v>-560000</v>
       </c>
@@ -12330,7 +12693,7 @@
         <v>0.96296401971418177</v>
       </c>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D147" s="7">
         <v>-550000</v>
       </c>
@@ -12343,7 +12706,7 @@
         <v>0.96420539280379036</v>
       </c>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148" s="7">
         <v>-540000</v>
       </c>
@@ -12356,7 +12719,7 @@
         <v>0.96542908255838722</v>
       </c>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D149" s="7">
         <v>-530000</v>
       </c>
@@ -12369,7 +12732,7 @@
         <v>0.96663486221782158</v>
       </c>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D150" s="7">
         <v>-520000</v>
       </c>
@@ -12382,7 +12745,7 @@
         <v>0.96782250678827197</v>
       </c>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D151" s="7">
         <v>-510000</v>
       </c>
@@ -12395,7 +12758,7 @@
         <v>0.9689917931466494</v>
       </c>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D152" s="7">
         <v>-500000</v>
       </c>
@@ -12408,7 +12771,7 @@
         <v>0.97014250014533188</v>
       </c>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D153" s="7">
         <v>-490000</v>
       </c>
@@ -12421,7 +12784,7 @@
         <v>0.9712744087171471</v>
       </c>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D154" s="7">
         <v>-480000</v>
       </c>
@@ -12434,7 +12797,7 @@
         <v>0.97238730198051748</v>
       </c>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D155" s="7">
         <v>-470000</v>
       </c>
@@ -12447,7 +12810,7 @@
         <v>0.9734809653446812</v>
       </c>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D156" s="7">
         <v>-460000</v>
       </c>
@@ -12460,7 +12823,7 @@
         <v>0.97455518661489948</v>
       </c>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D157" s="7">
         <v>-450000</v>
       </c>
@@ -12473,7 +12836,7 @@
         <v>0.97560975609756095</v>
       </c>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D158" s="7">
         <v>-440000</v>
       </c>
@@ -12486,7 +12849,7 @@
         <v>0.97664446670508998</v>
       </c>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D159" s="7">
         <v>-430000</v>
       </c>
@@ -12499,7 +12862,7 @@
         <v>0.97765911406056782</v>
       </c>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D160" s="7">
         <v>-420000</v>
       </c>
@@ -12512,7 +12875,7 @@
         <v>0.97865349660197065</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="7">
         <v>-410000</v>
       </c>
@@ -12525,7 +12888,7 @@
         <v>0.97962741568593015</v>
       </c>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="7">
         <v>-400000</v>
       </c>
@@ -12538,7 +12901,7 @@
         <v>0.98058067569092022</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="7">
         <v>-390000</v>
       </c>
@@ -12551,7 +12914,7 @@
         <v>0.98151308411977223</v>
       </c>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="7">
         <v>-380000</v>
       </c>
@@ -12564,7 +12927,7 @@
         <v>0.98242445170142201</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" s="7">
         <v>-370000</v>
       </c>
@@ -12577,7 +12940,7 @@
         <v>0.9833145924917901</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166" s="7">
         <v>-360000</v>
       </c>
@@ -12590,7 +12953,7 @@
         <v>0.98418332397369523</v>
       </c>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167" s="7">
         <v>-350000</v>
       </c>
@@ -12603,7 +12966,7 @@
         <v>0.98503046715570419</v>
       </c>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168" s="7">
         <v>-340000</v>
       </c>
@@ -12616,7 +12979,7 @@
         <v>0.9858558466698174</v>
       </c>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D169" s="7">
         <v>-330000</v>
       </c>
@@ -12629,7 +12992,7 @@
         <v>0.98665929086789239</v>
       </c>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D170" s="7">
         <v>-320000</v>
       </c>
@@ -12642,7 +13005,7 @@
         <v>0.98744063191670539</v>
       </c>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D171" s="7">
         <v>-310000</v>
       </c>
@@ -12655,7 +13018,7 @@
         <v>0.98819970589155315</v>
       </c>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D172" s="7">
         <v>-300000</v>
       </c>
@@ -12668,7 +13031,7 @@
         <v>0.98893635286829751</v>
       </c>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D173" s="7">
         <v>-290000</v>
       </c>
@@ -12681,7 +13044,7 @@
         <v>0.989650417013754</v>
       </c>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D174" s="7">
         <v>-280000</v>
       </c>
@@ -12694,7 +13057,7 @@
         <v>0.99034174667433017</v>
       </c>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D175" s="7">
         <v>-270000</v>
       </c>
@@ -12707,7 +13070,7 @@
         <v>0.99101019446281668</v>
       </c>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D176" s="7">
         <v>-260000</v>
       </c>
@@ -12720,7 +13083,7 @@
         <v>0.99165561734323782</v>
       </c>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D177" s="7">
         <v>-250000</v>
       </c>
@@ -12733,7 +13096,7 @@
         <v>0.99227787671366763</v>
       </c>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D178" s="7">
         <v>-240000</v>
       </c>
@@ -12746,7 +13109,7 @@
         <v>0.9928768384869221</v>
       </c>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D179" s="7">
         <v>-230000</v>
       </c>
@@ -12759,7 +13122,7 @@
         <v>0.99345237316903501</v>
       </c>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D180" s="7">
         <v>-220000</v>
       </c>
@@ -12772,7 +13135,7 @@
         <v>0.9940043559354329</v>
       </c>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D181" s="7">
         <v>-210000</v>
       </c>
@@ -12785,7 +13148,7 @@
         <v>0.99453266670471951</v>
       </c>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D182" s="7">
         <v>-200000</v>
       </c>
@@ -12798,7 +13161,7 @@
         <v>0.99503719020998915</v>
       </c>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D183" s="7">
         <v>-190000</v>
       </c>
@@ -12811,7 +13174,7 @@
         <v>0.99551781606758583</v>
       </c>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D184" s="7">
         <v>-180000</v>
       </c>
@@ -12824,7 +13187,7 @@
         <v>0.99597443884322878</v>
       </c>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D185" s="7">
         <v>-170000</v>
       </c>
@@ -12837,7 +13200,7 @@
         <v>0.99640695811542956</v>
       </c>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D186" s="7">
         <v>-160000</v>
       </c>
@@ -12850,7 +13213,7 @@
         <v>0.99681527853612506</v>
       </c>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D187" s="7">
         <v>-150000</v>
       </c>
@@ -12863,7 +13226,7 @@
         <v>0.9971993098884564</v>
       </c>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D188" s="7">
         <v>-140000</v>
       </c>
@@ -12876,7 +13239,7 @@
         <v>0.99755896714162673</v>
       </c>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D189" s="7">
         <v>-130000</v>
       </c>
@@ -12889,7 +13252,7 @@
         <v>0.99789417050277107</v>
       </c>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D190" s="7">
         <v>-120000</v>
       </c>
@@ -12902,7 +13265,7 @@
         <v>0.9982048454657787</v>
       </c>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D191" s="7">
         <v>-110000</v>
       </c>
@@ -12915,7 +13278,7 @@
         <v>0.99849092285700869</v>
       </c>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D192" s="7">
         <v>-100000</v>
       </c>
@@ -12928,7 +13291,7 @@
         <v>0.99875233887784465</v>
       </c>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D193" s="7">
         <v>-90000</v>
       </c>
@@ -12941,7 +13304,7 @@
         <v>0.99898903514403781</v>
       </c>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D194" s="7">
         <v>-80000</v>
       </c>
@@ -12954,7 +13317,7 @@
         <v>0.99920095872178949</v>
       </c>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D195" s="7">
         <v>-70000</v>
       </c>
@@ -12967,7 +13330,7 @@
         <v>0.999388062160532</v>
       </c>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D196" s="7">
         <v>-60000</v>
       </c>
@@ -12980,7 +13343,7 @@
         <v>0.99955030352236685</v>
       </c>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D197" s="7">
         <v>-50000</v>
       </c>
@@ -12993,7 +13356,7 @@
         <v>0.99968764640812269</v>
       </c>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198" s="7">
         <v>-40000</v>
       </c>
@@ -13006,7 +13369,7 @@
         <v>0.99980005998000698</v>
       </c>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D199" s="7">
         <v>-30000</v>
       </c>
@@ -13019,7 +13382,7 @@
         <v>0.99988751898081607</v>
       </c>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D200" s="7">
         <v>-20000</v>
       </c>
@@ -13032,7 +13395,7 @@
         <v>0.99995000374968745</v>
       </c>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D201" s="7">
         <v>-10000</v>
       </c>
@@ -13045,7 +13408,7 @@
         <v>0.99998750023437011</v>
       </c>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D202" s="7">
         <v>0</v>
       </c>
@@ -13058,7 +13421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D203" s="7">
         <v>10000</v>
       </c>
@@ -13071,7 +13434,7 @@
         <v>0.99998750023437011</v>
       </c>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D204" s="7">
         <v>20000</v>
       </c>
@@ -13084,7 +13447,7 @@
         <v>0.99995000374968745</v>
       </c>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D205" s="7">
         <v>30000</v>
       </c>
@@ -13097,7 +13460,7 @@
         <v>0.99988751898081607</v>
       </c>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D206" s="7">
         <v>40000</v>
       </c>
@@ -13110,7 +13473,7 @@
         <v>0.99980005998000698</v>
       </c>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D207" s="7">
         <v>50000</v>
       </c>
@@ -13123,7 +13486,7 @@
         <v>0.99968764640812269</v>
       </c>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D208" s="7">
         <v>60000</v>
       </c>
@@ -13136,7 +13499,7 @@
         <v>0.99955030352236685</v>
       </c>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D209" s="7">
         <v>70000</v>
       </c>
@@ -13149,7 +13512,7 @@
         <v>0.999388062160532</v>
       </c>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D210" s="7">
         <v>80000</v>
       </c>
@@ -13162,7 +13525,7 @@
         <v>0.99920095872178949</v>
       </c>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D211" s="7">
         <v>90000</v>
       </c>
@@ -13175,7 +13538,7 @@
         <v>0.99898903514403781</v>
       </c>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D212" s="7">
         <v>100000</v>
       </c>
@@ -13188,7 +13551,7 @@
         <v>0.99875233887784465</v>
       </c>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D213" s="7">
         <v>110000</v>
       </c>
@@ -13201,7 +13564,7 @@
         <v>0.99849092285700869</v>
       </c>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D214" s="7">
         <v>120000</v>
       </c>
@@ -13214,7 +13577,7 @@
         <v>0.9982048454657787</v>
       </c>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215" s="7">
         <v>130000</v>
       </c>
@@ -13227,7 +13590,7 @@
         <v>0.99789417050277107</v>
       </c>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D216" s="7">
         <v>140000</v>
       </c>
@@ -13240,7 +13603,7 @@
         <v>0.99755896714162673</v>
       </c>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D217" s="7">
         <v>150000</v>
       </c>
@@ -13253,7 +13616,7 @@
         <v>0.9971993098884564</v>
       </c>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D218" s="7">
         <v>160000</v>
       </c>
@@ -13266,7 +13629,7 @@
         <v>0.99681527853612506</v>
       </c>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D219" s="7">
         <v>170000</v>
       </c>
@@ -13279,7 +13642,7 @@
         <v>0.99640695811542956</v>
       </c>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D220" s="7">
         <v>180000</v>
       </c>
@@ -13292,7 +13655,7 @@
         <v>0.99597443884322878</v>
       </c>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D221" s="7">
         <v>190000</v>
       </c>
@@ -13305,7 +13668,7 @@
         <v>0.99551781606758583</v>
       </c>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D222" s="7">
         <v>200000</v>
       </c>
@@ -13318,7 +13681,7 @@
         <v>0.99503719020998915</v>
       </c>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D223" s="7">
         <v>210000</v>
       </c>
@@ -13331,7 +13694,7 @@
         <v>0.99453266670471951</v>
       </c>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D224" s="7">
         <v>220000</v>
       </c>
@@ -13344,7 +13707,7 @@
         <v>0.9940043559354329</v>
       </c>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D225" s="7">
         <v>230000</v>
       </c>
@@ -13357,7 +13720,7 @@
         <v>0.99345237316903501</v>
       </c>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D226" s="7">
         <v>240000</v>
       </c>
@@ -13370,7 +13733,7 @@
         <v>0.9928768384869221</v>
       </c>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D227" s="7">
         <v>250000</v>
       </c>
@@ -13383,7 +13746,7 @@
         <v>0.99227787671366763</v>
       </c>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D228" s="7">
         <v>260000</v>
       </c>
@@ -13396,7 +13759,7 @@
         <v>0.99165561734323782</v>
       </c>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D229" s="7">
         <v>270000</v>
       </c>
@@ -13409,7 +13772,7 @@
         <v>0.99101019446281668</v>
       </c>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D230" s="7">
         <v>280000</v>
       </c>
@@ -13422,7 +13785,7 @@
         <v>0.99034174667433017</v>
       </c>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D231" s="7">
         <v>290000</v>
       </c>
@@ -13435,7 +13798,7 @@
         <v>0.989650417013754</v>
       </c>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D232" s="7">
         <v>300000</v>
       </c>
@@ -13448,7 +13811,7 @@
         <v>0.98893635286829751</v>
       </c>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D233" s="7">
         <v>310000</v>
       </c>
@@ -13461,7 +13824,7 @@
         <v>0.98819970589155315</v>
       </c>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D234" s="7">
         <v>320000</v>
       </c>
@@ -13474,7 +13837,7 @@
         <v>0.98744063191670539</v>
       </c>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D235" s="7">
         <v>330000</v>
       </c>
@@ -13487,7 +13850,7 @@
         <v>0.98665929086789239</v>
       </c>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D236" s="7">
         <v>340000</v>
       </c>
@@ -13500,7 +13863,7 @@
         <v>0.9858558466698174</v>
       </c>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D237" s="7">
         <v>350000</v>
       </c>
@@ -13513,7 +13876,7 @@
         <v>0.98503046715570419</v>
       </c>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D238" s="7">
         <v>360000</v>
       </c>
@@ -13526,7 +13889,7 @@
         <v>0.98418332397369523</v>
       </c>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D239" s="7">
         <v>370000</v>
       </c>
@@ -13539,7 +13902,7 @@
         <v>0.9833145924917901</v>
       </c>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D240" s="7">
         <v>380000</v>
       </c>
@@ -13552,7 +13915,7 @@
         <v>0.98242445170142201</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" s="7">
         <v>390000</v>
       </c>
@@ -13565,7 +13928,7 @@
         <v>0.98151308411977223</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" s="7">
         <v>400000</v>
       </c>
@@ -13578,7 +13941,7 @@
         <v>0.98058067569092022</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" s="7">
         <v>410000</v>
       </c>
@@ -13591,7 +13954,7 @@
         <v>0.97962741568593015</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" s="7">
         <v>420000</v>
       </c>
@@ -13604,7 +13967,7 @@
         <v>0.97865349660197065</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" s="7">
         <v>430000</v>
       </c>
@@ -13617,7 +13980,7 @@
         <v>0.97765911406056782</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" s="7">
         <v>440000</v>
       </c>
@@ -13630,7 +13993,7 @@
         <v>0.97664446670508998</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" s="7">
         <v>450000</v>
       </c>
@@ -13643,7 +14006,7 @@
         <v>0.97560975609756095</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" s="7">
         <v>460000</v>
       </c>
@@ -13656,7 +14019,7 @@
         <v>0.97455518661489948</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" s="7">
         <v>470000</v>
       </c>
@@ -13669,7 +14032,7 @@
         <v>0.9734809653446812</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" s="7">
         <v>480000</v>
       </c>
@@ -13682,7 +14045,7 @@
         <v>0.97238730198051748</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" s="7">
         <v>490000</v>
       </c>
@@ -13695,7 +14058,7 @@
         <v>0.9712744087171471</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" s="7">
         <v>500000</v>
       </c>
@@ -13708,7 +14071,7 @@
         <v>0.97014250014533188</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" s="7">
         <v>510000</v>
       </c>
@@ -13721,7 +14084,7 @@
         <v>0.9689917931466494</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" s="7">
         <v>520000</v>
       </c>
@@ -13734,7 +14097,7 @@
         <v>0.96782250678827197</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" s="7">
         <v>530000</v>
       </c>
@@ -13747,7 +14110,7 @@
         <v>0.96663486221782158</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" s="7">
         <v>540000</v>
       </c>
@@ -13760,7 +14123,7 @@
         <v>0.96542908255838722</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D257" s="7">
         <v>550000</v>
       </c>
@@ -13773,7 +14136,7 @@
         <v>0.96420539280379036</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D258" s="7">
         <v>560000</v>
       </c>
@@ -13786,7 +14149,7 @@
         <v>0.96296401971418177</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D259" s="7">
         <v>570000</v>
       </c>
@@ -13799,7 +14162,7 @@
         <v>0.96170519171205149</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260" s="7">
         <v>580000</v>
       </c>
@@ -13812,7 +14175,7 @@
         <v>0.96042913877873193</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D261" s="7">
         <v>590000</v>
       </c>
@@ -13825,7 +14188,7 @@
         <v>0.95913609235147124</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D262" s="7">
         <v>600000</v>
       </c>
@@ -13838,7 +14201,7 @@
         <v>0.95782628522115143</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D263" s="7">
         <v>610000</v>
       </c>
@@ -13851,7 +14214,7 @@
         <v>0.95649995143072719</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D264" s="7">
         <v>620000</v>
       </c>
@@ -13864,7 +14227,7 @@
         <v>0.95515732617445348</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D265" s="7">
         <v>630000</v>
       </c>
@@ -13877,7 +14240,7 @@
         <v>0.95379864569797246</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D266" s="7">
         <v>640000</v>
       </c>
@@ -13890,7 +14253,7 @@
         <v>0.95242414719932422</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D267" s="7">
         <v>650000</v>
       </c>
@@ -13903,7 +14266,7 @@
         <v>0.95103406873094809</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D268" s="7">
         <v>660000</v>
       </c>
@@ -13916,7 +14279,7 @@
         <v>0.94962864910273292</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D269" s="7">
         <v>670000</v>
       </c>
@@ -13929,7 +14292,7 @@
         <v>0.94820812778617658</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D270" s="7">
         <v>680000</v>
       </c>
@@ -13942,7 +14305,7 @@
         <v>0.94677274481971263</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D271" s="7">
         <v>690000</v>
       </c>
@@ -13955,7 +14318,7 @@
         <v>0.94532274071525557</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D272" s="7">
         <v>700000</v>
       </c>
@@ -13968,7 +14331,7 @@
         <v>0.94385835636601745</v>
       </c>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D273" s="7">
         <v>710000</v>
       </c>
@@ -13981,7 +14344,7 @@
         <v>0.94237983295564554</v>
       </c>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D274" s="7">
         <v>720000</v>
       </c>
@@ -13994,7 +14357,7 @@
         <v>0.94088741186872693</v>
       </c>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D275" s="7">
         <v>730000</v>
       </c>
@@ -14007,7 +14370,7 @@
         <v>0.9393813346027009</v>
       </c>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D276" s="7">
         <v>740000</v>
       </c>
@@ -14020,7 +14383,7 @@
         <v>0.93786184268122774</v>
       </c>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D277" s="7">
         <v>750000</v>
       </c>
@@ -14033,7 +14396,7 @@
         <v>0.93632917756904444</v>
       </c>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D278" s="7">
         <v>760000</v>
       </c>
@@ -14046,7 +14409,7 @@
         <v>0.93478358058834887</v>
       </c>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D279" s="7">
         <v>770000</v>
       </c>
@@ -14059,7 +14422,7 @@
         <v>0.93322529283674482</v>
       </c>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D280" s="7">
         <v>780000</v>
       </c>
@@ -14072,7 +14435,7 @@
         <v>0.9316545551067793</v>
       </c>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D281" s="7">
         <v>790000</v>
       </c>
@@ -14085,7 +14448,7 @@
         <v>0.93007160780709941</v>
       </c>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D282" s="7">
         <v>800000</v>
       </c>
@@ -14098,7 +14461,7 @@
         <v>0.92847669088525941</v>
       </c>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D283" s="7">
         <v>810000</v>
       </c>
@@ -14111,7 +14474,7 @@
         <v>0.92687004375219584</v>
       </c>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D284" s="7">
         <v>820000</v>
       </c>
@@ -14124,7 +14487,7 @@
         <v>0.92525190520839939</v>
       </c>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D285" s="7">
         <v>830000</v>
       </c>
@@ -14137,7 +14500,7 @@
         <v>0.92362251337179635</v>
       </c>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D286" s="7">
         <v>840000</v>
       </c>
@@ -14150,7 +14513,7 @@
         <v>0.92198210560736127</v>
       </c>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D287" s="7">
         <v>850000</v>
       </c>
@@ -14163,7 +14526,7 @@
         <v>0.9203309184584747</v>
       </c>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D288" s="7">
         <v>860000</v>
       </c>
@@ -14176,7 +14539,7 @@
         <v>0.91866918758003568</v>
       </c>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="7">
         <v>870000</v>
       </c>
@@ -14189,7 +14552,7 @@
         <v>0.91699714767334572</v>
       </c>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="7">
         <v>880000</v>
       </c>
@@ -14202,7 +14565,7 @@
         <v>0.91531503242276557</v>
       </c>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="7">
         <v>890000</v>
       </c>
@@ -14215,7 +14578,7 @@
         <v>0.91362307443415613</v>
       </c>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="7">
         <v>900000</v>
       </c>
@@ -14228,7 +14591,7 @@
         <v>0.91192150517510628</v>
       </c>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="7">
         <v>910000</v>
       </c>
@@ -14241,7 +14604,7 @@
         <v>0.91021055491695047</v>
       </c>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="7">
         <v>920000</v>
       </c>
@@ -14254,7 +14617,7 @@
         <v>0.90849045267857464</v>
       </c>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="7">
         <v>930000</v>
       </c>
@@ -14267,7 +14630,7 @@
         <v>0.90676142617201383</v>
       </c>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="7">
         <v>940000</v>
       </c>
@@ -14280,7 +14643,7 @@
         <v>0.90502370174983293</v>
       </c>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="7">
         <v>950000</v>
       </c>
@@ -14293,7 +14656,7 @@
         <v>0.90327750435428977</v>
       </c>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298" s="7">
         <v>960000</v>
       </c>
@@ -14306,7 +14669,7 @@
         <v>0.90152305746827344</v>
       </c>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299" s="7">
         <v>970000</v>
       </c>
@@ -14319,7 +14682,7 @@
         <v>0.89976058306800866</v>
       </c>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D300" s="7">
         <v>980000</v>
       </c>
@@ -14332,7 +14695,7 @@
         <v>0.89799030157751714</v>
       </c>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D301" s="7">
         <v>990000</v>
       </c>
@@ -14345,7 +14708,7 @@
         <v>0.89621243182482713</v>
       </c>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D302" s="7">
         <v>1000000</v>
       </c>
@@ -14358,7 +14721,7 @@
         <v>0.89442719099991597</v>
       </c>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D303" s="7">
         <v>1010000</v>
       </c>
@@ -14371,7 +14734,7 @@
         <v>0.89263479461437301</v>
       </c>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D304" s="7">
         <v>1020000</v>
       </c>
@@ -14384,7 +14747,7 @@
         <v>0.89083545646276951</v>
       </c>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D305" s="7">
         <v>1030000</v>
       </c>
@@ -14397,7 +14760,7 @@
         <v>0.88902938858571634</v>
       </c>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D306" s="7">
         <v>1040000</v>
       </c>
@@ -14410,7 +14773,7 @@
         <v>0.88721680123459523</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D307" s="7">
         <v>1050000</v>
       </c>
@@ -14423,7 +14786,7 @@
         <v>0.88539790283794351</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D308" s="7">
         <v>1060000</v>
       </c>
@@ -14436,7 +14799,7 @@
         <v>0.88357289996947352</v>
       </c>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309" s="7">
         <v>1070000</v>
       </c>
@@ -14449,7 +14812,7 @@
         <v>0.88174199731770531</v>
       </c>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D310" s="7">
         <v>1080000</v>
       </c>
@@ -14462,7 +14825,7 @@
         <v>0.87990539765719245</v>
       </c>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D311" s="7">
         <v>1090000</v>
       </c>
@@ -14475,7 +14838,7 @@
         <v>0.87806330182131986</v>
       </c>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D312" s="7">
         <v>1100000</v>
       </c>
@@ -14488,7 +14851,7 @@
         <v>0.876215908676647</v>
       </c>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D313" s="7">
         <v>1110000</v>
       </c>
@@ -14501,7 +14864,7 @@
         <v>0.87436341509877602</v>
       </c>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D314" s="7">
         <v>1120000</v>
       </c>
@@ -14514,7 +14877,7 @@
         <v>0.87250601594971999</v>
       </c>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D315" s="7">
         <v>1130000</v>
       </c>
@@ -14527,7 +14890,7 @@
         <v>0.87064390405674497</v>
       </c>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D316" s="7">
         <v>1140000</v>
       </c>
@@ -14540,7 +14903,7 @@
         <v>0.86877727019266082</v>
       </c>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D317" s="7">
         <v>1150000</v>
       </c>
@@ -14553,7 +14916,7 @@
         <v>0.86690630305753513</v>
       </c>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D318" s="7">
         <v>1160000</v>
       </c>
@@ -14566,7 +14929,7 @@
         <v>0.86503118926180333</v>
       </c>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D319" s="7">
         <v>1170000</v>
       </c>
@@ -14579,7 +14942,7 @@
         <v>0.86315211331074715</v>
       </c>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D320" s="7">
         <v>1180000</v>
       </c>
@@ -14592,7 +14955,7 @@
         <v>0.86126925759031525</v>
       </c>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D321" s="7">
         <v>1190000</v>
       </c>
@@ -14605,7 +14968,7 @@
         <v>0.85938280235425735</v>
       </c>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D322" s="7">
         <v>1200000</v>
       </c>
@@ -14618,7 +14981,7 @@
         <v>0.85749292571254421</v>
       </c>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323" s="7">
         <v>1210000</v>
       </c>
@@ -14631,7 +14994,7 @@
         <v>0.85559980362104437</v>
       </c>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D324" s="7">
         <v>1220000</v>
       </c>
@@ -14644,7 +15007,7 @@
         <v>0.85370360987243077</v>
       </c>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D325" s="7">
         <v>1230000</v>
       </c>
@@ -14657,7 +15020,7 @@
         <v>0.85180451608828589</v>
       </c>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D326" s="7">
         <v>1240000</v>
       </c>
@@ -14670,7 +15033,7 @@
         <v>0.84990269171237953</v>
       </c>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327" s="7">
         <v>1250000</v>
       </c>
@@ -14683,7 +15046,7 @@
         <v>0.84799830400508802</v>
       </c>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D328" s="7">
         <v>1260000</v>
       </c>
@@ -14696,7 +15059,7 @@
         <v>0.8460915180389269</v>
       </c>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D329" s="7">
         <v>1270000</v>
       </c>
@@ -14709,7 +15072,7 @@
         <v>0.84418249669516798</v>
       </c>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D330" s="7">
         <v>1280000</v>
       </c>
@@ -14722,7 +15085,7 @@
         <v>0.84227140066151129</v>
       </c>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D331" s="7">
         <v>1290000</v>
       </c>
@@ -14735,7 +15098,7 @@
         <v>0.84035838843078425</v>
       </c>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D332" s="7">
         <v>1300000</v>
       </c>
@@ -14748,7 +15111,7 @@
         <v>0.83844361630063702</v>
       </c>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D333" s="7">
         <v>1310000</v>
       </c>
@@ -14761,7 +15124,7 @@
         <v>0.83652723837420739</v>
       </c>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D334" s="7">
         <v>1320000</v>
       </c>
@@ -14774,7 +15137,7 @@
         <v>0.83460940656172522</v>
       </c>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D335" s="7">
         <v>1330000</v>
       </c>
@@ -14787,7 +15150,7 @@
         <v>0.83269027058302947</v>
       </c>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D336" s="7">
         <v>1340000</v>
       </c>
@@ -14800,7 +15163,7 @@
         <v>0.83076997797096708</v>
       </c>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D337" s="7">
         <v>1350000</v>
       </c>
@@ -14813,7 +15176,7 @@
         <v>0.82884867407564811</v>
       </c>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D338" s="7">
         <v>1360000</v>
       </c>
@@ -14826,7 +15189,7 @@
         <v>0.82692650206952811</v>
       </c>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D339" s="7">
         <v>1370000</v>
       </c>
@@ -14839,7 +15202,7 @@
         <v>0.82500360295328967</v>
       </c>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D340" s="7">
         <v>1380000</v>
       </c>
@@ -14852,7 +15215,7 @@
         <v>0.82308011556249749</v>
       </c>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D341" s="7">
         <v>1390000</v>
       </c>
@@ -14865,7 +15228,7 @@
         <v>0.82115617657499851</v>
       </c>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D342" s="7">
         <v>1400000</v>
       </c>
@@ -14878,7 +15241,7 @@
         <v>0.81923192051904037</v>
       </c>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D343" s="7">
         <v>1410000</v>
       </c>
@@ -14891,7 +15254,7 @@
         <v>0.81730747978208329</v>
       </c>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D344" s="7">
         <v>1420000</v>
       </c>
@@ -14904,7 +15267,7 @@
         <v>0.81538298462027692</v>
       </c>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D345" s="7">
         <v>1430000</v>
       </c>
@@ -14917,7 +15280,7 @@
         <v>0.81345856316858023</v>
       </c>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D346" s="7">
         <v>1440000</v>
       </c>
@@ -14930,7 +15293,7 @@
         <v>0.81153434145149439</v>
       </c>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D347" s="7">
         <v>1450000</v>
       </c>
@@ -14943,7 +15306,7 @@
         <v>0.80961044339438759</v>
       </c>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D348" s="7">
         <v>1460000</v>
       </c>
@@ -14956,7 +15319,7 @@
         <v>0.80768699083538564</v>
       </c>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D349" s="7">
         <v>1470000</v>
       </c>
@@ -14969,7 +15332,7 @@
         <v>0.8057641035378047</v>
       </c>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D350" s="7">
         <v>1480000</v>
       </c>
@@ -14982,7 +15345,7 @@
         <v>0.8038418992031009</v>
       </c>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D351" s="7">
         <v>1490000</v>
       </c>
@@ -14995,7 +15358,7 @@
         <v>0.80192049348431715</v>
       </c>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D352" s="7">
         <v>1500000</v>
       </c>
@@ -15008,7 +15371,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D353" s="7">
         <v>1510000</v>
       </c>
@@ -15021,7 +15384,7 @@
         <v>0.79808053034856719</v>
       </c>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D354" s="7">
         <v>1520000</v>
       </c>
@@ -15034,7 +15397,7 @@
         <v>0.79616219412310241</v>
       </c>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D355" s="7">
         <v>1530000</v>
       </c>
@@ -15047,7 +15410,7 @@
         <v>0.79424509892655693</v>
       </c>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D356" s="7">
         <v>1540000</v>
       </c>
@@ -15060,7 +15423,7 @@
         <v>0.79232935038733465</v>
       </c>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D357" s="7">
         <v>1550000</v>
       </c>
@@ -15073,7 +15436,7 @@
         <v>0.79041505217524377</v>
       </c>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D358" s="7">
         <v>1560000</v>
       </c>
@@ -15086,7 +15449,7 @@
         <v>0.78850230601779103</v>
       </c>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D359" s="7">
         <v>1570000</v>
       </c>
@@ -15099,7 +15462,7 @@
         <v>0.78659121171680135</v>
       </c>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D360" s="7">
         <v>1580000</v>
       </c>
@@ -15112,7 +15475,7 @@
         <v>0.78468186716534216</v>
       </c>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D361" s="7">
         <v>1590000</v>
       </c>
@@ -15125,7 +15488,7 @@
         <v>0.78277436836493386</v>
       </c>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D362" s="7">
         <v>1600000</v>
       </c>
@@ -15138,7 +15501,7 @@
         <v>0.78086880944303028</v>
       </c>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D363" s="7">
         <v>1610000</v>
       </c>
@@ -15151,7 +15514,7 @@
         <v>0.77896528267074683</v>
       </c>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D364" s="7">
         <v>1620000</v>
       </c>
@@ -15164,7 +15527,7 @@
         <v>0.77706387848082314</v>
       </c>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D365" s="7">
         <v>1630000</v>
       </c>
@@ -15177,7 +15540,7 @@
         <v>0.7751646854858002</v>
       </c>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D366" s="7">
         <v>1640000</v>
       </c>
@@ -15190,7 +15553,7 @@
         <v>0.77326779049639849</v>
       </c>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D367" s="7">
         <v>1650000</v>
       </c>
@@ -15203,7 +15566,7 @@
         <v>0.7713732785400772</v>
       </c>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D368" s="7">
         <v>1660000</v>
       </c>
@@ -15216,7 +15579,7 @@
         <v>0.76948123287976256</v>
       </c>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D369" s="7">
         <v>1670000</v>
       </c>
@@ -15229,7 +15592,7 @@
         <v>0.76759173503272804</v>
       </c>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D370" s="7">
         <v>1680000</v>
       </c>
@@ -15242,7 +15605,7 @@
         <v>0.76570486478961108</v>
       </c>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D371" s="7">
         <v>1690000</v>
       </c>
@@ -15255,7 +15618,7 @@
         <v>0.76382070023355519</v>
       </c>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D372" s="7">
         <v>1700000</v>
       </c>
@@ -15268,7 +15631,7 @@
         <v>0.76193931775945933</v>
       </c>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D373" s="7">
         <v>1710000</v>
       </c>
@@ -15281,7 +15644,7 @@
         <v>0.76006079209332467</v>
       </c>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D374" s="7">
         <v>1720000</v>
       </c>
@@ -15294,7 +15657,7 @@
         <v>0.75818519631168302</v>
       </c>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D375" s="7">
         <v>1730000</v>
       </c>
@@ -15307,7 +15670,7 @@
         <v>0.7563126018610965</v>
       </c>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D376" s="7">
         <v>1740000</v>
       </c>
@@ -15320,7 +15683,7 @@
         <v>0.75444307857771475</v>
       </c>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D377" s="7">
         <v>1750000</v>
       </c>
@@ -15333,7 +15696,7 @@
         <v>0.75257669470687794</v>
       </c>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D378" s="7">
         <v>1760000</v>
       </c>
@@ -15346,7 +15709,7 @@
         <v>0.75071351692275534</v>
       </c>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D379" s="7">
         <v>1770000</v>
       </c>
@@ -15359,7 +15722,7 @@
         <v>0.74885361034800746</v>
       </c>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D380" s="7">
         <v>1780000</v>
       </c>
@@ -15372,7 +15735,7 @@
         <v>0.74699703857346067</v>
       </c>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D381" s="7">
         <v>1790000</v>
       </c>
@@ -15385,7 +15748,7 @@
         <v>0.74514386367778529</v>
       </c>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D382" s="7">
         <v>1800000</v>
       </c>
@@ -15398,7 +15761,7 @@
         <v>0.74329414624716628</v>
       </c>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D383" s="7">
         <v>1810000</v>
       </c>
@@ -15411,7 +15774,7 @@
         <v>0.74144794539495829</v>
       </c>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D384" s="7">
         <v>1820000</v>
       </c>
@@ -15424,7 +15787,7 @@
         <v>0.73960531878131319</v>
       </c>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385" s="7">
         <v>1830000</v>
       </c>
@@ -15437,7 +15800,7 @@
         <v>0.73776632263277464</v>
       </c>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386" s="7">
         <v>1840000</v>
       </c>
@@ -15450,7 +15813,7 @@
         <v>0.73593101176182962</v>
       </c>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387" s="7">
         <v>1850000</v>
       </c>
@@ -15463,7 +15826,7 @@
         <v>0.73409943958640766</v>
       </c>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388" s="7">
         <v>1860000</v>
       </c>
@@ -15476,7 +15839,7 @@
         <v>0.73227165814932205</v>
       </c>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389" s="7">
         <v>1870000</v>
       </c>
@@ -15489,7 +15852,7 @@
         <v>0.73044771813764475</v>
       </c>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390" s="7">
         <v>1880000</v>
       </c>
@@ -15502,7 +15865,7 @@
         <v>0.72862766890200725</v>
       </c>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391" s="7">
         <v>1890000</v>
       </c>
@@ -15515,7 +15878,7 @@
         <v>0.72681155847582168</v>
       </c>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392" s="7">
         <v>1900000</v>
       </c>
@@ -15528,7 +15891,7 @@
         <v>0.72499943359441377</v>
       </c>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393" s="7">
         <v>1910000</v>
       </c>
@@ -15541,7 +15904,7 @@
         <v>0.72319133971406457</v>
       </c>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D394" s="7">
         <v>1920000</v>
       </c>
@@ -15554,7 +15917,7 @@
         <v>0.72138732103095149</v>
       </c>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D395" s="7">
         <v>1930000</v>
       </c>
@@ -15567,7 +15930,7 @@
         <v>0.7195874204999847</v>
       </c>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396" s="7">
         <v>1940000</v>
       </c>
@@ -15580,7 +15943,7 @@
         <v>0.71779167985353431</v>
       </c>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397" s="7">
         <v>1950000</v>
       </c>
@@ -15593,7 +15956,7 @@
         <v>0.71600013962004083</v>
       </c>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398" s="7">
         <v>1960000</v>
       </c>
@@ -15606,7 +15969,7 @@
         <v>0.71421283914250722</v>
       </c>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399" s="7">
         <v>1970000</v>
       </c>
@@ -15619,7 +15982,7 @@
         <v>0.712429816596864</v>
       </c>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400" s="7">
         <v>1980000</v>
       </c>
@@ -15632,7 +15995,7 @@
         <v>0.71065110901020734</v>
       </c>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D401" s="7">
         <v>1990000</v>
       </c>
@@ -15645,7 +16008,7 @@
         <v>0.70887675227890179</v>
       </c>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D402" s="7">
         <v>2000000</v>
       </c>
@@ -15664,7 +16027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC6D69-1A3C-4CA8-8A78-DE57570C317B}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -15672,13 +16035,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15690,7 +16053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -15701,7 +16064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15709,7 +16072,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15717,7 +16080,7 @@
         <v>2.8340000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -15726,7 +16089,7 @@
         <v>2.3421487603305788</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -15736,7 +16099,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -15745,7 +16108,7 @@
         <v>2473.1520478869356</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -15787,7 +16150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -15842,7 +16205,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -15897,7 +16260,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -15920,7 +16283,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -15976,7 +16339,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -16032,7 +16395,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -16041,7 +16404,7 @@
         <v>262.43194054073899</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -16056,7 +16419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249053FF-0220-4FD5-8812-A6A6D9769397}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -16064,12 +16427,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -16077,7 +16440,7 @@
         <v>7621</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16085,7 +16448,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -16093,7 +16456,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -16101,7 +16464,7 @@
         <v>-2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -16109,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -16118,7 +16481,7 @@
         <v>-317.54362944495472</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>

--- a/trunk/Version8/Distrib/Examples/ExpControl/Nantucket.xlsx
+++ b/trunk/Version8/Distrib/Examples/ExpControl/Nantucket.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\OpenDSS\Version8\Distrib\Examples\ExpControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED6DBD5-20A3-4E18-ADCC-7FDB88178A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B9E47D-7607-4F74-8272-DB189C15E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1230" windowWidth="14520" windowHeight="11280" activeTab="1" xr2:uid="{7F0E98FC-012E-4DF5-8696-4CB6DBA72C05}"/>
+    <workbookView xWindow="4389" yWindow="6754" windowWidth="25602" windowHeight="10337" xr2:uid="{7F0E98FC-012E-4DF5-8696-4CB6DBA72C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hawaii" sheetId="6" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="136">
   <si>
     <t>Condition</t>
   </si>
@@ -224,16 +224,7 @@
     <t>Xm</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
     <t>Ohms/km</t>
-  </si>
-  <si>
-    <t>Convert</t>
   </si>
   <si>
     <t>Transformer</t>
@@ -448,6 +439,57 @@
   <si>
     <t>12 capacitor banks in the network model total 11.1 MVAR</t>
   </si>
+  <si>
+    <t>Sun (7) d</t>
+  </si>
+  <si>
+    <t>PR+QX</t>
+  </si>
+  <si>
+    <t>DeltaV</t>
+  </si>
+  <si>
+    <t>From show lineconstants, 100 ohm-m, 60 Hz, reduce=yes</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Voltage Drop</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>VRE</t>
+  </si>
+  <si>
+    <t>Len Scale</t>
+  </si>
+  <si>
+    <t>Rsec</t>
+  </si>
+  <si>
+    <t>Xsec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref: https://doi.org/10.1109/TIA.2017.2764024 </t>
+  </si>
+  <si>
+    <t>Vbase</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -543,6 +585,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7435,266 +7480,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA466B9B-B05F-40C9-AF46-D80F70D74378}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0.40909899999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="19">
+        <v>161</v>
+      </c>
+      <c r="J3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0.121904</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="3">
+        <f>E17</f>
+        <v>6.9120000000000001E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>0.16201099999999999</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E5">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="G5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>0.40909899999999999</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H5" s="3">
+        <f>$B$9*$H$3/1000</f>
+        <v>0.30338860495299996</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0.130799</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G6" t="s">
         <v>67</v>
       </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>0.121904</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H6" s="3">
+        <f>E16</f>
+        <v>9.7920000000000007E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="7">
+        <f>($H$8*$K$5-$H$9*$K$4)/$K$3</f>
+        <v>-5.4538292127000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7">
+        <v>3.2806999999999999</v>
+      </c>
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="E3">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G7" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="3">
-        <f>E15</f>
-        <v>1.6631999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>0.16201099999999999</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H7" s="3">
+        <f>$B$10*$H$3/1000</f>
+        <v>3.2971901104799993E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="18">
+        <f>H4+H5</f>
+        <v>0.37250860495299998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8">
+        <f>-K3</f>
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="3">
+        <f>2*(B3-B4)*$B$7</f>
+        <v>1.8844012729999999</v>
+      </c>
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E4">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="3">
-        <f>$B$8*$H$2/1000</f>
-        <v>9.4220063650000005E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>0.130799</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <f>E8*E8/1000/E3</f>
+        <v>5.76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="18">
+        <f>H6+H7</f>
+        <v>0.13089190110480001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="7">
+        <f>K6*K6-$H$8*$K$4-$H$9*$K$5</f>
+        <v>-3695.3417964486998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="3">
+        <f>2*(B5-B6)*$B$7</f>
+        <v>0.20479441679999993</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="E5">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="3">
-        <f>E14</f>
-        <v>1.2959999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>3.2806999999999999</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <f>E4*$E$9</f>
+        <v>0.117504</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="3">
+        <f>H9/H8</f>
+        <v>0.35137953691382473</v>
+      </c>
+      <c r="J10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="7">
+        <f>(-K8+SQRT(K8*K8-4*K7*K9))/2/K7</f>
+        <v>254.51892727957915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B10/B9</f>
+        <v>0.10867877226274827</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="E6">
-        <v>1.15E-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="3">
-        <f>$B$9*$H$2/1000</f>
-        <v>1.0239720839999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <f>E5*$E$9</f>
+        <v>7.8335999999999989E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="20">
+        <f>SQRT(K10*K10+K6*K6)/K3-1</f>
+        <v>6.0738970310754592E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <f>0.5*(E10+E10-E11)</f>
+        <v>7.8336000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <f>0.5*(E11)</f>
+        <v>3.9167999999999994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="E7">
-        <f>120*120/1000/E2</f>
-        <v>1.44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="3">
-        <f>H3+H4</f>
-        <v>0.11085206365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3">
-        <f>(B2-B3)*$B$6</f>
-        <v>0.94220063649999997</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E14">
+        <f>E6*$E$9</f>
+        <v>3.456E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E8">
-        <f>E3*$E$7</f>
-        <v>1.5552E-2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="3">
-        <f>H5+H6</f>
-        <v>2.3199720839999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="3">
-        <f>(B4-B5)*$B$6</f>
-        <v>0.10239720839999997</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E15" s="11">
+        <f>E7*$E$9</f>
+        <v>6.9120000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E9" si="0">E4*$E$7</f>
-        <v>1.0367999999999999E-2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="3">
-        <f>H8/H7</f>
-        <v>0.20928542127325564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E16" s="11">
+        <f>E12+0.5*E13</f>
+        <v>9.7920000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="11">
+        <f>E14+0.5*E15</f>
+        <v>6.9120000000000001E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
-        <f>B9/B8</f>
-        <v>0.10867877226274827</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10">
-        <f>0.5*(E8+E8-E9)</f>
-        <v>1.0368E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11">
-        <f>0.5*(E9)</f>
-        <v>5.1839999999999994E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12">
-        <f>E5*$E$7</f>
-        <v>8.3519999999999983E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="11">
-        <f>E6*$E$7</f>
-        <v>1.6559999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="11">
-        <f>E10+0.5*E11</f>
-        <v>1.2959999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="11">
-        <f>E12+0.5*E13</f>
-        <v>1.6631999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11">
-        <f>E14/E15</f>
-        <v>0.77922077922077926</v>
+      <c r="E18" s="11">
+        <f>E16/E17</f>
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -7707,166 +7835,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFC9EE9-1E26-4956-89BD-7CCA08D6A4E2}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="12">
         <v>13.2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="13">
         <v>1.21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" s="13">
         <v>2.8340000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" s="13">
         <v>1.744</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="13">
         <v>2.68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2">
         <f>RNL-RFL</f>
         <v>-0.53400000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2">
         <f>XNL-XFL</f>
         <v>0.15399999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">RNLRFL*RNLRFL+XNLXFL*XNLXFL</f>
         <v>0.30887199999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2">
         <f>(RFL*RNL-XFL*XNL)*RNLRFL+(RFL*XNL+RNL*XFL)*XNLXFL</f>
         <v>4.1894615039999996</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <f>(RFL*XNL+RNL*XFL)*RNLRFL-(RFL*RNL-XFL*XNL)*XNLXFL</f>
         <v>-3.5262765440000017</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2">
         <f>RENUM/DENOM</f>
         <v>13.563746483980418</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2">
         <f>IMNUM/DENOM</f>
         <v>-11.416627418477564</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13">kv*kv/SQRT(RLD*RLD+XLD*XLD)</f>
         <v>9.8280098916774747</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B14">
         <f>ATAN2(RLD,XLD)</f>
         <v>-0.69965665679653266</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2" cm="1">
         <f t="array" ref="B15">Smag*COS(Sang)</f>
         <v>7.5190499746367498</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2">
         <f>Smag*SIN(Sang)</f>
         <v>-6.328796560944693</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">kv*kv/pld</f>
         <v>23.173140301999073</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B18">
         <f>kv*kv/qld</f>
@@ -7881,20 +8009,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F4CA31-F04D-4F36-A538-838081015827}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="9" max="9" width="9.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7908,7 +8036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -7923,7 +8051,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7931,7 +8059,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7939,7 +8067,7 @@
         <v>2.8340000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7951,7 +8079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7964,24 +8092,24 @@
         <v>56.543850023538091</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3">
         <f>B6*D2*0.000001/C2/C2</f>
         <v>0.10611233578014796</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" s="3">
         <f>G5*E6</f>
         <v>2.334471387163255</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7990,7 +8118,7 @@
         <v>2473.1520478869356</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -8040,8 +8168,17 @@
       <c r="P8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -8104,8 +8241,20 @@
         <f>O9-B$2</f>
         <v>352.30516178815105</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="3">
+        <f>T9/$B$2</f>
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f>C9*$B$3+D9*$B$4</f>
+        <v>2420000</v>
+      </c>
+      <c r="T9" s="7">
+        <f>S9/$B$2</f>
+        <v>317.54264805429415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -8168,8 +8317,20 @@
         <f>O10-B$2</f>
         <v>-279.77224314495652</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" s="3">
+        <f>T10/$B$2</f>
+        <v>-4.1666666666666657E-2</v>
+      </c>
+      <c r="S10" s="7">
+        <f>C10*$B$3+D10*$B$4</f>
+        <v>-2420000</v>
+      </c>
+      <c r="T10" s="7">
+        <f>S10/$B$2</f>
+        <v>-317.54264805429415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8178,7 +8339,7 @@
         <v>-0.42695836273817911</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -8242,8 +8403,20 @@
         <f t="shared" ref="P12:P13" si="11">O12-B$2</f>
         <v>50.559424660845252</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12" s="3">
+        <f>T12/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <f>C12*$B$3+D12*$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <f>S12/$B$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -8307,8 +8480,20 @@
         <f t="shared" si="11"/>
         <v>50.559424660845252</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13" s="3">
+        <f>T13/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <f>C13*$B$3+D13*$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <f>S13/$B$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -8317,7 +8502,7 @@
         <v>262.43194054073894</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -8326,36 +8511,36 @@
         <v>9.4239750039230188</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f>B2</f>
         <v>7621.0235533030609</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f>B3</f>
         <v>1.21</v>
@@ -8384,7 +8569,7 @@
         <v>0.8947799269431097</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f>B4</f>
         <v>2.8340000000000001</v>
@@ -8413,57 +8598,57 @@
         <v>0.94037072631073837</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
         <v>0.91757532662692398</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <f>B2</f>
         <v>7621.0235533030609</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="H24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <f>B3</f>
         <v>1.21</v>
@@ -8505,7 +8690,7 @@
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <f>B4</f>
         <v>2.8340000000000001</v>
@@ -8561,13 +8746,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8581,7 +8766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -8596,7 +8781,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8604,7 +8789,7 @@
         <v>1.744</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8612,7 +8797,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8624,7 +8809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8637,24 +8822,24 @@
         <v>54.492759534596971</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3">
         <f>B6*D2*0.000001/C2/C2</f>
         <v>0.11010637103431425</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H6" s="3">
         <f>G5*E6</f>
         <v>2.4223401627549137</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -8663,7 +8848,7 @@
         <v>2383.4401050140236</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -8714,7 +8899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -8778,7 +8963,7 @@
         <v>488.23830112558244</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -8842,7 +9027,7 @@
         <v>-423.23723918595806</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8851,7 +9036,7 @@
         <v>-0.65074626865671636</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -8916,7 +9101,7 @@
         <v>65.477948057912727</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -8981,7 +9166,7 @@
         <v>65.477948057912727</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -8990,7 +9175,7 @@
         <v>262.43194054073894</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -8999,36 +9184,36 @@
         <v>9.0821265890994987</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f>B2</f>
         <v>7621.0235533030609</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f>B3</f>
         <v>1.744</v>
@@ -9057,7 +9242,7 @@
         <v>0.79856147425809587</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f>B4</f>
         <v>2.68</v>
@@ -9086,57 +9271,57 @@
         <v>0.87095804304018432</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
         <v>0.83475975864914009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <f>B2</f>
         <v>7621.0235533030609</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="H24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <f>B3</f>
         <v>1.744</v>
@@ -9178,7 +9363,7 @@
         <v>5.3199999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <f>B4</f>
         <v>2.68</v>
@@ -9234,13 +9419,13 @@
       <selection activeCell="E6" sqref="E6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9257,13 +9442,13 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -9287,19 +9472,19 @@
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9311,7 +9496,7 @@
         <v>13.2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G3" s="14">
         <f>C2</f>
@@ -9336,7 +9521,7 @@
         <v>1.228444444444445E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9345,7 +9530,7 @@
         <v>3.8226541781450881E-3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="14">
         <f>G3*G3/F2</f>
@@ -9370,7 +9555,7 @@
         <v>3.8226541781450881E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9379,14 +9564,14 @@
         <v>3.1117843345971217</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <f>(C2/C3)^2</f>
         <v>9.1827364554637313E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9399,30 +9584,30 @@
         <v>39.848662320733034</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7">
         <f>B6*D2*0.000001/C2/C2</f>
         <v>0.15056967161676177</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J6" s="3">
         <f>F6*H6</f>
         <v>3.312532775568759</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -9431,7 +9616,7 @@
         <v>57516.589794304273</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -9482,7 +9667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -9546,7 +9731,7 @@
         <v>12.896401413784105</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -9610,7 +9795,7 @@
         <v>-8.1651368881431097</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -9619,7 +9804,7 @@
         <v>-0.32135903149903511</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -9684,7 +9869,7 @@
         <v>2.8703592024716045</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -9749,7 +9934,7 @@
         <v>2.8703592024716045</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -9758,7 +9943,7 @@
         <v>8660.2540378443864</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -9767,36 +9952,36 @@
         <v>6.6414437201221705</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f>B2</f>
         <v>230.94010767585033</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f>B3</f>
         <v>1.228444444444445E-3</v>
@@ -9825,7 +10010,7 @@
         <v>0.92395305323883192</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f>B4</f>
         <v>3.8226541781450881E-3</v>
@@ -9854,57 +10039,57 @@
         <v>0.97286865899309205</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
         <v>0.94841085611596199</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <f>B2</f>
         <v>230.94010767585033</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="H24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <f>B3</f>
         <v>1.228444444444445E-3</v>
@@ -9946,7 +10131,7 @@
         <v>3.49E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
         <f>B4</f>
         <v>3.8226541781450881E-3</v>
@@ -10002,14 +10187,14 @@
       <selection activeCell="E6" sqref="E6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10026,13 +10211,13 @@
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -10056,19 +10241,19 @@
         <v>5.7200000000000001E-2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10080,7 +10265,7 @@
         <v>13.2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G3" s="14">
         <f>C2</f>
@@ -10105,7 +10290,7 @@
         <v>1.7188025711662083E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10114,7 +10299,7 @@
         <v>3.681240036730947E-3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" s="14">
         <f>G3*G3/F2</f>
@@ -10139,7 +10324,7 @@
         <v>3.681240036730947E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10148,14 +10333,14 @@
         <v>2.1417468756945275</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <f>(C2/C3)^2</f>
         <v>9.1827364554637313E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10168,30 +10353,30 @@
         <v>39.382343463692706</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7">
         <f>B6*D2*0.000001/C2/C2</f>
         <v>0.15235253853116965</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J6" s="3">
         <f>F6*H6</f>
         <v>3.3517558476857321</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -10200,7 +10385,7 @@
         <v>56843.516500203201</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -10251,7 +10436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -10315,7 +10500,7 @@
         <v>16.943896254413545</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -10379,7 +10564,7 @@
         <v>-12.545833860877366</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -10388,7 +10573,7 @@
         <v>-0.46690858352517461</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -10453,7 +10638,7 @@
         <v>3.2417524441556509</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -10518,7 +10703,7 @@
         <v>3.2417524441556509</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -10527,7 +10712,7 @@
         <v>8660.2540378443864</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -10536,36 +10721,36 @@
         <v>6.5637239106154501</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f>B2</f>
         <v>230.94010767585033</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <f>B3</f>
         <v>1.7188025711662083E-3</v>
@@ -10594,7 +10779,7 @@
         <v>0.86533874272075995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <f>B4</f>
         <v>3.681240036730947E-3</v>
@@ -10623,57 +10808,57 @@
         <v>0.93747965541205758</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="G22" s="3">
         <f>AVERAGE(G20:G21)</f>
         <v>0.90140919906640882</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <f>B2</f>
         <v>230.94010767585033</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="H24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <f>B3</f>
         <v>1.7188025711662083E-3</v>
@@ -10715,7 +10900,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
         <f>B4</f>
         <v>3.681240036730947E-3</v>
@@ -10771,9 +10956,9 @@
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -10784,13 +10969,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10809,7 +10994,7 @@
         <v>0.70710678118654757</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10828,7 +11013,7 @@
         <v>0.70887675227890179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -10847,7 +11032,7 @@
         <v>0.71065110901020734</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D5" s="7">
         <v>-1970000</v>
       </c>
@@ -10860,7 +11045,7 @@
         <v>0.712429816596864</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D6" s="7">
         <v>-1960000</v>
       </c>
@@ -10873,7 +11058,7 @@
         <v>0.71421283914250722</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="7">
         <v>-1950000</v>
       </c>
@@ -10886,7 +11071,7 @@
         <v>0.71600013962004083</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="7">
         <v>-1940000</v>
       </c>
@@ -10899,7 +11084,7 @@
         <v>0.71779167985353431</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="7">
         <v>-1930000</v>
       </c>
@@ -10912,7 +11097,7 @@
         <v>0.7195874204999847</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="7">
         <v>-1920000</v>
       </c>
@@ -10925,7 +11110,7 @@
         <v>0.72138732103095149</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="7">
         <v>-1910000</v>
       </c>
@@ -10938,7 +11123,7 @@
         <v>0.72319133971406457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D12" s="7">
         <v>-1900000</v>
       </c>
@@ -10951,7 +11136,7 @@
         <v>0.72499943359441377</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D13" s="7">
         <v>-1890000</v>
       </c>
@@ -10964,7 +11149,7 @@
         <v>0.72681155847582168</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" s="7">
         <v>-1880000</v>
       </c>
@@ -10977,7 +11162,7 @@
         <v>0.72862766890200725</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15" s="7">
         <v>-1870000</v>
       </c>
@@ -10990,7 +11175,7 @@
         <v>0.73044771813764475</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16" s="7">
         <v>-1860000</v>
       </c>
@@ -11003,7 +11188,7 @@
         <v>0.73227165814932205</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" s="7">
         <v>-1850000</v>
       </c>
@@ -11016,7 +11201,7 @@
         <v>0.73409943958640766</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D18" s="7">
         <v>-1840000</v>
       </c>
@@ -11029,7 +11214,7 @@
         <v>0.73593101176182962</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D19" s="7">
         <v>-1830000</v>
       </c>
@@ -11042,7 +11227,7 @@
         <v>0.73776632263277464</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D20" s="7">
         <v>-1820000</v>
       </c>
@@ -11055,7 +11240,7 @@
         <v>0.73960531878131319</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D21" s="7">
         <v>-1810000</v>
       </c>
@@ -11068,7 +11253,7 @@
         <v>0.74144794539495829</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D22" s="7">
         <v>-1800000</v>
       </c>
@@ -11081,7 +11266,7 @@
         <v>0.74329414624716628</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D23" s="7">
         <v>-1790000</v>
       </c>
@@ -11094,7 +11279,7 @@
         <v>0.74514386367778529</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D24" s="7">
         <v>-1780000</v>
       </c>
@@ -11107,7 +11292,7 @@
         <v>0.74699703857346067</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D25" s="7">
         <v>-1770000</v>
       </c>
@@ -11120,7 +11305,7 @@
         <v>0.74885361034800746</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D26" s="7">
         <v>-1760000</v>
       </c>
@@ -11133,7 +11318,7 @@
         <v>0.75071351692275534</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D27" s="7">
         <v>-1750000</v>
       </c>
@@ -11146,7 +11331,7 @@
         <v>0.75257669470687794</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D28" s="7">
         <v>-1740000</v>
       </c>
@@ -11159,7 +11344,7 @@
         <v>0.75444307857771475</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D29" s="7">
         <v>-1730000</v>
       </c>
@@ -11172,7 +11357,7 @@
         <v>0.7563126018610965</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D30" s="7">
         <v>-1720000</v>
       </c>
@@ -11185,7 +11370,7 @@
         <v>0.75818519631168302</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D31" s="7">
         <v>-1710000</v>
       </c>
@@ -11198,7 +11383,7 @@
         <v>0.76006079209332467</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D32" s="7">
         <v>-1700000</v>
       </c>
@@ -11211,7 +11396,7 @@
         <v>0.76193931775945933</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33" s="7">
         <v>-1690000</v>
       </c>
@@ -11224,7 +11409,7 @@
         <v>0.76382070023355519</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34" s="7">
         <v>-1680000</v>
       </c>
@@ -11237,7 +11422,7 @@
         <v>0.76570486478961108</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35" s="7">
         <v>-1670000</v>
       </c>
@@ -11250,7 +11435,7 @@
         <v>0.76759173503272804</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D36" s="7">
         <v>-1660000</v>
       </c>
@@ -11263,7 +11448,7 @@
         <v>0.76948123287976256</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D37" s="7">
         <v>-1650000</v>
       </c>
@@ -11276,7 +11461,7 @@
         <v>0.7713732785400772</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D38" s="7">
         <v>-1640000</v>
       </c>
@@ -11289,7 +11474,7 @@
         <v>0.77326779049639849</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D39" s="7">
         <v>-1630000</v>
       </c>
@@ -11302,7 +11487,7 @@
         <v>0.7751646854858002</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D40" s="7">
         <v>-1620000</v>
       </c>
@@ -11315,7 +11500,7 @@
         <v>0.77706387848082314</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D41" s="7">
         <v>-1610000</v>
       </c>
@@ -11328,7 +11513,7 @@
         <v>0.77896528267074683</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D42" s="7">
         <v>-1600000</v>
       </c>
@@ -11341,7 +11526,7 @@
         <v>0.78086880944303028</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D43" s="7">
         <v>-1590000</v>
       </c>
@@ -11354,7 +11539,7 @@
         <v>0.78277436836493386</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D44" s="7">
         <v>-1580000</v>
       </c>
@@ -11367,7 +11552,7 @@
         <v>0.78468186716534216</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D45" s="7">
         <v>-1570000</v>
       </c>
@@ -11380,7 +11565,7 @@
         <v>0.78659121171680135</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D46" s="7">
         <v>-1560000</v>
       </c>
@@ -11393,7 +11578,7 @@
         <v>0.78850230601779103</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D47" s="7">
         <v>-1550000</v>
       </c>
@@ -11406,7 +11591,7 @@
         <v>0.79041505217524377</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D48" s="7">
         <v>-1540000</v>
       </c>
@@ -11419,7 +11604,7 @@
         <v>0.79232935038733465</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D49" s="7">
         <v>-1530000</v>
       </c>
@@ -11432,7 +11617,7 @@
         <v>0.79424509892655693</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D50" s="7">
         <v>-1520000</v>
       </c>
@@ -11445,7 +11630,7 @@
         <v>0.79616219412310241</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D51" s="7">
         <v>-1510000</v>
       </c>
@@ -11458,7 +11643,7 @@
         <v>0.79808053034856719</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D52" s="7">
         <v>-1500000</v>
       </c>
@@ -11471,7 +11656,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D53" s="7">
         <v>-1490000</v>
       </c>
@@ -11484,7 +11669,7 @@
         <v>0.80192049348431715</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D54" s="7">
         <v>-1480000</v>
       </c>
@@ -11497,7 +11682,7 @@
         <v>0.8038418992031009</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D55" s="7">
         <v>-1470000</v>
       </c>
@@ -11510,7 +11695,7 @@
         <v>0.8057641035378047</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D56" s="7">
         <v>-1460000</v>
       </c>
@@ -11523,7 +11708,7 @@
         <v>0.80768699083538564</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D57" s="7">
         <v>-1450000</v>
       </c>
@@ -11536,7 +11721,7 @@
         <v>0.80961044339438759</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D58" s="7">
         <v>-1440000</v>
       </c>
@@ -11549,7 +11734,7 @@
         <v>0.81153434145149439</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D59" s="7">
         <v>-1430000</v>
       </c>
@@ -11562,7 +11747,7 @@
         <v>0.81345856316858023</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D60" s="7">
         <v>-1420000</v>
       </c>
@@ -11575,7 +11760,7 @@
         <v>0.81538298462027692</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D61" s="7">
         <v>-1410000</v>
       </c>
@@ -11588,7 +11773,7 @@
         <v>0.81730747978208329</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D62" s="7">
         <v>-1400000</v>
       </c>
@@ -11601,7 +11786,7 @@
         <v>0.81923192051904037</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D63" s="7">
         <v>-1390000</v>
       </c>
@@ -11614,7 +11799,7 @@
         <v>0.82115617657499851</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D64" s="7">
         <v>-1380000</v>
       </c>
@@ -11627,7 +11812,7 @@
         <v>0.82308011556249749</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D65" s="7">
         <v>-1370000</v>
       </c>
@@ -11640,7 +11825,7 @@
         <v>0.82500360295328967</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D66" s="7">
         <v>-1360000</v>
       </c>
@@ -11653,7 +11838,7 @@
         <v>0.82692650206952811</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D67" s="7">
         <v>-1350000</v>
       </c>
@@ -11666,7 +11851,7 @@
         <v>0.82884867407564811</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D68" s="7">
         <v>-1340000</v>
       </c>
@@ -11679,7 +11864,7 @@
         <v>0.83076997797096708</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D69" s="7">
         <v>-1330000</v>
       </c>
@@ -11692,7 +11877,7 @@
         <v>0.83269027058302947</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D70" s="7">
         <v>-1320000</v>
       </c>
@@ -11705,7 +11890,7 @@
         <v>0.83460940656172522</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D71" s="7">
         <v>-1310000</v>
       </c>
@@ -11718,7 +11903,7 @@
         <v>0.83652723837420739</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D72" s="7">
         <v>-1300000</v>
       </c>
@@ -11731,7 +11916,7 @@
         <v>0.83844361630063702</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D73" s="7">
         <v>-1290000</v>
       </c>
@@ -11744,7 +11929,7 @@
         <v>0.84035838843078425</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D74" s="7">
         <v>-1280000</v>
       </c>
@@ -11757,7 +11942,7 @@
         <v>0.84227140066151129</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D75" s="7">
         <v>-1270000</v>
       </c>
@@ -11770,7 +11955,7 @@
         <v>0.84418249669516798</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D76" s="7">
         <v>-1260000</v>
       </c>
@@ -11783,7 +11968,7 @@
         <v>0.8460915180389269</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D77" s="7">
         <v>-1250000</v>
       </c>
@@ -11796,7 +11981,7 @@
         <v>0.84799830400508802</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D78" s="7">
         <v>-1240000</v>
       </c>
@@ -11809,7 +11994,7 @@
         <v>0.84990269171237953</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D79" s="7">
         <v>-1230000</v>
       </c>
@@ -11822,7 +12007,7 @@
         <v>0.85180451608828589</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D80" s="7">
         <v>-1220000</v>
       </c>
@@ -11835,7 +12020,7 @@
         <v>0.85370360987243077</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D81" s="7">
         <v>-1210000</v>
       </c>
@@ -11848,7 +12033,7 @@
         <v>0.85559980362104437</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D82" s="7">
         <v>-1200000</v>
       </c>
@@ -11861,7 +12046,7 @@
         <v>0.85749292571254421</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D83" s="7">
         <v>-1190000</v>
       </c>
@@ -11874,7 +12059,7 @@
         <v>0.85938280235425735</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D84" s="7">
         <v>-1180000</v>
       </c>
@@ -11887,7 +12072,7 @@
         <v>0.86126925759031525</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D85" s="7">
         <v>-1170000</v>
       </c>
@@ -11900,7 +12085,7 @@
         <v>0.86315211331074715</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D86" s="7">
         <v>-1160000</v>
       </c>
@@ -11913,7 +12098,7 @@
         <v>0.86503118926180333</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D87" s="7">
         <v>-1150000</v>
       </c>
@@ -11926,7 +12111,7 @@
         <v>0.86690630305753513</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D88" s="7">
         <v>-1140000</v>
       </c>
@@ -11939,7 +12124,7 @@
         <v>0.86877727019266082</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D89" s="7">
         <v>-1130000</v>
       </c>
@@ -11952,7 +12137,7 @@
         <v>0.87064390405674497</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D90" s="7">
         <v>-1120000</v>
       </c>
@@ -11965,7 +12150,7 @@
         <v>0.87250601594971999</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D91" s="7">
         <v>-1110000</v>
       </c>
@@ -11978,7 +12163,7 @@
         <v>0.87436341509877602</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D92" s="7">
         <v>-1100000</v>
       </c>
@@ -11991,7 +12176,7 @@
         <v>0.876215908676647</v>
       </c>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D93" s="7">
         <v>-1090000</v>
       </c>
@@ -12004,7 +12189,7 @@
         <v>0.87806330182131986</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D94" s="7">
         <v>-1080000</v>
       </c>
@@ -12017,7 +12202,7 @@
         <v>0.87990539765719245</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D95" s="7">
         <v>-1070000</v>
       </c>
@@ -12030,7 +12215,7 @@
         <v>0.88174199731770531</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D96" s="7">
         <v>-1060000</v>
       </c>
@@ -12043,7 +12228,7 @@
         <v>0.88357289996947352</v>
       </c>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D97" s="7">
         <v>-1050000</v>
       </c>
@@ -12056,7 +12241,7 @@
         <v>0.88539790283794351</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D98" s="7">
         <v>-1040000</v>
       </c>
@@ -12069,7 +12254,7 @@
         <v>0.88721680123459523</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D99" s="7">
         <v>-1030000</v>
       </c>
@@ -12082,7 +12267,7 @@
         <v>0.88902938858571634</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D100" s="7">
         <v>-1020000</v>
       </c>
@@ -12095,7 +12280,7 @@
         <v>0.89083545646276951</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D101" s="7">
         <v>-1010000</v>
       </c>
@@ -12108,7 +12293,7 @@
         <v>0.89263479461437301</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D102" s="7">
         <v>-1000000</v>
       </c>
@@ -12121,7 +12306,7 @@
         <v>0.89442719099991597</v>
       </c>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D103" s="7">
         <v>-990000</v>
       </c>
@@ -12134,7 +12319,7 @@
         <v>0.89621243182482713</v>
       </c>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D104" s="7">
         <v>-980000</v>
       </c>
@@ -12147,7 +12332,7 @@
         <v>0.89799030157751714</v>
       </c>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D105" s="7">
         <v>-970000</v>
       </c>
@@ -12160,7 +12345,7 @@
         <v>0.89976058306800866</v>
       </c>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D106" s="7">
         <v>-960000</v>
       </c>
@@ -12173,7 +12358,7 @@
         <v>0.90152305746827344</v>
       </c>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D107" s="7">
         <v>-950000</v>
       </c>
@@ -12186,7 +12371,7 @@
         <v>0.90327750435428977</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D108" s="7">
         <v>-940000</v>
       </c>
@@ -12199,7 +12384,7 @@
         <v>0.90502370174983293</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D109" s="7">
         <v>-930000</v>
       </c>
@@ -12212,7 +12397,7 @@
         <v>0.90676142617201383</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D110" s="7">
         <v>-920000</v>
       </c>
@@ -12225,7 +12410,7 @@
         <v>0.90849045267857464</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D111" s="7">
         <v>-910000</v>
       </c>
@@ -12238,7 +12423,7 @@
         <v>0.91021055491695047</v>
       </c>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D112" s="7">
         <v>-900000</v>
       </c>
@@ -12251,7 +12436,7 @@
         <v>0.91192150517510628</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D113" s="7">
         <v>-890000</v>
       </c>
@@ -12264,7 +12449,7 @@
         <v>0.91362307443415613</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D114" s="7">
         <v>-880000</v>
       </c>
@@ -12277,7 +12462,7 @@
         <v>0.91531503242276557</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D115" s="7">
         <v>-870000</v>
       </c>
@@ -12290,7 +12475,7 @@
         <v>0.91699714767334572</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D116" s="7">
         <v>-860000</v>
       </c>
@@ -12303,7 +12488,7 @@
         <v>0.91866918758003568</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D117" s="7">
         <v>-850000</v>
       </c>
@@ -12316,7 +12501,7 @@
         <v>0.9203309184584747</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D118" s="7">
         <v>-840000</v>
       </c>
@@ -12329,7 +12514,7 @@
         <v>0.92198210560736127</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D119" s="7">
         <v>-830000</v>
       </c>
@@ -12342,7 +12527,7 @@
         <v>0.92362251337179635</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D120" s="7">
         <v>-820000</v>
       </c>
@@ -12355,7 +12540,7 @@
         <v>0.92525190520839939</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D121" s="7">
         <v>-810000</v>
       </c>
@@ -12368,7 +12553,7 @@
         <v>0.92687004375219584</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D122" s="7">
         <v>-800000</v>
       </c>
@@ -12381,7 +12566,7 @@
         <v>0.92847669088525941</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D123" s="7">
         <v>-790000</v>
       </c>
@@ -12394,7 +12579,7 @@
         <v>0.93007160780709941</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D124" s="7">
         <v>-780000</v>
       </c>
@@ -12407,7 +12592,7 @@
         <v>0.9316545551067793</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D125" s="7">
         <v>-770000</v>
       </c>
@@ -12420,7 +12605,7 @@
         <v>0.93322529283674482</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D126" s="7">
         <v>-760000</v>
       </c>
@@ -12433,7 +12618,7 @@
         <v>0.93478358058834887</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D127" s="7">
         <v>-750000</v>
       </c>
@@ -12446,7 +12631,7 @@
         <v>0.93632917756904444</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D128" s="7">
         <v>-740000</v>
       </c>
@@ -12459,7 +12644,7 @@
         <v>0.93786184268122774</v>
       </c>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D129" s="7">
         <v>-730000</v>
       </c>
@@ -12472,7 +12657,7 @@
         <v>0.9393813346027009</v>
       </c>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D130" s="7">
         <v>-720000</v>
       </c>
@@ -12485,7 +12670,7 @@
         <v>0.94088741186872693</v>
       </c>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D131" s="7">
         <v>-710000</v>
       </c>
@@ -12498,7 +12683,7 @@
         <v>0.94237983295564554</v>
       </c>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D132" s="7">
         <v>-700000</v>
       </c>
@@ -12511,7 +12696,7 @@
         <v>0.94385835636601745</v>
       </c>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D133" s="7">
         <v>-690000</v>
       </c>
@@ -12524,7 +12709,7 @@
         <v>0.94532274071525557</v>
       </c>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D134" s="7">
         <v>-680000</v>
       </c>
@@ -12537,7 +12722,7 @@
         <v>0.94677274481971263</v>
       </c>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D135" s="7">
         <v>-670000</v>
       </c>
@@ -12550,7 +12735,7 @@
         <v>0.94820812778617658</v>
       </c>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D136" s="7">
         <v>-660000</v>
       </c>
@@ -12563,7 +12748,7 @@
         <v>0.94962864910273292</v>
       </c>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D137" s="7">
         <v>-650000</v>
       </c>
@@ -12576,7 +12761,7 @@
         <v>0.95103406873094809</v>
       </c>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D138" s="7">
         <v>-640000</v>
       </c>
@@ -12589,7 +12774,7 @@
         <v>0.95242414719932422</v>
       </c>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D139" s="7">
         <v>-630000</v>
       </c>
@@ -12602,7 +12787,7 @@
         <v>0.95379864569797246</v>
       </c>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D140" s="7">
         <v>-620000</v>
       </c>
@@ -12615,7 +12800,7 @@
         <v>0.95515732617445348</v>
       </c>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D141" s="7">
         <v>-610000</v>
       </c>
@@ -12628,7 +12813,7 @@
         <v>0.95649995143072719</v>
       </c>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D142" s="7">
         <v>-600000</v>
       </c>
@@ -12641,7 +12826,7 @@
         <v>0.95782628522115143</v>
       </c>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D143" s="7">
         <v>-590000</v>
       </c>
@@ -12654,7 +12839,7 @@
         <v>0.95913609235147124</v>
       </c>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D144" s="7">
         <v>-580000</v>
       </c>
@@ -12667,7 +12852,7 @@
         <v>0.96042913877873193</v>
       </c>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D145" s="7">
         <v>-570000</v>
       </c>
@@ -12680,7 +12865,7 @@
         <v>0.96170519171205149</v>
       </c>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D146" s="7">
         <v>-560000</v>
       </c>
@@ -12693,7 +12878,7 @@
         <v>0.96296401971418177</v>
       </c>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D147" s="7">
         <v>-550000</v>
       </c>
@@ -12706,7 +12891,7 @@
         <v>0.96420539280379036</v>
       </c>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D148" s="7">
         <v>-540000</v>
       </c>
@@ -12719,7 +12904,7 @@
         <v>0.96542908255838722</v>
       </c>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D149" s="7">
         <v>-530000</v>
       </c>
@@ -12732,7 +12917,7 @@
         <v>0.96663486221782158</v>
       </c>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D150" s="7">
         <v>-520000</v>
       </c>
@@ -12745,7 +12930,7 @@
         <v>0.96782250678827197</v>
       </c>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D151" s="7">
         <v>-510000</v>
       </c>
@@ -12758,7 +12943,7 @@
         <v>0.9689917931466494</v>
       </c>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D152" s="7">
         <v>-500000</v>
       </c>
@@ -12771,7 +12956,7 @@
         <v>0.97014250014533188</v>
       </c>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D153" s="7">
         <v>-490000</v>
       </c>
@@ -12784,7 +12969,7 @@
         <v>0.9712744087171471</v>
       </c>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D154" s="7">
         <v>-480000</v>
       </c>
@@ -12797,7 +12982,7 @@
         <v>0.97238730198051748</v>
       </c>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D155" s="7">
         <v>-470000</v>
       </c>
@@ -12810,7 +12995,7 @@
         <v>0.9734809653446812</v>
       </c>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D156" s="7">
         <v>-460000</v>
       </c>
@@ -12823,7 +13008,7 @@
         <v>0.97455518661489948</v>
       </c>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D157" s="7">
         <v>-450000</v>
       </c>
@@ -12836,7 +13021,7 @@
         <v>0.97560975609756095</v>
       </c>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D158" s="7">
         <v>-440000</v>
       </c>
@@ -12849,7 +13034,7 @@
         <v>0.97664446670508998</v>
       </c>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D159" s="7">
         <v>-430000</v>
       </c>
@@ -12862,7 +13047,7 @@
         <v>0.97765911406056782</v>
       </c>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D160" s="7">
         <v>-420000</v>
       </c>
@@ -12875,7 +13060,7 @@
         <v>0.97865349660197065</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D161" s="7">
         <v>-410000</v>
       </c>
@@ -12888,7 +13073,7 @@
         <v>0.97962741568593015</v>
       </c>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D162" s="7">
         <v>-400000</v>
       </c>
@@ -12901,7 +13086,7 @@
         <v>0.98058067569092022</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D163" s="7">
         <v>-390000</v>
       </c>
@@ -12914,7 +13099,7 @@
         <v>0.98151308411977223</v>
       </c>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D164" s="7">
         <v>-380000</v>
       </c>
@@ -12927,7 +13112,7 @@
         <v>0.98242445170142201</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D165" s="7">
         <v>-370000</v>
       </c>
@@ -12940,7 +13125,7 @@
         <v>0.9833145924917901</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D166" s="7">
         <v>-360000</v>
       </c>
@@ -12953,7 +13138,7 @@
         <v>0.98418332397369523</v>
       </c>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D167" s="7">
         <v>-350000</v>
       </c>
@@ -12966,7 +13151,7 @@
         <v>0.98503046715570419</v>
       </c>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D168" s="7">
         <v>-340000</v>
       </c>
@@ -12979,7 +13164,7 @@
         <v>0.9858558466698174</v>
       </c>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D169" s="7">
         <v>-330000</v>
       </c>
@@ -12992,7 +13177,7 @@
         <v>0.98665929086789239</v>
       </c>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D170" s="7">
         <v>-320000</v>
       </c>
@@ -13005,7 +13190,7 @@
         <v>0.98744063191670539</v>
       </c>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D171" s="7">
         <v>-310000</v>
       </c>
@@ -13018,7 +13203,7 @@
         <v>0.98819970589155315</v>
       </c>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D172" s="7">
         <v>-300000</v>
       </c>
@@ -13031,7 +13216,7 @@
         <v>0.98893635286829751</v>
       </c>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D173" s="7">
         <v>-290000</v>
       </c>
@@ -13044,7 +13229,7 @@
         <v>0.989650417013754</v>
       </c>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D174" s="7">
         <v>-280000</v>
       </c>
@@ -13057,7 +13242,7 @@
         <v>0.99034174667433017</v>
       </c>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D175" s="7">
         <v>-270000</v>
       </c>
@@ -13070,7 +13255,7 @@
         <v>0.99101019446281668</v>
       </c>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D176" s="7">
         <v>-260000</v>
       </c>
@@ -13083,7 +13268,7 @@
         <v>0.99165561734323782</v>
       </c>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D177" s="7">
         <v>-250000</v>
       </c>
@@ -13096,7 +13281,7 @@
         <v>0.99227787671366763</v>
       </c>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D178" s="7">
         <v>-240000</v>
       </c>
@@ -13109,7 +13294,7 @@
         <v>0.9928768384869221</v>
       </c>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D179" s="7">
         <v>-230000</v>
       </c>
@@ -13122,7 +13307,7 @@
         <v>0.99345237316903501</v>
       </c>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D180" s="7">
         <v>-220000</v>
       </c>
@@ -13135,7 +13320,7 @@
         <v>0.9940043559354329</v>
       </c>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D181" s="7">
         <v>-210000</v>
       </c>
@@ -13148,7 +13333,7 @@
         <v>0.99453266670471951</v>
       </c>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D182" s="7">
         <v>-200000</v>
       </c>
@@ -13161,7 +13346,7 @@
         <v>0.99503719020998915</v>
       </c>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D183" s="7">
         <v>-190000</v>
       </c>
@@ -13174,7 +13359,7 @@
         <v>0.99551781606758583</v>
       </c>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D184" s="7">
         <v>-180000</v>
       </c>
@@ -13187,7 +13372,7 @@
         <v>0.99597443884322878</v>
       </c>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D185" s="7">
         <v>-170000</v>
       </c>
@@ -13200,7 +13385,7 @@
         <v>0.99640695811542956</v>
       </c>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D186" s="7">
         <v>-160000</v>
       </c>
@@ -13213,7 +13398,7 @@
         <v>0.99681527853612506</v>
       </c>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D187" s="7">
         <v>-150000</v>
       </c>
@@ -13226,7 +13411,7 @@
         <v>0.9971993098884564</v>
       </c>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D188" s="7">
         <v>-140000</v>
       </c>
@@ -13239,7 +13424,7 @@
         <v>0.99755896714162673</v>
       </c>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D189" s="7">
         <v>-130000</v>
       </c>
@@ -13252,7 +13437,7 @@
         <v>0.99789417050277107</v>
       </c>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D190" s="7">
         <v>-120000</v>
       </c>
@@ -13265,7 +13450,7 @@
         <v>0.9982048454657787</v>
       </c>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D191" s="7">
         <v>-110000</v>
       </c>
@@ -13278,7 +13463,7 @@
         <v>0.99849092285700869</v>
       </c>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D192" s="7">
         <v>-100000</v>
       </c>
@@ -13291,7 +13476,7 @@
         <v>0.99875233887784465</v>
       </c>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D193" s="7">
         <v>-90000</v>
       </c>
@@ -13304,7 +13489,7 @@
         <v>0.99898903514403781</v>
       </c>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D194" s="7">
         <v>-80000</v>
       </c>
@@ -13317,7 +13502,7 @@
         <v>0.99920095872178949</v>
       </c>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D195" s="7">
         <v>-70000</v>
       </c>
@@ -13330,7 +13515,7 @@
         <v>0.999388062160532</v>
       </c>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D196" s="7">
         <v>-60000</v>
       </c>
@@ -13343,7 +13528,7 @@
         <v>0.99955030352236685</v>
       </c>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D197" s="7">
         <v>-50000</v>
       </c>
@@ -13356,7 +13541,7 @@
         <v>0.99968764640812269</v>
       </c>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D198" s="7">
         <v>-40000</v>
       </c>
@@ -13369,7 +13554,7 @@
         <v>0.99980005998000698</v>
       </c>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D199" s="7">
         <v>-30000</v>
       </c>
@@ -13382,7 +13567,7 @@
         <v>0.99988751898081607</v>
       </c>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D200" s="7">
         <v>-20000</v>
       </c>
@@ -13395,7 +13580,7 @@
         <v>0.99995000374968745</v>
       </c>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D201" s="7">
         <v>-10000</v>
       </c>
@@ -13408,7 +13593,7 @@
         <v>0.99998750023437011</v>
       </c>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D202" s="7">
         <v>0</v>
       </c>
@@ -13421,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D203" s="7">
         <v>10000</v>
       </c>
@@ -13434,7 +13619,7 @@
         <v>0.99998750023437011</v>
       </c>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D204" s="7">
         <v>20000</v>
       </c>
@@ -13447,7 +13632,7 @@
         <v>0.99995000374968745</v>
       </c>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D205" s="7">
         <v>30000</v>
       </c>
@@ -13460,7 +13645,7 @@
         <v>0.99988751898081607</v>
       </c>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D206" s="7">
         <v>40000</v>
       </c>
@@ -13473,7 +13658,7 @@
         <v>0.99980005998000698</v>
       </c>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D207" s="7">
         <v>50000</v>
       </c>
@@ -13486,7 +13671,7 @@
         <v>0.99968764640812269</v>
       </c>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D208" s="7">
         <v>60000</v>
       </c>
@@ -13499,7 +13684,7 @@
         <v>0.99955030352236685</v>
       </c>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D209" s="7">
         <v>70000</v>
       </c>
@@ -13512,7 +13697,7 @@
         <v>0.999388062160532</v>
       </c>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D210" s="7">
         <v>80000</v>
       </c>
@@ -13525,7 +13710,7 @@
         <v>0.99920095872178949</v>
       </c>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D211" s="7">
         <v>90000</v>
       </c>
@@ -13538,7 +13723,7 @@
         <v>0.99898903514403781</v>
       </c>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D212" s="7">
         <v>100000</v>
       </c>
@@ -13551,7 +13736,7 @@
         <v>0.99875233887784465</v>
       </c>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D213" s="7">
         <v>110000</v>
       </c>
@@ -13564,7 +13749,7 @@
         <v>0.99849092285700869</v>
       </c>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D214" s="7">
         <v>120000</v>
       </c>
@@ -13577,7 +13762,7 @@
         <v>0.9982048454657787</v>
       </c>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D215" s="7">
         <v>130000</v>
       </c>
@@ -13590,7 +13775,7 @@
         <v>0.99789417050277107</v>
       </c>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D216" s="7">
         <v>140000</v>
       </c>
@@ -13603,7 +13788,7 @@
         <v>0.99755896714162673</v>
       </c>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D217" s="7">
         <v>150000</v>
       </c>
@@ -13616,7 +13801,7 @@
         <v>0.9971993098884564</v>
       </c>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D218" s="7">
         <v>160000</v>
       </c>
@@ -13629,7 +13814,7 @@
         <v>0.99681527853612506</v>
       </c>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D219" s="7">
         <v>170000</v>
       </c>
@@ -13642,7 +13827,7 @@
         <v>0.99640695811542956</v>
       </c>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D220" s="7">
         <v>180000</v>
       </c>
@@ -13655,7 +13840,7 @@
         <v>0.99597443884322878</v>
       </c>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D221" s="7">
         <v>190000</v>
       </c>
@@ -13668,7 +13853,7 @@
         <v>0.99551781606758583</v>
       </c>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D222" s="7">
         <v>200000</v>
       </c>
@@ -13681,7 +13866,7 @@
         <v>0.99503719020998915</v>
       </c>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D223" s="7">
         <v>210000</v>
       </c>
@@ -13694,7 +13879,7 @@
         <v>0.99453266670471951</v>
       </c>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D224" s="7">
         <v>220000</v>
       </c>
@@ -13707,7 +13892,7 @@
         <v>0.9940043559354329</v>
       </c>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D225" s="7">
         <v>230000</v>
       </c>
@@ -13720,7 +13905,7 @@
         <v>0.99345237316903501</v>
       </c>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D226" s="7">
         <v>240000</v>
       </c>
@@ -13733,7 +13918,7 @@
         <v>0.9928768384869221</v>
       </c>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D227" s="7">
         <v>250000</v>
       </c>
@@ -13746,7 +13931,7 @@
         <v>0.99227787671366763</v>
       </c>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D228" s="7">
         <v>260000</v>
       </c>
@@ -13759,7 +13944,7 @@
         <v>0.99165561734323782</v>
       </c>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D229" s="7">
         <v>270000</v>
       </c>
@@ -13772,7 +13957,7 @@
         <v>0.99101019446281668</v>
       </c>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D230" s="7">
         <v>280000</v>
       </c>
@@ -13785,7 +13970,7 @@
         <v>0.99034174667433017</v>
       </c>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D231" s="7">
         <v>290000</v>
       </c>
@@ -13798,7 +13983,7 @@
         <v>0.989650417013754</v>
       </c>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D232" s="7">
         <v>300000</v>
       </c>
@@ -13811,7 +13996,7 @@
         <v>0.98893635286829751</v>
       </c>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D233" s="7">
         <v>310000</v>
       </c>
@@ -13824,7 +14009,7 @@
         <v>0.98819970589155315</v>
       </c>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D234" s="7">
         <v>320000</v>
       </c>
@@ -13837,7 +14022,7 @@
         <v>0.98744063191670539</v>
       </c>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D235" s="7">
         <v>330000</v>
       </c>
@@ -13850,7 +14035,7 @@
         <v>0.98665929086789239</v>
       </c>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D236" s="7">
         <v>340000</v>
       </c>
@@ -13863,7 +14048,7 @@
         <v>0.9858558466698174</v>
       </c>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D237" s="7">
         <v>350000</v>
       </c>
@@ -13876,7 +14061,7 @@
         <v>0.98503046715570419</v>
       </c>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D238" s="7">
         <v>360000</v>
       </c>
@@ -13889,7 +14074,7 @@
         <v>0.98418332397369523</v>
       </c>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D239" s="7">
         <v>370000</v>
       </c>
@@ -13902,7 +14087,7 @@
         <v>0.9833145924917901</v>
       </c>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D240" s="7">
         <v>380000</v>
       </c>
@@ -13915,7 +14100,7 @@
         <v>0.98242445170142201</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D241" s="7">
         <v>390000</v>
       </c>
@@ -13928,7 +14113,7 @@
         <v>0.98151308411977223</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D242" s="7">
         <v>400000</v>
       </c>
@@ -13941,7 +14126,7 @@
         <v>0.98058067569092022</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D243" s="7">
         <v>410000</v>
       </c>
@@ -13954,7 +14139,7 @@
         <v>0.97962741568593015</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D244" s="7">
         <v>420000</v>
       </c>
@@ -13967,7 +14152,7 @@
         <v>0.97865349660197065</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D245" s="7">
         <v>430000</v>
       </c>
@@ -13980,7 +14165,7 @@
         <v>0.97765911406056782</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D246" s="7">
         <v>440000</v>
       </c>
@@ -13993,7 +14178,7 @@
         <v>0.97664446670508998</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D247" s="7">
         <v>450000</v>
       </c>
@@ -14006,7 +14191,7 @@
         <v>0.97560975609756095</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D248" s="7">
         <v>460000</v>
       </c>
@@ -14019,7 +14204,7 @@
         <v>0.97455518661489948</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D249" s="7">
         <v>470000</v>
       </c>
@@ -14032,7 +14217,7 @@
         <v>0.9734809653446812</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D250" s="7">
         <v>480000</v>
       </c>
@@ -14045,7 +14230,7 @@
         <v>0.97238730198051748</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D251" s="7">
         <v>490000</v>
       </c>
@@ -14058,7 +14243,7 @@
         <v>0.9712744087171471</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D252" s="7">
         <v>500000</v>
       </c>
@@ -14071,7 +14256,7 @@
         <v>0.97014250014533188</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D253" s="7">
         <v>510000</v>
       </c>
@@ -14084,7 +14269,7 @@
         <v>0.9689917931466494</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D254" s="7">
         <v>520000</v>
       </c>
@@ -14097,7 +14282,7 @@
         <v>0.96782250678827197</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D255" s="7">
         <v>530000</v>
       </c>
@@ -14110,7 +14295,7 @@
         <v>0.96663486221782158</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D256" s="7">
         <v>540000</v>
       </c>
@@ -14123,7 +14308,7 @@
         <v>0.96542908255838722</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D257" s="7">
         <v>550000</v>
       </c>
@@ -14136,7 +14321,7 @@
         <v>0.96420539280379036</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D258" s="7">
         <v>560000</v>
       </c>
@@ -14149,7 +14334,7 @@
         <v>0.96296401971418177</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D259" s="7">
         <v>570000</v>
       </c>
@@ -14162,7 +14347,7 @@
         <v>0.96170519171205149</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D260" s="7">
         <v>580000</v>
       </c>
@@ -14175,7 +14360,7 @@
         <v>0.96042913877873193</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D261" s="7">
         <v>590000</v>
       </c>
@@ -14188,7 +14373,7 @@
         <v>0.95913609235147124</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D262" s="7">
         <v>600000</v>
       </c>
@@ -14201,7 +14386,7 @@
         <v>0.95782628522115143</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D263" s="7">
         <v>610000</v>
       </c>
@@ -14214,7 +14399,7 @@
         <v>0.95649995143072719</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D264" s="7">
         <v>620000</v>
       </c>
@@ -14227,7 +14412,7 @@
         <v>0.95515732617445348</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D265" s="7">
         <v>630000</v>
       </c>
@@ -14240,7 +14425,7 @@
         <v>0.95379864569797246</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D266" s="7">
         <v>640000</v>
       </c>
@@ -14253,7 +14438,7 @@
         <v>0.95242414719932422</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D267" s="7">
         <v>650000</v>
       </c>
@@ -14266,7 +14451,7 @@
         <v>0.95103406873094809</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D268" s="7">
         <v>660000</v>
       </c>
@@ -14279,7 +14464,7 @@
         <v>0.94962864910273292</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D269" s="7">
         <v>670000</v>
       </c>
@@ -14292,7 +14477,7 @@
         <v>0.94820812778617658</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D270" s="7">
         <v>680000</v>
       </c>
@@ -14305,7 +14490,7 @@
         <v>0.94677274481971263</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D271" s="7">
         <v>690000</v>
       </c>
@@ -14318,7 +14503,7 @@
         <v>0.94532274071525557</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D272" s="7">
         <v>700000</v>
       </c>
@@ -14331,7 +14516,7 @@
         <v>0.94385835636601745</v>
       </c>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D273" s="7">
         <v>710000</v>
       </c>
@@ -14344,7 +14529,7 @@
         <v>0.94237983295564554</v>
       </c>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D274" s="7">
         <v>720000</v>
       </c>
@@ -14357,7 +14542,7 @@
         <v>0.94088741186872693</v>
       </c>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D275" s="7">
         <v>730000</v>
       </c>
@@ -14370,7 +14555,7 @@
         <v>0.9393813346027009</v>
       </c>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D276" s="7">
         <v>740000</v>
       </c>
@@ -14383,7 +14568,7 @@
         <v>0.93786184268122774</v>
       </c>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D277" s="7">
         <v>750000</v>
       </c>
@@ -14396,7 +14581,7 @@
         <v>0.93632917756904444</v>
       </c>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D278" s="7">
         <v>760000</v>
       </c>
@@ -14409,7 +14594,7 @@
         <v>0.93478358058834887</v>
       </c>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D279" s="7">
         <v>770000</v>
       </c>
@@ -14422,7 +14607,7 @@
         <v>0.93322529283674482</v>
       </c>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D280" s="7">
         <v>780000</v>
       </c>
@@ -14435,7 +14620,7 @@
         <v>0.9316545551067793</v>
       </c>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D281" s="7">
         <v>790000</v>
       </c>
@@ -14448,7 +14633,7 @@
         <v>0.93007160780709941</v>
       </c>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D282" s="7">
         <v>800000</v>
       </c>
@@ -14461,7 +14646,7 @@
         <v>0.92847669088525941</v>
       </c>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D283" s="7">
         <v>810000</v>
       </c>
@@ -14474,7 +14659,7 @@
         <v>0.92687004375219584</v>
       </c>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D284" s="7">
         <v>820000</v>
       </c>
@@ -14487,7 +14672,7 @@
         <v>0.92525190520839939</v>
       </c>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D285" s="7">
         <v>830000</v>
       </c>
@@ -14500,7 +14685,7 @@
         <v>0.92362251337179635</v>
       </c>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D286" s="7">
         <v>840000</v>
       </c>
@@ -14513,7 +14698,7 @@
         <v>0.92198210560736127</v>
       </c>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D287" s="7">
         <v>850000</v>
       </c>
@@ -14526,7 +14711,7 @@
         <v>0.9203309184584747</v>
       </c>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D288" s="7">
         <v>860000</v>
       </c>
@@ -14539,7 +14724,7 @@
         <v>0.91866918758003568</v>
       </c>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D289" s="7">
         <v>870000</v>
       </c>
@@ -14552,7 +14737,7 @@
         <v>0.91699714767334572</v>
       </c>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D290" s="7">
         <v>880000</v>
       </c>
@@ -14565,7 +14750,7 @@
         <v>0.91531503242276557</v>
       </c>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D291" s="7">
         <v>890000</v>
       </c>
@@ -14578,7 +14763,7 @@
         <v>0.91362307443415613</v>
       </c>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D292" s="7">
         <v>900000</v>
       </c>
@@ -14591,7 +14776,7 @@
         <v>0.91192150517510628</v>
       </c>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D293" s="7">
         <v>910000</v>
       </c>
@@ -14604,7 +14789,7 @@
         <v>0.91021055491695047</v>
       </c>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D294" s="7">
         <v>920000</v>
       </c>
@@ -14617,7 +14802,7 @@
         <v>0.90849045267857464</v>
       </c>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D295" s="7">
         <v>930000</v>
       </c>
@@ -14630,7 +14815,7 @@
         <v>0.90676142617201383</v>
       </c>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D296" s="7">
         <v>940000</v>
       </c>
@@ -14643,7 +14828,7 @@
         <v>0.90502370174983293</v>
       </c>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D297" s="7">
         <v>950000</v>
       </c>
@@ -14656,7 +14841,7 @@
         <v>0.90327750435428977</v>
       </c>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D298" s="7">
         <v>960000</v>
       </c>
@@ -14669,7 +14854,7 @@
         <v>0.90152305746827344</v>
       </c>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D299" s="7">
         <v>970000</v>
       </c>
@@ -14682,7 +14867,7 @@
         <v>0.89976058306800866</v>
       </c>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D300" s="7">
         <v>980000</v>
       </c>
@@ -14695,7 +14880,7 @@
         <v>0.89799030157751714</v>
       </c>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D301" s="7">
         <v>990000</v>
       </c>
@@ -14708,7 +14893,7 @@
         <v>0.89621243182482713</v>
       </c>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D302" s="7">
         <v>1000000</v>
       </c>
@@ -14721,7 +14906,7 @@
         <v>0.89442719099991597</v>
       </c>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D303" s="7">
         <v>1010000</v>
       </c>
@@ -14734,7 +14919,7 @@
         <v>0.89263479461437301</v>
       </c>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D304" s="7">
         <v>1020000</v>
       </c>
@@ -14747,7 +14932,7 @@
         <v>0.89083545646276951</v>
       </c>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D305" s="7">
         <v>1030000</v>
       </c>
@@ -14760,7 +14945,7 @@
         <v>0.88902938858571634</v>
       </c>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D306" s="7">
         <v>1040000</v>
       </c>
@@ -14773,7 +14958,7 @@
         <v>0.88721680123459523</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D307" s="7">
         <v>1050000</v>
       </c>
@@ -14786,7 +14971,7 @@
         <v>0.88539790283794351</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D308" s="7">
         <v>1060000</v>
       </c>
@@ -14799,7 +14984,7 @@
         <v>0.88357289996947352</v>
       </c>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D309" s="7">
         <v>1070000</v>
       </c>
@@ -14812,7 +14997,7 @@
         <v>0.88174199731770531</v>
       </c>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D310" s="7">
         <v>1080000</v>
       </c>
@@ -14825,7 +15010,7 @@
         <v>0.87990539765719245</v>
       </c>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D311" s="7">
         <v>1090000</v>
       </c>
@@ -14838,7 +15023,7 @@
         <v>0.87806330182131986</v>
       </c>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D312" s="7">
         <v>1100000</v>
       </c>
@@ -14851,7 +15036,7 @@
         <v>0.876215908676647</v>
       </c>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D313" s="7">
         <v>1110000</v>
       </c>
@@ -14864,7 +15049,7 @@
         <v>0.87436341509877602</v>
       </c>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D314" s="7">
         <v>1120000</v>
       </c>
@@ -14877,7 +15062,7 @@
         <v>0.87250601594971999</v>
       </c>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D315" s="7">
         <v>1130000</v>
       </c>
@@ -14890,7 +15075,7 @@
         <v>0.87064390405674497</v>
       </c>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D316" s="7">
         <v>1140000</v>
       </c>
@@ -14903,7 +15088,7 @@
         <v>0.86877727019266082</v>
       </c>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D317" s="7">
         <v>1150000</v>
       </c>
@@ -14916,7 +15101,7 @@
         <v>0.86690630305753513</v>
       </c>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D318" s="7">
         <v>1160000</v>
       </c>
@@ -14929,7 +15114,7 @@
         <v>0.86503118926180333</v>
       </c>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D319" s="7">
         <v>1170000</v>
       </c>
@@ -14942,7 +15127,7 @@
         <v>0.86315211331074715</v>
       </c>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D320" s="7">
         <v>1180000</v>
       </c>
@@ -14955,7 +15140,7 @@
         <v>0.86126925759031525</v>
       </c>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D321" s="7">
         <v>1190000</v>
       </c>
@@ -14968,7 +15153,7 @@
         <v>0.85938280235425735</v>
       </c>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D322" s="7">
         <v>1200000</v>
       </c>
@@ -14981,7 +15166,7 @@
         <v>0.85749292571254421</v>
       </c>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D323" s="7">
         <v>1210000</v>
       </c>
@@ -14994,7 +15179,7 @@
         <v>0.85559980362104437</v>
       </c>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D324" s="7">
         <v>1220000</v>
       </c>
@@ -15007,7 +15192,7 @@
         <v>0.85370360987243077</v>
       </c>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D325" s="7">
         <v>1230000</v>
       </c>
@@ -15020,7 +15205,7 @@
         <v>0.85180451608828589</v>
       </c>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D326" s="7">
         <v>1240000</v>
       </c>
@@ -15033,7 +15218,7 @@
         <v>0.84990269171237953</v>
       </c>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D327" s="7">
         <v>1250000</v>
       </c>
@@ -15046,7 +15231,7 @@
         <v>0.84799830400508802</v>
       </c>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D328" s="7">
         <v>1260000</v>
       </c>
@@ -15059,7 +15244,7 @@
         <v>0.8460915180389269</v>
       </c>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D329" s="7">
         <v>1270000</v>
       </c>
@@ -15072,7 +15257,7 @@
         <v>0.84418249669516798</v>
       </c>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D330" s="7">
         <v>1280000</v>
       </c>
@@ -15085,7 +15270,7 @@
         <v>0.84227140066151129</v>
       </c>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D331" s="7">
         <v>1290000</v>
       </c>
@@ -15098,7 +15283,7 @@
         <v>0.84035838843078425</v>
       </c>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D332" s="7">
         <v>1300000</v>
       </c>
@@ -15111,7 +15296,7 @@
         <v>0.83844361630063702</v>
       </c>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D333" s="7">
         <v>1310000</v>
       </c>
@@ -15124,7 +15309,7 @@
         <v>0.83652723837420739</v>
       </c>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D334" s="7">
         <v>1320000</v>
       </c>
@@ -15137,7 +15322,7 @@
         <v>0.83460940656172522</v>
       </c>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D335" s="7">
         <v>1330000</v>
       </c>
@@ -15150,7 +15335,7 @@
         <v>0.83269027058302947</v>
       </c>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D336" s="7">
         <v>1340000</v>
       </c>
@@ -15163,7 +15348,7 @@
         <v>0.83076997797096708</v>
       </c>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D337" s="7">
         <v>1350000</v>
       </c>
@@ -15176,7 +15361,7 @@
         <v>0.82884867407564811</v>
       </c>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D338" s="7">
         <v>1360000</v>
       </c>
@@ -15189,7 +15374,7 @@
         <v>0.82692650206952811</v>
       </c>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D339" s="7">
         <v>1370000</v>
       </c>
@@ -15202,7 +15387,7 @@
         <v>0.82500360295328967</v>
       </c>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D340" s="7">
         <v>1380000</v>
       </c>
@@ -15215,7 +15400,7 @@
         <v>0.82308011556249749</v>
       </c>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D341" s="7">
         <v>1390000</v>
       </c>
@@ -15228,7 +15413,7 @@
         <v>0.82115617657499851</v>
       </c>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D342" s="7">
         <v>1400000</v>
       </c>
@@ -15241,7 +15426,7 @@
         <v>0.81923192051904037</v>
       </c>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D343" s="7">
         <v>1410000</v>
       </c>
@@ -15254,7 +15439,7 @@
         <v>0.81730747978208329</v>
       </c>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D344" s="7">
         <v>1420000</v>
       </c>
@@ -15267,7 +15452,7 @@
         <v>0.81538298462027692</v>
       </c>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D345" s="7">
         <v>1430000</v>
       </c>
@@ -15280,7 +15465,7 @@
         <v>0.81345856316858023</v>
       </c>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D346" s="7">
         <v>1440000</v>
       </c>
@@ -15293,7 +15478,7 @@
         <v>0.81153434145149439</v>
       </c>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D347" s="7">
         <v>1450000</v>
       </c>
@@ -15306,7 +15491,7 @@
         <v>0.80961044339438759</v>
       </c>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D348" s="7">
         <v>1460000</v>
       </c>
@@ -15319,7 +15504,7 @@
         <v>0.80768699083538564</v>
       </c>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D349" s="7">
         <v>1470000</v>
       </c>
@@ -15332,7 +15517,7 @@
         <v>0.8057641035378047</v>
       </c>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D350" s="7">
         <v>1480000</v>
       </c>
@@ -15345,7 +15530,7 @@
         <v>0.8038418992031009</v>
       </c>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D351" s="7">
         <v>1490000</v>
       </c>
@@ -15358,7 +15543,7 @@
         <v>0.80192049348431715</v>
       </c>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D352" s="7">
         <v>1500000</v>
       </c>
@@ -15371,7 +15556,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D353" s="7">
         <v>1510000</v>
       </c>
@@ -15384,7 +15569,7 @@
         <v>0.79808053034856719</v>
       </c>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D354" s="7">
         <v>1520000</v>
       </c>
@@ -15397,7 +15582,7 @@
         <v>0.79616219412310241</v>
       </c>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D355" s="7">
         <v>1530000</v>
       </c>
@@ -15410,7 +15595,7 @@
         <v>0.79424509892655693</v>
       </c>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D356" s="7">
         <v>1540000</v>
       </c>
@@ -15423,7 +15608,7 @@
         <v>0.79232935038733465</v>
       </c>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D357" s="7">
         <v>1550000</v>
       </c>
@@ -15436,7 +15621,7 @@
         <v>0.79041505217524377</v>
       </c>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D358" s="7">
         <v>1560000</v>
       </c>
@@ -15449,7 +15634,7 @@
         <v>0.78850230601779103</v>
       </c>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D359" s="7">
         <v>1570000</v>
       </c>
@@ -15462,7 +15647,7 @@
         <v>0.78659121171680135</v>
       </c>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D360" s="7">
         <v>1580000</v>
       </c>
@@ -15475,7 +15660,7 @@
         <v>0.78468186716534216</v>
       </c>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D361" s="7">
         <v>1590000</v>
       </c>
@@ -15488,7 +15673,7 @@
         <v>0.78277436836493386</v>
       </c>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D362" s="7">
         <v>1600000</v>
       </c>
@@ -15501,7 +15686,7 @@
         <v>0.78086880944303028</v>
       </c>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D363" s="7">
         <v>1610000</v>
       </c>
@@ -15514,7 +15699,7 @@
         <v>0.77896528267074683</v>
       </c>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D364" s="7">
         <v>1620000</v>
       </c>
@@ -15527,7 +15712,7 @@
         <v>0.77706387848082314</v>
       </c>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D365" s="7">
         <v>1630000</v>
       </c>
@@ -15540,7 +15725,7 @@
         <v>0.7751646854858002</v>
       </c>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D366" s="7">
         <v>1640000</v>
       </c>
@@ -15553,7 +15738,7 @@
         <v>0.77326779049639849</v>
       </c>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D367" s="7">
         <v>1650000</v>
       </c>
@@ -15566,7 +15751,7 @@
         <v>0.7713732785400772</v>
       </c>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D368" s="7">
         <v>1660000</v>
       </c>
@@ -15579,7 +15764,7 @@
         <v>0.76948123287976256</v>
       </c>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D369" s="7">
         <v>1670000</v>
       </c>
@@ -15592,7 +15777,7 @@
         <v>0.76759173503272804</v>
       </c>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D370" s="7">
         <v>1680000</v>
       </c>
@@ -15605,7 +15790,7 @@
         <v>0.76570486478961108</v>
       </c>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D371" s="7">
         <v>1690000</v>
       </c>
@@ -15618,7 +15803,7 @@
         <v>0.76382070023355519</v>
       </c>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D372" s="7">
         <v>1700000</v>
       </c>
@@ -15631,7 +15816,7 @@
         <v>0.76193931775945933</v>
       </c>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D373" s="7">
         <v>1710000</v>
       </c>
@@ -15644,7 +15829,7 @@
         <v>0.76006079209332467</v>
       </c>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D374" s="7">
         <v>1720000</v>
       </c>
@@ -15657,7 +15842,7 @@
         <v>0.75818519631168302</v>
       </c>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D375" s="7">
         <v>1730000</v>
       </c>
@@ -15670,7 +15855,7 @@
         <v>0.7563126018610965</v>
       </c>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D376" s="7">
         <v>1740000</v>
       </c>
@@ -15683,7 +15868,7 @@
         <v>0.75444307857771475</v>
       </c>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D377" s="7">
         <v>1750000</v>
       </c>
@@ -15696,7 +15881,7 @@
         <v>0.75257669470687794</v>
       </c>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D378" s="7">
         <v>1760000</v>
       </c>
@@ -15709,7 +15894,7 @@
         <v>0.75071351692275534</v>
       </c>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D379" s="7">
         <v>1770000</v>
       </c>
@@ -15722,7 +15907,7 @@
         <v>0.74885361034800746</v>
       </c>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D380" s="7">
         <v>1780000</v>
       </c>
@@ -15735,7 +15920,7 @@
         <v>0.74699703857346067</v>
       </c>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D381" s="7">
         <v>1790000</v>
       </c>
@@ -15748,7 +15933,7 @@
         <v>0.74514386367778529</v>
       </c>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D382" s="7">
         <v>1800000</v>
       </c>
@@ -15761,7 +15946,7 @@
         <v>0.74329414624716628</v>
       </c>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D383" s="7">
         <v>1810000</v>
       </c>
@@ -15774,7 +15959,7 @@
         <v>0.74144794539495829</v>
       </c>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D384" s="7">
         <v>1820000</v>
       </c>
@@ -15787,7 +15972,7 @@
         <v>0.73960531878131319</v>
       </c>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D385" s="7">
         <v>1830000</v>
       </c>
@@ -15800,7 +15985,7 @@
         <v>0.73776632263277464</v>
       </c>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D386" s="7">
         <v>1840000</v>
       </c>
@@ -15813,7 +15998,7 @@
         <v>0.73593101176182962</v>
       </c>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D387" s="7">
         <v>1850000</v>
       </c>
@@ -15826,7 +16011,7 @@
         <v>0.73409943958640766</v>
       </c>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D388" s="7">
         <v>1860000</v>
       </c>
@@ -15839,7 +16024,7 @@
         <v>0.73227165814932205</v>
       </c>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D389" s="7">
         <v>1870000</v>
       </c>
@@ -15852,7 +16037,7 @@
         <v>0.73044771813764475</v>
       </c>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D390" s="7">
         <v>1880000</v>
       </c>
@@ -15865,7 +16050,7 @@
         <v>0.72862766890200725</v>
       </c>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D391" s="7">
         <v>1890000</v>
       </c>
@@ -15878,7 +16063,7 @@
         <v>0.72681155847582168</v>
       </c>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D392" s="7">
         <v>1900000</v>
       </c>
@@ -15891,7 +16076,7 @@
         <v>0.72499943359441377</v>
       </c>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D393" s="7">
         <v>1910000</v>
       </c>
@@ -15904,7 +16089,7 @@
         <v>0.72319133971406457</v>
       </c>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D394" s="7">
         <v>1920000</v>
       </c>
@@ -15917,7 +16102,7 @@
         <v>0.72138732103095149</v>
       </c>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D395" s="7">
         <v>1930000</v>
       </c>
@@ -15930,7 +16115,7 @@
         <v>0.7195874204999847</v>
       </c>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D396" s="7">
         <v>1940000</v>
       </c>
@@ -15943,7 +16128,7 @@
         <v>0.71779167985353431</v>
       </c>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D397" s="7">
         <v>1950000</v>
       </c>
@@ -15956,7 +16141,7 @@
         <v>0.71600013962004083</v>
       </c>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D398" s="7">
         <v>1960000</v>
       </c>
@@ -15969,7 +16154,7 @@
         <v>0.71421283914250722</v>
       </c>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D399" s="7">
         <v>1970000</v>
       </c>
@@ -15982,7 +16167,7 @@
         <v>0.712429816596864</v>
       </c>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D400" s="7">
         <v>1980000</v>
       </c>
@@ -15995,7 +16180,7 @@
         <v>0.71065110901020734</v>
       </c>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D401" s="7">
         <v>1990000</v>
       </c>
@@ -16008,7 +16193,7 @@
         <v>0.70887675227890179</v>
       </c>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D402" s="7">
         <v>2000000</v>
       </c>
@@ -16035,13 +16220,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16053,7 +16238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -16064,7 +16249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16072,7 +16257,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16080,7 +16265,7 @@
         <v>2.8340000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -16089,7 +16274,7 @@
         <v>2.3421487603305788</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -16099,7 +16284,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -16108,7 +16293,7 @@
         <v>2473.1520478869356</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -16150,7 +16335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -16205,7 +16390,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -16260,7 +16445,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -16283,7 +16468,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -16339,7 +16524,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -16395,7 +16580,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -16404,7 +16589,7 @@
         <v>262.43194054073899</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -16427,12 +16612,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -16440,7 +16625,7 @@
         <v>7621</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16448,7 +16633,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -16456,7 +16641,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -16464,7 +16649,7 @@
         <v>-2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -16472,7 +16657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -16481,7 +16666,7 @@
         <v>-317.54362944495472</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>37</v>
       </c>
